--- a/singl_api/api_test_cases/flow_dataset_info.xlsx
+++ b/singl_api/api_test_cases/flow_dataset_info.xlsx
@@ -4,20 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12465" activeTab="2"/>
+    <workbookView windowWidth="24345" windowHeight="12465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="flow_info-76" sheetId="1" r:id="rId1"/>
     <sheet name="flow_info-57" sheetId="2" r:id="rId2"/>
     <sheet name="flow_info" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="479">
   <si>
     <t>id</t>
   </si>
@@ -1189,441 +1188,268 @@
     <t>2cf1c2a5-3706-4e81-bc92-65539dd2ed65</t>
   </si>
   <si>
-    <r>
-      <t>source_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF212121"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>自动化基础测试</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF212121"/>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-      </rPr>
-      <t>_HDFS_csv</t>
-    </r>
+    <t>d762deac-700b-459f-b110-1d0f2fe8d97a</t>
   </si>
   <si>
     <t>45c63cfd-2475-461a-a703-f98f9e54b607</t>
   </si>
   <si>
-    <r>
-      <t>source_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF212121"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>自动化基础测试</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF212121"/>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-      </rPr>
-      <t>_FTP</t>
-    </r>
+    <t>82fc93a4-3394-46d9-8ca0-304aee50e74a</t>
   </si>
   <si>
     <t>312e5f62-315c-4041-9f35-97e272e738e3</t>
   </si>
   <si>
-    <r>
-      <t>source_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>自动化基础测试</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-      </rPr>
-      <t>_JDBC_mysql</t>
-    </r>
+    <t>424c9f27-00b4-4176-af2f-a2dfe26afe61</t>
   </si>
   <si>
     <t>1b132cde-e0c9-4950-84aa-144164d40cd5</t>
   </si>
   <si>
-    <r>
-      <t>sink_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>自动化基础测试</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-      </rPr>
-      <t>_HDFS</t>
-    </r>
+    <t>5bb50374-9469-4cec-a6a6-ee237d932f08</t>
+  </si>
+  <si>
+    <t>5c160935-0df1-4274-9d83-324cecd2df90</t>
+  </si>
+  <si>
+    <t>099df9bf-02bd-4900-a09d-349ce01ad248</t>
+  </si>
+  <si>
+    <t>fc02740d-9645-4c10-8123-7c7bb56be485</t>
+  </si>
+  <si>
+    <t>9e0c71a8-5e03-4fc4-a622-24e4ef7cb213</t>
+  </si>
+  <si>
+    <t>d66b53e3-591a-4fbb-bef0-de6a478cf07c</t>
   </si>
   <si>
     <t>449ccf89-666b-488e-9a50-f01113ba63c2</t>
   </si>
   <si>
-    <r>
-      <t>sink_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>自动化基础测试</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-      </rPr>
-      <t>_JDBC</t>
-    </r>
+    <t>e5c447e2-99d0-442c-ab02-556e5b68daba</t>
   </si>
   <si>
     <t>e8335bc8-f28a-4159-b0e5-b2a576a171c0</t>
   </si>
   <si>
-    <r>
-      <t>sqlsource_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF212121"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>自动化基础测试</t>
-    </r>
+    <t>66838cc7-80ea-41f6-84c8-c0793f35e3c1</t>
   </si>
   <si>
     <t>411e7fd4-1ccb-497b-9046-e984d6e6d497</t>
   </si>
   <si>
-    <r>
-      <t>tc_df_sample_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>基本测试</t>
-    </r>
+    <t>220d86b8-312b-43c6-8525-490d123bcb24</t>
+  </si>
+  <si>
+    <t>[{"sName":"李勇","sex":"男","class":"CS","age":"20","sId":"95001"},{"sName":"张立","sex":"男","class":"IS","age":"19","sId":"95004"},{"sName":"孙庆","sex":"男","class":"CS","age":"23","sId":"95006"},{"sName":"孙庆","sex":"男","class":"CS","age":"23","sId":"95006"},{"sName":"易思玲","sex":"女","class":"MA","age":"19","sId":"95007"},{"sName":"李娜","sex":"女","class":"CS","age":"18","sId":"95008"},{"sName":"梦圆圆","sex":"女","class":"MA","age":"18","sId":"95009"},{"sName":"孔小涛","sex":"男","class":"CS","age":"19","sId":"95010"},{"sName":"包小柏","sex":"男","class":"MA","age":"18","sId":"95011"},{"sName":"钱国","sex":"男","class":"MA","age":"21","sId":"95016"},{"sName":"王风娟","sex":"女","class":"IS","age":"18","sId":"95017"},{"sName":"王风娟","sex":"女","class":"IS","age":"18","sId":"95017"},{"sName":"王风娟","sex":"女","class":"IS","age":"18","sId":"95017"},{"sName":"王一","sex":"女","class":"IS","age":"19","sId":"95018"},{"sName":"邢小丽","sex":"女","class":"IS","age":"19","sId":"95019"},{"sName":"郑明","sex":"男","class":"MA","age":"20","sId":"95022"},{"sName":"郑明","sex":"男","class":"MA","age":"20","sId":"95022"},{"sName":"郑明","sex":"男","class":"MA","age":"20","sId":"95022"}]</t>
+  </si>
+  <si>
+    <t>f25be969-842e-44c4-ba76-f1081685fb4c</t>
+  </si>
+  <si>
+    <t>[{"sName":"李勇","sex":"男","class":"CS","age":"20","sId":"95001"},{"sName":"刘晨","sex":"女","class":"IS","age":"19","sId":"95002"},{"sName":"王敏","sex":"女","class":"MA","age":"22","sId":"95003"},{"sName":"张立","sex":"男","class":"IS","age":"19","sId":"95004"},{"sName":"刘刚","sex":"男","class":"MA","age":"18","sId":"95005"},{"sName":"孙庆","sex":"男","class":"CS","age":"23","sId":"95006"},{"sName":"易思玲","sex":"女","class":"MA","age":"19","sId":"95007"},{"sName":"李娜","sex":"女","class":"CS","age":"18","sId":"95008"},{"sName":"孔小涛","sex":"男","class":"CS","age":"19","sId":"95010"},{"sName":"包小柏","sex":"男","class":"MA","age":"18","sId":"95011"},{"sName":"孙花","sex":"女","class":"CS","age":"20","sId":"95012"},{"sName":"冯伟","sex":"男","class":"CS","age":"21","sId":"95013"},{"sName":"王小丽","sex":"女","class":"CS","age":"19","sId":"95014"},{"sName":"王君","sex":"男","class":"MA","age":"18","sId":"95015"},{"sName":"钱国","sex":"男","class":"MA","age":"21","sId":"95016"},{"sName":"王风娟","sex":"女","class":"IS","age":"18","sId":"95017"},{"sName":"王一","sex":"女","class":"IS","age":"19","sId":"95018"},{"sName":"邢小丽","sex":"女","class":"IS","age":"19","sId":"95019"},{"sName":"赵钱","sex":"男","class":"IS","age":"21","sId":"95020"},{"sName":"周二","sex":"男","class":"MA","age":"17","sId":"95021"},{"sName":"郑明","sex":"男","class":"MA","age":"20","sId":"95022"}]</t>
   </si>
   <si>
     <t>98f07970-c1be-4ad2-b3a1-1a14865bcb0b</t>
   </si>
   <si>
+    <t>1a3b366e-5a03-4870-b909-133c12b91af7</t>
+  </si>
+  <si>
     <t>e3b32f0a-0bf8-493d-8990-f0512ab191d7</t>
   </si>
   <si>
-    <r>
-      <t>tc_df_join_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>基本测试</t>
-    </r>
+    <t>1acabdb0-978f-4167-8b89-d986d81e5139</t>
   </si>
   <si>
     <t>e2f5b425-1f7a-41d4-a43d-fa29c02e8dd6</t>
   </si>
   <si>
+    <t>95aefa7b-73d1-4f7a-9504-c1950aa2af74</t>
+  </si>
+  <si>
     <t>4f85413d-9fda-4407-b379-cadd5c9d3e6b</t>
   </si>
   <si>
+    <t>7dd11022-dd64-40ad-a874-19821404eb50</t>
+  </si>
+  <si>
     <t>8b240b14-a9bd-42c2-be76-d810004c20f8</t>
   </si>
   <si>
-    <r>
-      <t>tc_df_starjoin_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>基本测试</t>
-    </r>
+    <t>5921139a-48cd-4de4-9252-fbe9b5ce3704</t>
   </si>
   <si>
     <t>2ee1258d-d3bd-46c2-ac00-210c67f7f871</t>
   </si>
   <si>
-    <r>
-      <t>tc_df_productjoin_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>基本测试</t>
-    </r>
+    <t>36adba18-7704-43b6-853a-62362f6950b7</t>
   </si>
   <si>
     <t>a1fa99bf-0145-4f15-8078-186ff263bc6e</t>
   </si>
   <si>
-    <r>
-      <t>transform_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>自动化基础测试</t>
-    </r>
+    <t>1b0a115c-52a8-4a35-9b7d-fce2d644453e</t>
   </si>
   <si>
     <t>5fed97c0-7449-4179-90cd-7596266f9f25</t>
   </si>
   <si>
-    <r>
-      <t>tc_df_sql_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>基本测试</t>
-    </r>
+    <t>723d15a9-864c-4d25-8026-930abaa66a87</t>
+  </si>
+  <si>
+    <t>2e4021c0-bc54-40d0-85ab-c43f3773a0cb</t>
+  </si>
+  <si>
+    <t>c37b5cee-b44f-4b19-aa38-f512ae24edae</t>
+  </si>
+  <si>
+    <t>c9b65afe-66c8-41a8-8726-5efb8a3d57c0</t>
   </si>
   <si>
     <t>bbf206f2-e56a-4d95-89b1-82708e5f7a3b</t>
   </si>
   <si>
-    <r>
-      <t>minus_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF212121"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>自动化基础测试</t>
-    </r>
+    <t>4865f529-c704-4aef-b6c8-f80dba0d08ea</t>
   </si>
   <si>
     <t>128facf7-8dcf-48ef-aaeb-9ef65e5ed423</t>
   </si>
   <si>
-    <r>
-      <t>split_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>自动化基础测试</t>
-    </r>
+    <t>f1ec9340-4cb8-4fe3-99bf-ab3f63c441fe</t>
+  </si>
+  <si>
+    <t>959f0c6c-6691-49b4-8074-0a5c0564a14f</t>
   </si>
   <si>
     <t>640bd487-e1a5-4837-897a-3c2d03beb219</t>
   </si>
   <si>
-    <r>
-      <t>union_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>自动化基础测试</t>
-    </r>
+    <t>a0375708-f0ce-4bec-a1ec-09f75244564e</t>
+  </si>
+  <si>
+    <t>ba7c2ae1-d51b-46f3-8f64-301c1fb71bd8</t>
   </si>
   <si>
     <t>411e2686-9089-4f81-a0cb-85e1e394a0f8</t>
   </si>
   <si>
-    <r>
-      <t>intersect_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>自动化基础测试</t>
-    </r>
+    <t>34527417-b03f-4fab-b08c-5b52f171ac75</t>
   </si>
   <si>
     <t>9ba50d38-dd41-41ba-bd13-a99b25875d3d</t>
   </si>
   <si>
-    <r>
-      <t>tc_df_supplement_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>基本测试</t>
-    </r>
+    <t>f7656989-a86b-43db-a172-73a90db7c175</t>
   </si>
   <si>
     <t>18576619-888d-470c-9c25-dc895d149bc7</t>
   </si>
   <si>
-    <r>
-      <t>decision_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>自动化基础测试</t>
-    </r>
+    <t>e7df08b3-4875-47a5-8312-209c06e26665</t>
   </si>
   <si>
     <t>74cbeba7-bf67-4b93-807c-260e50453ba6</t>
   </si>
   <si>
-    <r>
-      <t>validate_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>自动化基础测试</t>
-    </r>
+    <t>b5f288a5-0306-4c1a-a219-fbc26724f09f</t>
+  </si>
+  <si>
+    <t>c6bc91c3-86ab-4698-9839-81248d37a886</t>
+  </si>
+  <si>
+    <t>6bd7eb27-e7cc-4c12-8d72-b468e56f5a1a</t>
+  </si>
+  <si>
+    <t>f77581c7-a467-4c0f-87d5-064e3494837a</t>
+  </si>
+  <si>
+    <t>6b58c7a1-aa68-47f4-9054-80bb381886d0</t>
+  </si>
+  <si>
+    <t>b12b6272-2b8c-4279-844f-89ec0953580d</t>
   </si>
   <si>
     <t>669f5d69-bbd7-431c-a635-34bebbca624e</t>
   </si>
   <si>
-    <r>
-      <t>tc_df_aggregate_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF212121"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>基本测试</t>
-    </r>
+    <t>893151d3-7645-4c3e-aeeb-4e51151430b5</t>
+  </si>
+  <si>
+    <t>21cea4f8-3a3a-4e33-8c14-0ec8b27edb77</t>
+  </si>
+  <si>
+    <t>17218ff5-7c94-431d-aa11-a0475c20b2a8</t>
   </si>
   <si>
     <t>aefbbffd-d8e3-4e24-873b-a2c98fa8e3f9</t>
   </si>
   <si>
-    <r>
-      <t>tc_df_top_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>基本测试</t>
-    </r>
+    <t>57639d8b-adc7-4a2e-9fbb-f9b63bc68865</t>
+  </si>
+  <si>
+    <t>495315cc-25d5-4dba-a8d3-a3a7232ee81b</t>
+  </si>
+  <si>
+    <t>57a84350-bc47-416b-90d3-7f2cb1a9d1c0</t>
+  </si>
+  <si>
+    <t>54e650af-0c43-4411-a670-1d3169323d1d</t>
   </si>
   <si>
     <t>a49b7d67-877e-4417-ba2f-3b9d27210df5</t>
   </si>
   <si>
-    <r>
-      <t>tc_df_lookuptable_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>基本测试</t>
-    </r>
+    <t>6a01dce3-2da9-4c20-9a9b-336ace260a48</t>
+  </si>
+  <si>
+    <t>d4d945a9-72fe-4cf0-9e66-24ff989e3b1a</t>
   </si>
   <si>
     <t>9adcbf40-4141-4a8c-a4f8-0cd443ffd82a</t>
   </si>
   <si>
-    <r>
-      <t>lookup_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>自动化基础测试</t>
-    </r>
+    <t>519ac725-22be-4e98-b8d7-6b4f1442a5fc</t>
+  </si>
+  <si>
+    <t>21b6f6be-b4b0-4dd2-9fdf-36e4db2e0f32</t>
   </si>
   <si>
     <t>7c200fdc-10ee-44f5-8bd3-78a1f8c5468e</t>
   </si>
   <si>
-    <r>
-      <t>tc_df_filter_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>基本测试</t>
-    </r>
+    <t>db2fbfc3-ee83-421b-8470-0c9004392c78</t>
+  </si>
+  <si>
+    <t>310ad26d-d686-483e-9457-385d290a5946</t>
+  </si>
+  <si>
+    <t>7e6db9e2-40f7-4c8d-b55a-4019787f9697</t>
+  </si>
+  <si>
+    <t>b1ad69ca-3c3a-47b1-9d29-e1848d3af472</t>
+  </si>
+  <si>
+    <t>b8d4415a-f348-47b6-9ea2-120b0fab1c63</t>
+  </si>
+  <si>
+    <t>743ec08f-fb3f-44e9-aaff-fa4eee3a8e93</t>
+  </si>
+  <si>
+    <t>ec142b2f-f75a-405e-9485-b0f7d9aa98d3</t>
+  </si>
+  <si>
+    <t>d298d660-b47a-4d79-8118-d43a0614b23</t>
+  </si>
+  <si>
+    <t>038baf0a-c60c-4500-9bfd-5471f12fe40e</t>
+  </si>
+  <si>
+    <t>[{"SALARY":"458.0","GENDER":"GENDER","TIME":"","JOB":"job","NAME":"name5","AGE":"458.0"},{"SALARY":"459.0","GENDER":"GENDER","TIME":"","JOB":"job","NAME":"","AGE":"459.0"}]</t>
+  </si>
+  <si>
+    <t>0c00515c-76d1-4d5f-a110-e950f354d708</t>
   </si>
   <si>
     <t>e431bdb0-36bf-488f-8559-5da954562db1</t>
@@ -1641,6 +1467,9 @@
       <t>自动化基础测试</t>
     </r>
   </si>
+  <si>
+    <t>b2ed1eca-f5fe-4309-ba86-bc53c5dfb183</t>
+  </si>
 </sst>
 </file>
 
@@ -1652,7 +1481,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="29">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1690,8 +1519,8 @@
       <charset val="0"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF222222"/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
     </font>
@@ -1702,10 +1531,79 @@
       <charset val="0"/>
     </font>
     <font>
-      <sz val="10"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1722,122 +1620,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1852,6 +1637,22 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1859,10 +1660,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF212121"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1870,7 +1687,7 @@
       <charset val="0"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1885,55 +1702,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1951,13 +1732,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1969,25 +1810,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2005,13 +1834,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2023,55 +1894,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2090,60 +1913,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2172,6 +1941,60 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2185,152 +2008,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="6">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="2">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="5">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="6">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="3">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2340,21 +2163,16 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2676,7 +2494,7 @@
   <sheetPr/>
   <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A5" sqref="$A1:$XFD65"/>
     </sheetView>
   </sheetViews>
@@ -2737,10 +2555,10 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D2" t="s">
@@ -2752,7 +2570,7 @@
       <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H2" t="s">
@@ -2775,10 +2593,10 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D3" t="s">
@@ -3023,10 +2841,10 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D10" t="s">
@@ -3076,7 +2894,7 @@
       <c r="F11" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H11" t="s">
@@ -3108,7 +2926,7 @@
       <c r="F12" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H12" t="s">
@@ -3134,7 +2952,7 @@
       <c r="B13" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="11" t="s">
         <v>65</v>
       </c>
       <c r="D13" t="s">
@@ -3210,7 +3028,7 @@
       <c r="B15" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="11" t="s">
         <v>77</v>
       </c>
       <c r="D15" t="s">
@@ -3245,10 +3063,10 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="11" t="s">
         <v>82</v>
       </c>
       <c r="D16" t="s">
@@ -3531,10 +3349,10 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="12" t="s">
         <v>124</v>
       </c>
       <c r="D24" t="s">
@@ -3639,13 +3457,13 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="12" t="s">
         <v>136</v>
       </c>
       <c r="C27" t="s">
         <v>137</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="3" t="s">
         <v>138</v>
       </c>
       <c r="E27" t="s">
@@ -3677,7 +3495,7 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="3" t="s">
         <v>143</v>
       </c>
       <c r="E28" t="s">
@@ -3750,7 +3568,7 @@
       <c r="B30" t="s">
         <v>153</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="11" t="s">
         <v>154</v>
       </c>
       <c r="D30" t="s">
@@ -4024,10 +3842,10 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="12" t="s">
         <v>183</v>
       </c>
       <c r="D38" t="s">
@@ -4272,7 +4090,7 @@
       <c r="C45" t="s">
         <v>212</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="D45" s="3" t="s">
         <v>213</v>
       </c>
       <c r="E45" t="s">
@@ -4301,7 +4119,7 @@
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="D46" s="3" t="s">
         <v>218</v>
       </c>
       <c r="E46" t="s">
@@ -4336,7 +4154,7 @@
       <c r="C47" t="s">
         <v>222</v>
       </c>
-      <c r="D47" s="14" t="s">
+      <c r="D47" s="3" t="s">
         <v>223</v>
       </c>
       <c r="E47" t="s">
@@ -4365,7 +4183,7 @@
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="D48" s="14" t="s">
+      <c r="D48" s="3" t="s">
         <v>228</v>
       </c>
       <c r="E48" t="s">
@@ -4400,7 +4218,7 @@
       <c r="C49" t="s">
         <v>230</v>
       </c>
-      <c r="D49" s="14" t="s">
+      <c r="D49" s="3" t="s">
         <v>231</v>
       </c>
       <c r="E49" t="s">
@@ -4429,7 +4247,7 @@
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="D50" s="14" t="s">
+      <c r="D50" s="3" t="s">
         <v>234</v>
       </c>
       <c r="E50" t="s">
@@ -4458,7 +4276,7 @@
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="D51" s="14" t="s">
+      <c r="D51" s="3" t="s">
         <v>236</v>
       </c>
       <c r="E51" t="s">
@@ -4487,7 +4305,7 @@
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="D52" s="14" t="s">
+      <c r="D52" s="3" t="s">
         <v>238</v>
       </c>
       <c r="E52" t="s">
@@ -4516,7 +4334,7 @@
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="D53" s="14" t="s">
+      <c r="D53" s="3" t="s">
         <v>240</v>
       </c>
       <c r="E53" t="s">
@@ -4545,7 +4363,7 @@
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="D54" s="14" t="s">
+      <c r="D54" s="3" t="s">
         <v>242</v>
       </c>
       <c r="E54" t="s">
@@ -4574,7 +4392,7 @@
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="D55" s="14" t="s">
+      <c r="D55" s="3" t="s">
         <v>244</v>
       </c>
       <c r="E55" t="s">
@@ -4603,7 +4421,7 @@
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="D56" s="14" t="s">
+      <c r="D56" s="3" t="s">
         <v>244</v>
       </c>
       <c r="E56" t="s">
@@ -4632,7 +4450,7 @@
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="D57" s="14" t="s">
+      <c r="D57" s="3" t="s">
         <v>246</v>
       </c>
       <c r="E57" t="s">
@@ -5027,13 +4845,13 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="3" t="s">
         <v>256</v>
       </c>
       <c r="E2" t="s">
@@ -5042,7 +4860,7 @@
       <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H2" t="s">
@@ -5065,10 +4883,10 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D3" t="s">
@@ -5141,10 +4959,10 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D5" t="s">
@@ -5194,7 +5012,7 @@
       <c r="F6" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H6" t="s">
@@ -5229,7 +5047,7 @@
       <c r="F7" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H7" t="s">
@@ -5331,10 +5149,10 @@
       <c r="B10" t="s">
         <v>282</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="3" t="s">
         <v>283</v>
       </c>
       <c r="E10" t="s">
@@ -5369,10 +5187,10 @@
       <c r="B11" t="s">
         <v>286</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="3" t="s">
         <v>287</v>
       </c>
       <c r="E11" t="s">
@@ -5404,13 +5222,13 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="3" t="s">
         <v>291</v>
       </c>
       <c r="E12" t="s">
@@ -5445,10 +5263,10 @@
       <c r="B13" t="s">
         <v>294</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="3" t="s">
         <v>295</v>
       </c>
       <c r="E13" t="s">
@@ -5483,10 +5301,10 @@
       <c r="B14" t="s">
         <v>298</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="3" t="s">
         <v>299</v>
       </c>
       <c r="E14" t="s">
@@ -5521,10 +5339,10 @@
       <c r="B15" t="s">
         <v>302</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="3" t="s">
         <v>303</v>
       </c>
       <c r="E15" t="s">
@@ -5559,10 +5377,10 @@
       <c r="B16" t="s">
         <v>306</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="3" t="s">
         <v>307</v>
       </c>
       <c r="E16" t="s">
@@ -5585,7 +5403,7 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="3" t="s">
         <v>310</v>
       </c>
       <c r="E17" t="s">
@@ -5608,7 +5426,7 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="3" t="s">
         <v>312</v>
       </c>
       <c r="E18" t="s">
@@ -5631,7 +5449,7 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="3" t="s">
         <v>313</v>
       </c>
       <c r="E19" t="s">
@@ -5654,13 +5472,13 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="3" t="s">
         <v>315</v>
       </c>
       <c r="E20" t="s">
@@ -5686,10 +5504,10 @@
       <c r="B21" t="s">
         <v>317</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="3" t="s">
         <v>318</v>
       </c>
       <c r="E21" t="s">
@@ -5712,7 +5530,7 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="3" t="s">
         <v>320</v>
       </c>
       <c r="E22" t="s">
@@ -5735,13 +5553,13 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="3" t="s">
         <v>322</v>
       </c>
       <c r="E23" t="s">
@@ -5764,7 +5582,7 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="3" t="s">
         <v>324</v>
       </c>
       <c r="E24" t="s">
@@ -5790,10 +5608,10 @@
       <c r="B25" t="s">
         <v>325</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E25" t="s">
@@ -5819,10 +5637,10 @@
       <c r="B26" t="s">
         <v>328</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="3" t="s">
         <v>329</v>
       </c>
       <c r="E26" t="s">
@@ -5848,10 +5666,10 @@
       <c r="B27" t="s">
         <v>331</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="3" t="s">
         <v>332</v>
       </c>
       <c r="E27" t="s">
@@ -5877,10 +5695,10 @@
       <c r="B28" t="s">
         <v>334</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="3" t="s">
         <v>335</v>
       </c>
       <c r="E28" t="s">
@@ -5903,7 +5721,7 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="3" t="s">
         <v>337</v>
       </c>
       <c r="E29" t="s">
@@ -5926,7 +5744,7 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="3" t="s">
         <v>338</v>
       </c>
       <c r="E30" t="s">
@@ -5949,7 +5767,7 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="3" t="s">
         <v>339</v>
       </c>
       <c r="E31" t="s">
@@ -5972,7 +5790,7 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="3" t="s">
         <v>340</v>
       </c>
       <c r="E32" t="s">
@@ -5995,7 +5813,7 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="3" t="s">
         <v>341</v>
       </c>
       <c r="E33" t="s">
@@ -6018,13 +5836,13 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D34" s="3" t="s">
         <v>343</v>
       </c>
       <c r="E34" t="s">
@@ -6047,7 +5865,7 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="3" t="s">
         <v>346</v>
       </c>
       <c r="E35" t="s">
@@ -6056,7 +5874,7 @@
       <c r="F35" t="s">
         <v>17</v>
       </c>
-      <c r="G35" s="18" t="s">
+      <c r="G35" s="7" t="s">
         <v>191</v>
       </c>
       <c r="K35" t="s">
@@ -6070,7 +5888,7 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="D36" s="3" t="s">
         <v>347</v>
       </c>
       <c r="E36" t="s">
@@ -6093,13 +5911,13 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="12" t="s">
         <v>349</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="D37" s="3" t="s">
         <v>350</v>
       </c>
       <c r="E37" t="s">
@@ -6122,7 +5940,7 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="D38" s="3" t="s">
         <v>352</v>
       </c>
       <c r="E38" t="s">
@@ -6145,7 +5963,7 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="3" t="s">
         <v>354</v>
       </c>
       <c r="E39" t="s">
@@ -6168,7 +5986,7 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="D40" s="3" t="s">
         <v>356</v>
       </c>
       <c r="E40" t="s">
@@ -6191,13 +6009,13 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="D41" s="3" t="s">
         <v>359</v>
       </c>
       <c r="E41" t="s">
@@ -6220,7 +6038,7 @@
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="D42" s="3" t="s">
         <v>362</v>
       </c>
       <c r="E42" t="s">
@@ -6243,13 +6061,13 @@
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="D43" s="3" t="s">
         <v>365</v>
       </c>
       <c r="E43" t="s">
@@ -6272,7 +6090,7 @@
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="D44" s="3" t="s">
         <v>368</v>
       </c>
       <c r="E44" t="s">
@@ -6298,10 +6116,10 @@
       <c r="B45" t="s">
         <v>369</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="D45" s="3" t="s">
         <v>370</v>
       </c>
       <c r="E45" t="s">
@@ -6324,7 +6142,7 @@
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="D46" s="3" t="s">
         <v>373</v>
       </c>
       <c r="E46" t="s">
@@ -6347,7 +6165,7 @@
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="D47" s="14" t="s">
+      <c r="D47" s="3" t="s">
         <v>375</v>
       </c>
       <c r="E47" t="s">
@@ -6370,7 +6188,7 @@
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="D48" s="14" t="s">
+      <c r="D48" s="3" t="s">
         <v>377</v>
       </c>
       <c r="E48" t="s">
@@ -6393,7 +6211,7 @@
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="D49" s="14" t="s">
+      <c r="D49" s="3" t="s">
         <v>379</v>
       </c>
       <c r="E49" t="s">
@@ -6416,7 +6234,7 @@
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="D50" s="14" t="s">
+      <c r="D50" s="3" t="s">
         <v>381</v>
       </c>
       <c r="E50" t="s">
@@ -6439,7 +6257,7 @@
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="D51" s="19" t="s">
+      <c r="D51" s="14" t="s">
         <v>383</v>
       </c>
       <c r="E51" t="s">
@@ -6448,7 +6266,7 @@
       <c r="F51" t="s">
         <v>171</v>
       </c>
-      <c r="G51" s="15" t="s">
+      <c r="G51" s="11" t="s">
         <v>384</v>
       </c>
       <c r="K51" t="s">
@@ -6462,7 +6280,7 @@
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="D52" s="14" t="s">
+      <c r="D52" s="3" t="s">
         <v>385</v>
       </c>
       <c r="E52" t="s">
@@ -6485,7 +6303,7 @@
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="D53" s="14" t="s">
+      <c r="D53" s="3" t="s">
         <v>386</v>
       </c>
       <c r="E53" t="s">
@@ -6513,16 +6331,17 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M65"/>
+  <dimension ref="A1:M61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="2" width="39.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="3" max="3" width="36.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="37" customWidth="1"/>
     <col min="12" max="12" width="95.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6575,26 +6394,19 @@
         <v>387</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
+      <c r="H2"/>
+      <c r="I2"/>
       <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="L2"/>
       <c r="M2">
         <v>83</v>
       </c>
@@ -6607,26 +6419,19 @@
         <v>389</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3"/>
-      <c r="F3"/>
       <c r="G3" t="s">
         <v>27</v>
       </c>
-      <c r="H3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
+      <c r="H3"/>
+      <c r="I3"/>
       <c r="K3" t="s">
         <v>21</v>
       </c>
-      <c r="L3"/>
       <c r="M3">
         <v>83</v>
       </c>
@@ -6638,27 +6443,20 @@
       <c r="B4" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4"/>
-      <c r="F4"/>
       <c r="G4" t="s">
         <v>34</v>
       </c>
-      <c r="H4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
+      <c r="H4"/>
+      <c r="I4"/>
       <c r="K4" t="s">
         <v>21</v>
       </c>
-      <c r="L4"/>
       <c r="M4">
         <v>83</v>
       </c>
@@ -6670,27 +6468,20 @@
       <c r="B5" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="D5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5"/>
-      <c r="F5"/>
       <c r="G5" t="s">
         <v>18</v>
       </c>
-      <c r="H5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" t="s">
-        <v>20</v>
-      </c>
+      <c r="H5"/>
+      <c r="I5"/>
       <c r="K5" t="s">
         <v>21</v>
       </c>
-      <c r="L5"/>
       <c r="M5">
         <v>83</v>
       </c>
@@ -6699,24 +6490,17 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6"/>
-      <c r="F6"/>
+      <c r="D6" s="5" t="s">
+        <v>395</v>
+      </c>
       <c r="G6" t="s">
         <v>18</v>
       </c>
-      <c r="H6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" t="s">
-        <v>20</v>
-      </c>
+      <c r="H6"/>
+      <c r="I6"/>
       <c r="K6" t="s">
         <v>21</v>
       </c>
-      <c r="L6"/>
       <c r="M6">
         <v>83</v>
       </c>
@@ -6725,1872 +6509,1132 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7"/>
-      <c r="F7"/>
+      <c r="D7" s="5" t="s">
+        <v>396</v>
+      </c>
       <c r="G7" t="s">
         <v>18</v>
       </c>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" t="s">
-        <v>20</v>
-      </c>
+      <c r="H7"/>
+      <c r="I7"/>
       <c r="K7" t="s">
         <v>21</v>
       </c>
-      <c r="L7"/>
       <c r="M7">
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8"/>
-      <c r="F8"/>
+    <row r="8" spans="4:7">
+      <c r="D8" s="5" t="s">
+        <v>397</v>
+      </c>
       <c r="G8" t="s">
         <v>18</v>
       </c>
-      <c r="H8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8"/>
-      <c r="M8">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="D9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9"/>
-      <c r="F9"/>
+    </row>
+    <row r="9" spans="4:7">
+      <c r="D9" s="5" t="s">
+        <v>398</v>
+      </c>
       <c r="G9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9"/>
-      <c r="K9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9"/>
-      <c r="M9">
-        <v>83</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="D10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10"/>
-      <c r="F10"/>
+        <v>7</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>399</v>
+      </c>
       <c r="G10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" t="s">
-        <v>57</v>
-      </c>
-      <c r="I10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10"/>
+        <v>18</v>
+      </c>
+      <c r="H10"/>
+      <c r="I10"/>
       <c r="K10" t="s">
         <v>21</v>
       </c>
-      <c r="L10"/>
       <c r="M10">
         <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="C11" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="D11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I11" t="s">
-        <v>20</v>
-      </c>
+      <c r="C11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="G11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11"/>
+      <c r="I11"/>
       <c r="K11" t="s">
         <v>21</v>
       </c>
-      <c r="L11"/>
       <c r="M11">
         <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" t="s">
-        <v>20</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="G12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12"/>
+      <c r="I12"/>
       <c r="K12" t="s">
         <v>21</v>
       </c>
-      <c r="L12"/>
       <c r="M12">
         <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" t="s">
-        <v>69</v>
-      </c>
-      <c r="I13" t="s">
-        <v>20</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="H13"/>
+      <c r="I13"/>
       <c r="K13" t="s">
         <v>21</v>
       </c>
-      <c r="L13"/>
       <c r="M13">
         <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="D14" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" t="s">
-        <v>69</v>
-      </c>
-      <c r="I14" t="s">
-        <v>20</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="H14"/>
+      <c r="I14"/>
       <c r="K14" t="s">
         <v>21</v>
       </c>
-      <c r="L14"/>
       <c r="M14">
         <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" t="s">
-        <v>78</v>
-      </c>
-      <c r="E15"/>
-      <c r="F15"/>
+        <v>409</v>
+      </c>
+      <c r="C15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>410</v>
+      </c>
       <c r="G15" t="s">
-        <v>79</v>
-      </c>
-      <c r="H15" t="s">
-        <v>80</v>
-      </c>
-      <c r="I15" t="s">
-        <v>20</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="H15"/>
+      <c r="I15"/>
       <c r="K15" t="s">
         <v>21</v>
       </c>
-      <c r="L15"/>
       <c r="M15">
         <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E16"/>
-      <c r="F16"/>
+        <v>411</v>
+      </c>
+      <c r="C16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>412</v>
+      </c>
       <c r="G16" t="s">
-        <v>85</v>
-      </c>
-      <c r="H16" t="s">
-        <v>86</v>
-      </c>
-      <c r="I16" t="s">
-        <v>20</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="H16"/>
+      <c r="I16"/>
       <c r="K16" t="s">
         <v>21</v>
       </c>
-      <c r="L16"/>
       <c r="M16">
         <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="D17" t="s">
-        <v>90</v>
-      </c>
-      <c r="E17"/>
-      <c r="F17"/>
+        <v>413</v>
+      </c>
+      <c r="C17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>414</v>
+      </c>
       <c r="G17" t="s">
-        <v>92</v>
-      </c>
-      <c r="H17" t="s">
-        <v>93</v>
-      </c>
-      <c r="I17" t="s">
-        <v>20</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="H17"/>
+      <c r="I17"/>
       <c r="K17" t="s">
         <v>21</v>
       </c>
-      <c r="L17"/>
       <c r="M17">
         <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="D18" t="s">
-        <v>97</v>
-      </c>
-      <c r="E18"/>
-      <c r="F18"/>
+        <v>415</v>
+      </c>
+      <c r="C18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>416</v>
+      </c>
       <c r="G18" t="s">
-        <v>99</v>
-      </c>
-      <c r="H18" t="s">
-        <v>100</v>
-      </c>
-      <c r="I18" t="s">
-        <v>20</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="H18"/>
+      <c r="I18"/>
       <c r="K18" t="s">
         <v>21</v>
       </c>
-      <c r="L18"/>
       <c r="M18">
         <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="D19" t="s">
-        <v>104</v>
-      </c>
-      <c r="E19"/>
-      <c r="F19"/>
+        <v>417</v>
+      </c>
+      <c r="C19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>418</v>
+      </c>
       <c r="G19" t="s">
-        <v>106</v>
-      </c>
-      <c r="H19" t="s">
-        <v>107</v>
-      </c>
-      <c r="I19" t="s">
-        <v>20</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="H19"/>
+      <c r="I19"/>
       <c r="K19" t="s">
         <v>21</v>
       </c>
-      <c r="L19"/>
       <c r="M19">
         <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="D20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E20"/>
-      <c r="F20"/>
+        <v>419</v>
+      </c>
+      <c r="C20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>420</v>
+      </c>
       <c r="G20" t="s">
-        <v>113</v>
-      </c>
-      <c r="H20" t="s">
-        <v>114</v>
-      </c>
-      <c r="I20" t="s">
-        <v>20</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="H20"/>
+      <c r="I20"/>
       <c r="K20" t="s">
         <v>21</v>
       </c>
-      <c r="L20"/>
       <c r="M20">
         <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21" t="s">
-        <v>116</v>
-      </c>
-      <c r="E21"/>
-      <c r="F21"/>
+        <v>18</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="C21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>422</v>
+      </c>
       <c r="G21" t="s">
-        <v>113</v>
-      </c>
-      <c r="H21" t="s">
-        <v>114</v>
-      </c>
-      <c r="I21" t="s">
-        <v>20</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="H21"/>
+      <c r="I21"/>
       <c r="K21" t="s">
         <v>21</v>
       </c>
-      <c r="L21"/>
       <c r="M21">
         <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22" t="s">
-        <v>117</v>
-      </c>
-      <c r="E22"/>
-      <c r="F22"/>
+        <v>19</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>424</v>
+      </c>
       <c r="G22" t="s">
-        <v>118</v>
-      </c>
-      <c r="H22" t="s">
-        <v>119</v>
-      </c>
-      <c r="I22" t="s">
-        <v>20</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="H22"/>
+      <c r="I22"/>
       <c r="K22" t="s">
         <v>21</v>
       </c>
-      <c r="L22"/>
       <c r="M22">
         <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23" t="s">
-        <v>120</v>
-      </c>
-      <c r="E23"/>
-      <c r="F23"/>
+        <v>20</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>425</v>
+      </c>
       <c r="G23" t="s">
-        <v>121</v>
-      </c>
-      <c r="H23" t="s">
-        <v>122</v>
-      </c>
-      <c r="I23" t="s">
-        <v>20</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="H23"/>
+      <c r="I23"/>
       <c r="K23" t="s">
         <v>21</v>
       </c>
-      <c r="L23"/>
       <c r="M23">
         <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="D24" t="s">
-        <v>125</v>
-      </c>
-      <c r="E24"/>
-      <c r="F24"/>
+        <v>21</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>426</v>
+      </c>
       <c r="G24" t="s">
-        <v>127</v>
-      </c>
-      <c r="H24" t="s">
-        <v>128</v>
-      </c>
-      <c r="I24" t="s">
-        <v>20</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="H24"/>
+      <c r="I24"/>
       <c r="K24" t="s">
         <v>21</v>
       </c>
-      <c r="L24"/>
       <c r="M24">
         <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="D25" t="s">
-        <v>132</v>
-      </c>
-      <c r="E25"/>
-      <c r="F25"/>
+        <v>22</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>427</v>
+      </c>
       <c r="G25" t="s">
-        <v>127</v>
-      </c>
-      <c r="H25" t="s">
-        <v>128</v>
-      </c>
-      <c r="I25" t="s">
-        <v>20</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="H25"/>
+      <c r="I25"/>
       <c r="K25" t="s">
         <v>21</v>
       </c>
-      <c r="L25"/>
       <c r="M25">
         <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26" t="s">
-        <v>135</v>
-      </c>
-      <c r="E26"/>
-      <c r="F26"/>
+        <v>23</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>429</v>
+      </c>
       <c r="G26" t="s">
-        <v>56</v>
-      </c>
-      <c r="H26" t="s">
-        <v>57</v>
-      </c>
-      <c r="I26" t="s">
-        <v>20</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="H26"/>
+      <c r="I26"/>
       <c r="K26" t="s">
         <v>21</v>
       </c>
-      <c r="L26"/>
       <c r="M26">
         <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="E27"/>
-      <c r="F27"/>
+        <v>430</v>
+      </c>
+      <c r="C27" t="s">
+        <v>131</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>431</v>
+      </c>
       <c r="G27" t="s">
-        <v>140</v>
-      </c>
-      <c r="H27" t="s">
-        <v>141</v>
-      </c>
-      <c r="I27" t="s">
-        <v>20</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="H27"/>
+      <c r="I27"/>
       <c r="K27" t="s">
         <v>21</v>
       </c>
-      <c r="L27"/>
       <c r="M27">
         <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="E28"/>
-      <c r="F28"/>
+        <v>25</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>432</v>
+      </c>
       <c r="G28" t="s">
-        <v>144</v>
-      </c>
-      <c r="H28" t="s">
-        <v>145</v>
-      </c>
-      <c r="I28" t="s">
-        <v>20</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H28"/>
+      <c r="I28"/>
       <c r="K28" t="s">
         <v>21</v>
       </c>
-      <c r="L28"/>
       <c r="M28">
         <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="D29" t="s">
-        <v>148</v>
-      </c>
-      <c r="E29"/>
-      <c r="F29"/>
+        <v>433</v>
+      </c>
+      <c r="C29" t="s">
+        <v>137</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>434</v>
+      </c>
       <c r="G29" t="s">
-        <v>150</v>
-      </c>
-      <c r="H29" t="s">
-        <v>151</v>
-      </c>
-      <c r="I29" t="s">
-        <v>20</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="H29"/>
+      <c r="I29"/>
       <c r="K29" t="s">
         <v>21</v>
       </c>
-      <c r="L29"/>
       <c r="M29">
         <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="D30" t="s">
-        <v>155</v>
-      </c>
-      <c r="E30"/>
-      <c r="F30"/>
+        <v>27</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>435</v>
+      </c>
       <c r="G30" t="s">
-        <v>157</v>
-      </c>
-      <c r="H30" t="s">
-        <v>158</v>
-      </c>
-      <c r="I30" t="s">
-        <v>159</v>
-      </c>
-      <c r="J30" t="s">
-        <v>160</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="H30"/>
+      <c r="I30"/>
       <c r="K30" t="s">
         <v>21</v>
       </c>
-      <c r="L30"/>
       <c r="M30">
         <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="D31" t="s">
-        <v>164</v>
-      </c>
-      <c r="E31"/>
-      <c r="F31"/>
+        <v>436</v>
+      </c>
+      <c r="C31" t="s">
+        <v>147</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>437</v>
+      </c>
       <c r="G31" t="s">
-        <v>18</v>
-      </c>
-      <c r="H31" t="s">
-        <v>19</v>
-      </c>
-      <c r="I31" t="s">
-        <v>20</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="H31"/>
+      <c r="I31"/>
       <c r="K31" t="s">
         <v>21</v>
       </c>
-      <c r="L31"/>
       <c r="M31">
         <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="D32" t="s">
-        <v>169</v>
-      </c>
-      <c r="E32"/>
-      <c r="F32"/>
+        <v>438</v>
+      </c>
+      <c r="C32" t="s">
+        <v>154</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>439</v>
+      </c>
       <c r="G32" t="s">
-        <v>172</v>
-      </c>
-      <c r="I32" t="s">
-        <v>159</v>
-      </c>
-      <c r="J32" t="s">
-        <v>173</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
       <c r="K32" t="s">
         <v>21</v>
       </c>
-      <c r="L32"/>
       <c r="M32">
         <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="D33" t="s">
-        <v>175</v>
-      </c>
-      <c r="E33"/>
-      <c r="F33"/>
+        <v>30</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C33" t="s">
+        <v>163</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>441</v>
+      </c>
       <c r="G33" t="s">
-        <v>172</v>
-      </c>
-      <c r="I33" t="s">
-        <v>159</v>
-      </c>
-      <c r="J33" t="s">
-        <v>176</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="H33"/>
+      <c r="I33"/>
       <c r="K33" t="s">
         <v>21</v>
       </c>
-      <c r="L33"/>
       <c r="M33">
         <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="D34" t="s">
-        <v>177</v>
-      </c>
-      <c r="E34"/>
-      <c r="F34"/>
+        <v>31</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C34" t="s">
+        <v>168</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>443</v>
+      </c>
       <c r="G34" t="s">
-        <v>56</v>
-      </c>
-      <c r="I34" t="s">
-        <v>159</v>
-      </c>
-      <c r="J34" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="K34" t="s">
         <v>21</v>
       </c>
-      <c r="L34"/>
       <c r="M34">
         <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="D35" t="s">
-        <v>178</v>
-      </c>
-      <c r="E35"/>
-      <c r="F35"/>
+        <v>32</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>444</v>
+      </c>
       <c r="G35" t="s">
         <v>172</v>
       </c>
-      <c r="I35" t="s">
-        <v>159</v>
-      </c>
-      <c r="J35" t="s">
-        <v>176</v>
-      </c>
       <c r="K35" t="s">
         <v>21</v>
       </c>
-      <c r="L35"/>
       <c r="M35">
         <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="D36" t="s">
-        <v>179</v>
-      </c>
-      <c r="E36"/>
-      <c r="F36"/>
+        <v>33</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>445</v>
+      </c>
       <c r="G36" t="s">
-        <v>172</v>
-      </c>
-      <c r="I36" t="s">
-        <v>159</v>
-      </c>
-      <c r="J36" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="K36" t="s">
         <v>21</v>
       </c>
-      <c r="L36"/>
       <c r="M36">
         <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="D37" t="s">
-        <v>180</v>
-      </c>
-      <c r="E37"/>
-      <c r="F37"/>
+        <v>34</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>446</v>
+      </c>
       <c r="G37" t="s">
-        <v>181</v>
-      </c>
-      <c r="I37" t="s">
-        <v>159</v>
-      </c>
-      <c r="J37" t="s">
-        <v>176</v>
+        <v>56</v>
       </c>
       <c r="K37" t="s">
         <v>21</v>
       </c>
-      <c r="L37"/>
       <c r="M37">
         <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="D38" t="s">
-        <v>184</v>
-      </c>
-      <c r="E38"/>
-      <c r="F38"/>
+        <v>35</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>447</v>
+      </c>
       <c r="G38" t="s">
-        <v>186</v>
-      </c>
-      <c r="H38" t="s">
-        <v>187</v>
-      </c>
-      <c r="I38" t="s">
-        <v>159</v>
-      </c>
-      <c r="J38" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="K38" t="s">
         <v>21</v>
       </c>
-      <c r="L38"/>
       <c r="M38">
         <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="D39" t="s">
-        <v>190</v>
-      </c>
-      <c r="E39"/>
-      <c r="F39"/>
+        <v>36</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>448</v>
+      </c>
       <c r="G39" t="s">
-        <v>191</v>
-      </c>
-      <c r="H39" t="s">
-        <v>192</v>
-      </c>
-      <c r="I39" t="s">
-        <v>159</v>
-      </c>
-      <c r="J39" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="K39" t="s">
         <v>21</v>
       </c>
-      <c r="L39"/>
       <c r="M39">
         <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="D40" t="s">
-        <v>194</v>
-      </c>
-      <c r="E40"/>
-      <c r="F40"/>
+        <v>37</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>450</v>
+      </c>
       <c r="G40" t="s">
-        <v>195</v>
-      </c>
-      <c r="H40" t="s">
-        <v>196</v>
-      </c>
-      <c r="I40" t="s">
-        <v>20</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
       <c r="K40" t="s">
         <v>21</v>
       </c>
-      <c r="L40"/>
       <c r="M40">
         <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="D41" t="s">
-        <v>199</v>
-      </c>
-      <c r="E41"/>
-      <c r="F41"/>
+        <v>38</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>451</v>
+      </c>
       <c r="G41" t="s">
-        <v>113</v>
-      </c>
-      <c r="H41" t="s">
-        <v>114</v>
-      </c>
-      <c r="I41" t="s">
-        <v>20</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
       <c r="K41" t="s">
         <v>21</v>
       </c>
-      <c r="L41"/>
       <c r="M41">
         <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="D42" t="s">
-        <v>202</v>
-      </c>
-      <c r="E42"/>
-      <c r="F42"/>
+        <v>39</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>452</v>
+      </c>
       <c r="G42" t="s">
-        <v>203</v>
-      </c>
-      <c r="H42" t="s">
-        <v>204</v>
-      </c>
-      <c r="I42" t="s">
-        <v>20</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="H42"/>
+      <c r="I42"/>
       <c r="K42" t="s">
         <v>21</v>
       </c>
-      <c r="L42"/>
       <c r="M42">
         <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="D43" t="s">
-        <v>205</v>
-      </c>
-      <c r="E43"/>
-      <c r="F43"/>
+        <v>40</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="C43" t="s">
+        <v>198</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>454</v>
+      </c>
       <c r="G43" t="s">
-        <v>206</v>
-      </c>
-      <c r="H43" t="s">
-        <v>207</v>
-      </c>
-      <c r="I43" t="s">
-        <v>20</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="H43"/>
+      <c r="I43"/>
       <c r="K43" t="s">
         <v>21</v>
       </c>
-      <c r="L43"/>
       <c r="M43">
         <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="D44" t="s">
-        <v>208</v>
-      </c>
-      <c r="E44"/>
-      <c r="F44"/>
+        <v>41</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>455</v>
+      </c>
       <c r="G44" t="s">
-        <v>209</v>
-      </c>
-      <c r="H44" t="s">
-        <v>210</v>
-      </c>
-      <c r="I44" t="s">
-        <v>20</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="H44"/>
+      <c r="I44"/>
       <c r="K44" t="s">
         <v>21</v>
       </c>
-      <c r="L44"/>
       <c r="M44">
         <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="E45"/>
-      <c r="F45"/>
+        <v>42</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>456</v>
+      </c>
       <c r="G45" t="s">
-        <v>215</v>
-      </c>
-      <c r="H45" t="s">
-        <v>216</v>
-      </c>
-      <c r="I45" t="s">
-        <v>20</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="H45"/>
+      <c r="I45"/>
       <c r="K45" t="s">
         <v>21</v>
       </c>
-      <c r="L45"/>
       <c r="M45">
         <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="E46"/>
-      <c r="F46"/>
+        <v>43</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>457</v>
+      </c>
       <c r="G46" t="s">
-        <v>219</v>
-      </c>
-      <c r="H46" t="s">
-        <v>220</v>
-      </c>
-      <c r="I46" t="s">
-        <v>20</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="H46"/>
+      <c r="I46"/>
       <c r="K46" t="s">
         <v>21</v>
       </c>
-      <c r="L46"/>
       <c r="M46">
         <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="E47"/>
-      <c r="F47"/>
+        <v>44</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="C47" t="s">
+        <v>212</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>459</v>
+      </c>
       <c r="G47" t="s">
-        <v>225</v>
-      </c>
-      <c r="H47" t="s">
-        <v>226</v>
-      </c>
-      <c r="I47" t="s">
-        <v>20</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="H47"/>
+      <c r="I47"/>
       <c r="K47" t="s">
         <v>21</v>
       </c>
-      <c r="L47"/>
       <c r="M47">
         <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="E48"/>
-      <c r="F48"/>
+        <v>45</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>460</v>
+      </c>
       <c r="G48" t="s">
-        <v>225</v>
-      </c>
-      <c r="H48" t="s">
-        <v>226</v>
-      </c>
-      <c r="I48" t="s">
-        <v>20</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="H48"/>
+      <c r="I48"/>
       <c r="K48" t="s">
         <v>21</v>
       </c>
-      <c r="L48"/>
       <c r="M48">
         <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="E49"/>
-      <c r="F49"/>
+        <v>461</v>
+      </c>
+      <c r="C49" t="s">
+        <v>222</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>462</v>
+      </c>
       <c r="G49" t="s">
-        <v>232</v>
-      </c>
-      <c r="I49" t="s">
-        <v>159</v>
-      </c>
-      <c r="J49" t="s">
-        <v>233</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="H49"/>
+      <c r="I49"/>
       <c r="K49" t="s">
         <v>21</v>
       </c>
-      <c r="L49"/>
       <c r="M49">
         <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="E50"/>
-      <c r="F50"/>
+        <v>47</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>463</v>
+      </c>
       <c r="G50" t="s">
-        <v>235</v>
-      </c>
-      <c r="I50" t="s">
-        <v>159</v>
-      </c>
-      <c r="J50" t="s">
-        <v>233</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="H50"/>
+      <c r="I50"/>
       <c r="K50" t="s">
         <v>21</v>
       </c>
-      <c r="L50"/>
       <c r="M50">
         <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="E51"/>
-      <c r="F51"/>
+        <v>48</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="C51" t="s">
+        <v>230</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>465</v>
+      </c>
       <c r="G51" t="s">
-        <v>237</v>
-      </c>
-      <c r="I51" t="s">
-        <v>159</v>
-      </c>
-      <c r="J51" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K51" t="s">
         <v>21</v>
       </c>
-      <c r="L51"/>
       <c r="M51">
         <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="E52"/>
-      <c r="F52"/>
+        <v>49</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>466</v>
+      </c>
       <c r="G52" t="s">
-        <v>239</v>
-      </c>
-      <c r="I52" t="s">
-        <v>159</v>
-      </c>
-      <c r="J52" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="K52" t="s">
         <v>21</v>
       </c>
-      <c r="L52"/>
       <c r="M52">
         <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="E53"/>
-      <c r="F53"/>
+        <v>50</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>467</v>
+      </c>
       <c r="G53" t="s">
-        <v>241</v>
-      </c>
-      <c r="I53" t="s">
-        <v>159</v>
-      </c>
-      <c r="J53" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="K53" t="s">
         <v>21</v>
       </c>
-      <c r="L53"/>
       <c r="M53">
         <v>83</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="E54"/>
-      <c r="F54"/>
+        <v>51</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>468</v>
+      </c>
       <c r="G54" t="s">
-        <v>243</v>
-      </c>
-      <c r="I54" t="s">
-        <v>159</v>
-      </c>
-      <c r="J54" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="K54" t="s">
         <v>21</v>
       </c>
-      <c r="L54"/>
       <c r="M54">
         <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="E55"/>
-      <c r="F55"/>
+        <v>52</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>469</v>
+      </c>
       <c r="G55" t="s">
-        <v>245</v>
-      </c>
-      <c r="I55" t="s">
-        <v>159</v>
-      </c>
-      <c r="J55" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="K55" t="s">
         <v>21</v>
       </c>
-      <c r="L55"/>
       <c r="M55">
         <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="E56"/>
-      <c r="F56"/>
+        <v>53</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>470</v>
+      </c>
       <c r="G56" t="s">
-        <v>245</v>
-      </c>
-      <c r="I56" t="s">
-        <v>159</v>
-      </c>
-      <c r="J56" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K56" t="s">
         <v>21</v>
       </c>
-      <c r="L56"/>
       <c r="M56">
         <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="E57"/>
-      <c r="F57"/>
+        <v>54</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>471</v>
+      </c>
       <c r="G57" t="s">
-        <v>247</v>
-      </c>
-      <c r="I57" t="s">
-        <v>159</v>
-      </c>
-      <c r="J57" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="K57" t="s">
         <v>21</v>
       </c>
-      <c r="L57"/>
       <c r="M57">
         <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58">
-        <v>20</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="D58" t="s">
-        <v>250</v>
-      </c>
-      <c r="E58"/>
-      <c r="F58"/>
+        <v>55</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>472</v>
+      </c>
       <c r="G58" t="s">
-        <v>252</v>
-      </c>
-      <c r="H58" t="s">
-        <v>253</v>
-      </c>
-      <c r="I58" t="s">
-        <v>20</v>
+        <v>245</v>
       </c>
       <c r="K58" t="s">
         <v>21</v>
       </c>
-      <c r="L58"/>
       <c r="M58">
         <v>83</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:7">
       <c r="A59">
-        <v>21</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="C59" t="s">
-        <v>249</v>
-      </c>
-      <c r="D59" t="s">
-        <v>250</v>
-      </c>
-      <c r="E59"/>
-      <c r="F59"/>
+        <v>56</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>473</v>
+      </c>
       <c r="G59" t="s">
-        <v>252</v>
-      </c>
-      <c r="H59" t="s">
-        <v>253</v>
-      </c>
-      <c r="I59" t="s">
-        <v>20</v>
-      </c>
-      <c r="K59" t="s">
-        <v>21</v>
-      </c>
-      <c r="L59"/>
-      <c r="M59">
-        <v>83</v>
+        <v>474</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60">
-        <v>22</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="C60" t="s">
-        <v>249</v>
-      </c>
-      <c r="D60" t="s">
-        <v>250</v>
-      </c>
-      <c r="E60"/>
-      <c r="F60"/>
+        <v>57</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>475</v>
+      </c>
       <c r="G60" t="s">
-        <v>252</v>
-      </c>
-      <c r="H60" t="s">
-        <v>253</v>
-      </c>
-      <c r="I60" t="s">
-        <v>20</v>
+        <v>239</v>
       </c>
       <c r="K60" t="s">
         <v>21</v>
       </c>
-      <c r="L60"/>
       <c r="M60">
         <v>83</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="C61" t="s">
-        <v>249</v>
-      </c>
-      <c r="D61" t="s">
-        <v>250</v>
-      </c>
-      <c r="E61"/>
-      <c r="F61"/>
+        <v>476</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>478</v>
+      </c>
       <c r="G61" t="s">
         <v>252</v>
       </c>
-      <c r="H61" t="s">
-        <v>253</v>
-      </c>
-      <c r="I61" t="s">
-        <v>20</v>
-      </c>
+      <c r="H61"/>
+      <c r="I61"/>
       <c r="K61" t="s">
         <v>21</v>
       </c>
-      <c r="L61"/>
       <c r="M61">
         <v>83</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
-      <c r="A62">
-        <v>24</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="C62" t="s">
-        <v>249</v>
-      </c>
-      <c r="D62" t="s">
-        <v>250</v>
-      </c>
-      <c r="E62"/>
-      <c r="F62"/>
-      <c r="G62" t="s">
-        <v>252</v>
-      </c>
-      <c r="H62" t="s">
-        <v>253</v>
-      </c>
-      <c r="I62" t="s">
-        <v>20</v>
-      </c>
-      <c r="K62" t="s">
-        <v>21</v>
-      </c>
-      <c r="L62"/>
-      <c r="M62">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
-      <c r="A63">
-        <v>25</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="C63" t="s">
-        <v>249</v>
-      </c>
-      <c r="D63" t="s">
-        <v>250</v>
-      </c>
-      <c r="E63"/>
-      <c r="F63"/>
-      <c r="G63" t="s">
-        <v>252</v>
-      </c>
-      <c r="H63" t="s">
-        <v>253</v>
-      </c>
-      <c r="I63" t="s">
-        <v>20</v>
-      </c>
-      <c r="K63" t="s">
-        <v>21</v>
-      </c>
-      <c r="L63"/>
-      <c r="M63">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
-      <c r="A64">
-        <v>26</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="C64" t="s">
-        <v>249</v>
-      </c>
-      <c r="D64" t="s">
-        <v>250</v>
-      </c>
-      <c r="E64"/>
-      <c r="F64"/>
-      <c r="G64" t="s">
-        <v>252</v>
-      </c>
-      <c r="H64" t="s">
-        <v>253</v>
-      </c>
-      <c r="I64" t="s">
-        <v>20</v>
-      </c>
-      <c r="K64" t="s">
-        <v>21</v>
-      </c>
-      <c r="L64"/>
-      <c r="M64">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
-      <c r="A65">
-        <v>27</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="C65" t="s">
-        <v>249</v>
-      </c>
-      <c r="D65" t="s">
-        <v>250</v>
-      </c>
-      <c r="E65"/>
-      <c r="F65"/>
-      <c r="G65" t="s">
-        <v>252</v>
-      </c>
-      <c r="H65" t="s">
-        <v>253</v>
-      </c>
-      <c r="I65" t="s">
-        <v>20</v>
-      </c>
-      <c r="K65" t="s">
-        <v>21</v>
-      </c>
-      <c r="L65"/>
-      <c r="M65">
-        <v>83</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:M5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="4"/>
-  <sheetData>
-    <row r="1" ht="16.5" customHeight="1" spans="1:13">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C2" t="s">
-        <v>249</v>
-      </c>
-      <c r="G2" t="s">
-        <v>252</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>248</v>
-      </c>
-      <c r="G3" t="s">
-        <v>252</v>
-      </c>
-      <c r="K3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>248</v>
-      </c>
-      <c r="G4" t="s">
-        <v>252</v>
-      </c>
-      <c r="K4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>248</v>
-      </c>
-      <c r="G5" t="s">
-        <v>252</v>
-      </c>
-      <c r="K5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5">
-        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/singl_api/api_test_cases/flow_dataset_info.xlsx
+++ b/singl_api/api_test_cases/flow_dataset_info.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="12465" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="13500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="flow_info-76" sheetId="1" r:id="rId1"/>
     <sheet name="flow_info-57" sheetId="2" r:id="rId2"/>
     <sheet name="flow_info" sheetId="3" r:id="rId3"/>
+    <sheet name="k8s_149" sheetId="4" r:id="rId4"/>
+    <sheet name="841" sheetId="5" r:id="rId5"/>
+    <sheet name="flink" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="574">
   <si>
     <t>id</t>
   </si>
@@ -1455,20 +1458,296 @@
     <t>e431bdb0-36bf-488f-8559-5da954562db1</t>
   </si>
   <si>
-    <r>
-      <t>sink_multioutput_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>自动化基础测试</t>
-    </r>
-  </si>
-  <si>
     <t>b2ed1eca-f5fe-4309-ba86-bc53c5dfb183</t>
+  </si>
+  <si>
+    <t>871799801979600896</t>
+  </si>
+  <si>
+    <t>tc_transform_steps</t>
+  </si>
+  <si>
+    <t>871799801543393280</t>
+  </si>
+  <si>
+    <t>e391de09-2b8d-4aa8-aecf-e61a354dade5</t>
+  </si>
+  <si>
+    <t>[{"count_Name":"52403","max_Age":"99","avg_Salary":"12500.178081","Sex":"男"},{"count_Name":"52042","max_Age":"99","avg_Salary":"12501.661812","Sex":"女"},{"count_Name":"52349","max_Age":"99","avg_Salary":"12484.517584","Sex":""}]</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>http://info2:8088/cluster/app/application_1624575716462_3457</t>
+  </si>
+  <si>
+    <t>871792058623328256</t>
+  </si>
+  <si>
+    <t>tc_df_0984</t>
+  </si>
+  <si>
+    <t>871792057830604800</t>
+  </si>
+  <si>
+    <t>[{"data9":"丈夫未可轻年少","Salary":"11718","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里 ","Sex":"男","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.0610","Data_boolean":"0","City":"甘肃省","C_time":"Thu Jul 29 12:42:17 CST 2021","Name":"於宬","Identity_code":"811409198912075449","Data_long":"6340755413267269975","Str_time":"1627490537000","Null_data":"","time_col":"2021-07-29 12:42:17.438","Age":"82"},{"data9":"丈夫未可轻年少","Salary":"14815","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里 ","Sex":"男","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.0410","Data_boolean":"1","City":"江苏省","C_time":"Thu Jul 29 12:42:17 CST 2021","Name":"黄渤","Identity_code":"650106199312103207","Data_long":"-2591459201243701758","Str_time":"1627490537000","Null_data":"","time_col":"2021-07-29 12:42:17.636","Age":"54"},{"data9":"丈夫未可轻年少","Salary":"11340","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里 ","Sex":"","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.3200","Data_boolean":"0","City":"香港","C_time":"Thu Jul 29 12:42:17 CST 2021","Name":"石嫦","Identity_code":"631612197506069933","Data_long":"-4933310632466464865","Str_time":"1627490537000","Null_data":"","time_col":"2021-07-29 12:42:17.875","Age":"50"},{"data9":"丈夫未可轻年少","Salary":"10535","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里 ","Sex":"女","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.8070","Data_boolean":"1","City":"海南省","C_time":"Thu Jul 29 12:42:18 CST 2021","Name":"鄂澄","Identity_code":"361321197609171509","Data_long":"405258981538835232","Str_time":"1627490538000","Null_data":"","time_col":"2021-07-29 12:42:18.068","Age":"62"},{"data9":"丈夫未可轻年少","Salary":"13168","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里 ","Sex":"","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.9000","Data_boolean":"0","City":"河北省","C_time":"Thu Jul 29 12:42:18 CST 2021","Name":"徐裎","Identity_code":"451028199504051484","Data_long":"-7746965790988190636","Str_time":"1627490538000","Null_data":"","time_col":"2021-07-29 12:42:18.3","Age":"1"},{"data9":"丈夫未可轻年少","Salary":"14954","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里 ","Sex":"女","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.8030","Data_boolean":"0","City":"福建省","C_time":"Thu Jul 29 12:42:18 CST 2021","Name":"谷梁惨","Identity_code":"531619197201076513","Data_long":"2268811532510976392","Str_time":"1627490538000","Null_data":"","time_col":"2021-07-29 12:42:18.504","Age":"64"},{"data9":"丈夫未可轻年少","Salary":"11668","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里 ","Sex":"","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.1810","Data_boolean":"0","City":"浙江省","C_time":"Thu Jul 29 12:42:18 CST 2021","Name":"微生蚕","Identity_code":"231418199010298215","Data_long":"-2001960654386693222","Str_time":"1627490538000","Null_data":"","time_col":"2021-07-29 12:42:18.735","Age":"47"},{"data9":"丈夫未可轻年少","Salary":"12331","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里 ","Sex":"","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.6750","Data_boolean":"0","City":"云南省","C_time":"Thu Jul 29 12:42:18 CST 2021","Name":"鄢汊","Identity_code":"531617199604132437","Data_long":"670022992798145802","Str_time":"1627490538000","Null_data":"","time_col":"2021-07-29 12:42:18.944","Age":"30"},{"data9":"丈夫未可轻年少","Salary":"11958","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里 ","Sex":"男","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.9020","Data_boolean":"1","City":"北京市","C_time":"Thu Jul 29 12:42:19 CST 2021","Name":"充琤","Identity_code":"810408198204178241","Data_long":"-7309715248712630624","Str_time":"1627490539000","Null_data":"","time_col":"2021-07-29 12:42:19.162","Age":"63"},{"data9":"丈夫未可轻年少","Salary":"11951","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里 ","Sex":"","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.2860","Data_boolean":"0","City":"安徽省","C_time":"Thu Jul 29 12:42:19 CST 2021","Name":"曹琛","Identity_code":"230605198309241064","Data_long":"8770648416795201043","Str_time":"1627490539000","Null_data":"","time_col":"2021-07-29 12:42:19.456","Age":"35"},{"data9":"丈夫未可轻年少","Salary":"10457","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里 ","Sex":"女","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.5010","Data_boolean":"1","City":"天津市","C_time":"Thu Jul 29 12:42:19 CST 2021","Name":"文成","Identity_code":"460102200010063075","Data_long":"9131878487137695237","Str_time":"1627490539000","Null_data":"","time_col":"2021-07-29 12:42:19.638","Age":"74"},{"data9":"丈夫未可轻年少","Salary":"13679","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里 ","Sex":"","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.7880","Data_boolean":"0","City":"山西省","C_time":"Thu Jul 29 12:42:19 CST 2021","Name":"单于撑","Identity_code":"521409199302082201","Data_long":"6114937561122156009","Str_time":"1627490539000","Null_data":"","time_col":"2021-07-29 12:42:19.902","Age":"19"},{"data9":"丈夫未可轻年少","Salary":"14502","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里 ","Sex":"女","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.8880","Data_boolean":"1","City":"澳门","C_time":"Thu Jul 29 12:42:20 CST 2021","Name":"勾馎","Identity_code":"211703197803241149","Data_long":"-9032151408472740350","Str_time":"1627490540000","Null_data":"","time_col":"2021-07-29 12:42:20.089","Age":"8"},{"data9":"丈夫未可轻年少","Salary":"10061","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里 ","Sex":"男","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.8200","Data_boolean":"1","City":"辽宁省","C_time":"Thu Jul 29 12:42:20 CST 2021","Name":"空鳔","Identity_code":"141816199508019150","Data_long":"-1811969086674513559","Str_time":"1627490540000","Null_data":"","time_col":"2021-07-29 12:42:20.327","Age":"36"},{"data9":"丈夫未可轻年少","Salary":"11033","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里 ","Sex":"女","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.6670","Data_boolean":"1","City":"江苏省","C_time":"Thu Jul 29 12:42:20 CST 2021","Name":"华偿","Identity_code":"220918197408027471","Data_long":"3575842593125312827","Str_time":"1627490540000","Null_data":"","time_col":"2021-07-29 12:42:20.525","Age":"40"},{"data9":"丈夫未可轻年少","Salary":"14469","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里 ","Sex":"","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.0930","Data_boolean":"0","City":"山东省","C_time":"Thu Jul 29 12:42:20 CST 2021","Name":"窦镈","Identity_code":"510625198312013838","Data_long":"-1140813859544373761","Str_time":"1627490540000","Null_data":"","time_col":"2021-07-29 12:42:20.779","Age":"82"},{"data9":"丈夫未可轻年少","Salary":"11182","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里 ","Sex":"男","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.4670","Data_boolean":"0","City":"江苏省","C_time":"Thu Jul 29 12:42:20 CST 2021","Name":"钦踟","Identity_code":"111028199212299079","Data_long":"3611799180840536289","Str_time":"1627490540000","Null_data":"","time_col":"2021-07-29 12:42:20.956","Age":"69"},{"data9":"丈夫未可轻年少","Salary":"14806","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里 ","Sex":"","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.5340","Data_boolean":"1","City":"贵州省","C_time":"Thu Jul 29 12:42:21 CST 2021","Name":"项猜","Identity_code":"640111198902236709","Data_long":"-1663257883938460988","Str_time":"1627490541000","Null_data":"","time_col":"2021-07-29 12:42:21.234","Age":"18"},{"data9":"丈夫未可轻年少","Salary":"12536","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里 ","Sex":"女","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.9530","Data_boolean":"0","City":"河北省","C_time":"Thu Jul 29 12:42:21 CST 2021","Name":"巩襜","Identity_code":"130318198204137354","Data_long":"1586383573912322997","Str_time":"1627490541000","Null_data":"","time_col":"2021-07-29 12:42:21.419","Age":"61"},{"data9":"丈夫未可轻年少","Salary":"11125","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里 ","Sex":"女","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.6630","Data_boolean":"1","City":"江西省","C_time":"Thu Jul 29 12:42:21 CST 2021","Name":"越搽","Identity_code":"341825198609187104","Data_long":"7081627767598385962","Str_time":"1627490541000","Null_data":"","time_col":"2021-07-29 12:42:21.746","Age":"11"},{"data9":"丈夫未可轻年少","Salary":"12506","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里 ","Sex":"","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.4960","Data_boolean":"0","City":"安徽省","C_time":"Thu Jul 29 12:42:21 CST 2021","Name":"辛躔","Identity_code":"360717198807113340","Data_long":"3758136377609773251","Str_time":"1627490541000","Null_data":"","time_col":"2021-07-29 12:42:21.863","Age":"58"},{"data9":"丈夫未可轻年少","Salary":"12405","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里 ","Sex":"","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.1930","Data_boolean":"0","City":"云南省","C_time":"Thu Jul 29 12:42:22 CST 2021","Name":"西门柽","Identity_code":"610106198904296209","Data_long":"4946732501543699456","Str_time":"1627490542000","Null_data":"","time_col":"2021-07-29 12:42:22.182","Age":"48"},{"data9":"丈夫未可轻年少","Salary":"12053","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里 ","Sex":"男","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.8750","Data_boolean":"0","City":"广西壮族自治区","C_time":"Thu Jul 29 12:42:22 CST 2021","Name":"幸邠","Identity_code":"651805198901171258","Data_long":"6587454992832749105","Str_time":"1627490542000","Null_data":"","time_col":"2021-07-29 12:42:22.298","Age":"24"},{"data9":"丈夫未可轻年少","Salary":"10084","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里 ","Sex":"女","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.2390","Data_boolean":"1","City":"陕西省","C_time":"Thu Jul 29 12:42:22 CST 2021","Name":"闻称","Identity_code":"331126197211123363","Data_long":"-2319143268911989722","Str_time":"1627490542000","Null_data":"","time_col":"2021-07-29 12:42:22.609","Age":"0"},{"data9":"丈夫未可轻年少","Salary":"13140","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里 ","Sex":"女","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.0040","Data_boolean":"1","City":"黑龙江省","C_time":"Thu Jul 29 12:42:22 CST 2021","Name":"黄偁","Identity_code":"450312199609048572","Data_long":"-3941580422615077757","Str_time":"1627490542000","Null_data":"","time_col":"2021-07-29 12:42:22.746","Age":"75"},{"data9":"丈夫未可轻年少","Salary":"10415","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里 ","Sex":"","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.8700","Data_boolean":"1","City":"广西壮族自治区","C_time":"Thu Jul 29 12:42:23 CST 2021","Name":"岳蹅","Identity_code":"461504199506134395","Data_long":"-7406835079347424217","Str_time":"1627490543000","Null_data":"","time_col":"2021-07-29 12:42:23.029","Age":"39"},{"data9":"丈夫未可轻年少","Salary":"14626","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里 ","Sex":"","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.3630","Data_boolean":"0","City":"重庆市","C_time":"Thu Jul 29 12:42:23 CST 2021","Name":"东郭冰","Identity_code":"631122199601128565","Data_long":"3063007427825820228","Str_time":"1627490543000","Null_data":"","time_col":"2021-07-29 12:42:23.185","Age":"27"},{"data9":"丈夫未可轻年少","Salary":"12519","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里 ","Sex":"女","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.5910","Data_boolean":"1","City":"浙江省","C_time":"Thu Jul 29 12:42:23 CST 2021","Name":"路惩","Identity_code":"310109197903154775","Data_long":"7905591386259945389","Str_time":"1627490543000","Null_data":"","time_col":"2021-07-29 12:42:23.469","Age":"57"},{"data9":"丈夫未可轻年少","Salary":"14914","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里 ","Sex":"女","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.0930","Data_boolean":"0","City":"辽宁省","C_time":"Thu Jul 29 12:42:23 CST 2021","Name":"梁羼","Identity_code":"130123197403148096","Data_long":"8660656856637300325","Str_time":"1627490543000","Null_data":"","time_col":"2021-07-29 12:42:23.782","Age":"87"},{"data9":"丈夫未可轻年少","Salary":"11136","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里 ","Sex":"","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.2290","Data_boolean":"1","City":"西藏自治区","C_time":"Thu Jul 29 12:42:23 CST 2021","Name":"文袯","Identity_code":"411402199502111361","Data_long":"7236575891486354254","Str_time":"1627490543000","Null_data":"","time_col":"2021-07-29 12:42:23.896","Age":"5"},{"data9":"丈夫未可轻年少","Salary":"12315","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里 ","Sex":"女","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.3070","Data_boolean":"0","City":"陕西省","C_time":"Thu Jul 29 12:42:24 CST 2021","Name":"郏粲","Identity_code":"621710198409101708","Data_long":"6971143696207885739","Str_time":"1627490544000","Null_data":"","time_col":"2021-07-29 12:42:24.233","Age":"99"},{"data9":"丈夫未可轻年少","Salary":"11946","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里 ","Sex":"男","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.0440","Data_boolean":"0","City":"香港","C_time":"Thu Jul 29 12:42:24 CST 2021","Name":"江螭","Identity_code":"510306198608147584","Data_long":"-7112879237206645876","Str_time":"1627490544000","Null_data":"","time_col":"2021-07-29 12:42:24.333","Age":"59"},{"data9":"丈夫未可轻年少","Salary":"11640","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里 ","Sex":"男","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.8940","Data_boolean":"0","City":"江西省","C_time":"Thu Jul 29 12:42:24 CST 2021","Name":"解茬","Identity_code":"650627199503131878","Data_long":"7342877959037554973","Str_time":"1627490544000","Null_data":"","time_col":"2021-07-29 12:42:24.677","Age":"96"},{"data9":"丈夫未可轻年少","Salary":"13532","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里 ","Sex":"女","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.8530","Data_boolean":"0","City":"上海市","C_time":"Thu Jul 29 12:42:24 CST 2021","Name":"戎琛","Identity_code":"420622198311233707","Data_long":"8765144242681965573","Str_time":"1627490544000","Null_data":"","time_col":"2021-07-29 12:42:24.765","Age":"45"},{"data9":"丈夫未可轻年少","Salary":"13774","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里 ","Sex":"女","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.2010","Data_boolean":"0","City":"广东省","C_time":"Thu Jul 29 12:42:25 CST 2021","Name":"丌官瀍","Identity_code":"350322198106143968","Data_long":"-7685443173014947750","Str_time":"1627490545000","Null_data":"","time_col":"2021-07-29 12:42:25.11","Age":"3"},{"data9":"丈夫未可轻年少","Salary":"11386","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里 ","Sex":"女","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.1860","Data_boolean":"0","City":"香港","C_time":"Thu Jul 29 12:42:25 CST 2021","Name":"郁跛","Identity_code":"350523199310107411","Data_long":"4342291810925625452","Str_time":"1627490545000","Null_data":"","time_col":"2021-07-29 12:42:25.197","Age":"80"},{"data9":"丈夫未可轻年少","Salary":"14839","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里 ","Sex":"女","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.2710","Data_boolean":"0","City":"西藏自治区","C_time":"Thu Jul 29 12:42:25 CST 2021","Name":"詹别","Identity_code":"620322199510102849","Data_long":"-2404850633037915218","Str_time":"1627490545000","Null_data":"","time_col":"2021-07-29 12:42:25.545","Age":"74"},{"data9":"丈夫未可轻年少","Salary":"14735","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里 ","Sex":"","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.9650","Data_boolean":"1","City":"北京市","C_time":"Thu Jul 29 12:42:25 CST 2021","Name":"容冁","Identity_code":"620408199803245230","Data_long":"8031676959500453728","Str_time":"1627490545000","Null_data":"","time_col":"2021-07-29 12:42:25.642","Age":"33"},{"data9":"丈夫未可轻年少","Salary":"14084","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里 ","Sex":"男","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.7130","Data_boolean":"0","City":"内蒙古自治区","C_time":"Thu Jul 29 12:42:25 CST 2021","Name":"邵尺","Identity_code":"361314199310082926","Data_long":"3730933616205816897","Str_time":"1627490545000","Null_data":"","time_col":"2021-07-29 12:42:25.982","Age":"93"},{"data9":"丈夫未可轻年少","Salary":"10612","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里 ","Sex":"女","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.1180","Data_boolean":"1","City":"北京市","C_time":"Thu Jul 29 12:42:26 CST 2021","Name":"裘馎","Identity_code":"810711200007299299","Data_long":"-9204217426210228964","Str_time":"1627490546000","Null_data":"","time_col":"2021-07-29 12:42:26.078","Age":"2"},{"data9":"丈夫未可轻年少","Salary":"14255","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里 ","Sex":"","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.0500","Data_boolean":"1","City":"河南省","C_time":"Thu Jul 29 12:42:26 CST 2021","Name":"缑撑","Identity_code":"510418198702088108","Data_long":"4695794755827868038","Str_time":"1627490546000","Null_data":"","time_col":"2021-07-29 12:42:26.439","Age":"64"},{"data9":"丈夫未可轻年少","Salary":"13302","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里 ","Sex":"","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.5300","Data_boolean":"1","City":"甘肃省","C_time":"Thu Jul 29 12:42:26 CST 2021","Name":"娄场","Identity_code":"510505197606035389","Data_long":"-7534186892477086058","Str_time":"1627490546000","Null_data":"","time_col":"2021-07-29 12:42:26.519","Age":"42"},{"data9":"丈夫未可轻年少","Salary":"13709","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里 ","Sex":"男","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.4980","Data_boolean":"1","City":"吉林省","C_time":"Thu Jul 29 12:42:26 CST 2021","Name":"史吥","Identity_code":"121027198105067771","Data_long":"1723042702101603598","Str_time":"1627490546000","Null_data":"","time_col":"2021-07-29 12:42:26.889","Age":"31"},{"data9":"丈夫未可轻年少","Salary":"12906","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里 ","Sex":"女","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.3350","Data_boolean":"1","City":"陕西省","C_time":"Thu Jul 29 12:42:26 CST 2021","Name":"殷布","Identity_code":"121425200004072013","Data_long":"6437756388036508109","Str_time":"1627490546000","Null_data":"","time_col":"2021-07-29 12:42:26.955","Age":"88"},{"data9":"丈夫未可轻年少","Salary":"11218","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里 ","Sex":"","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.3670","Data_boolean":"1","City":"吉林省","C_time":"Thu Jul 29 12:42:27 CST 2021","Name":"段干曹","Identity_code":"450711198007137599","Data_long":"-6282738831527744221","Str_time":"1627490547000","Null_data":"","time_col":"2021-07-29 12:42:27.352","Age":"71"},{"data9":"丈夫未可轻年少","Salary":"14678","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里 ","Sex":"男","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.4900","Data_boolean":"0","City":"甘肃省","C_time":"Thu Jul 29 12:42:27 CST 2021","Name":"步齿","Identity_code":"710813197712087093","Data_long":"5299681901997303299","Str_time":"1627490547000","Null_data":"","time_col":"2021-07-29 12:42:27.396","Age":"46"},{"data9":"丈夫未可轻年少","Salary":"13612","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里 ","Sex":"男","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.5190","Data_boolean":"0","City":"广西壮族自治区","C_time":"Thu Jul 29 12:42:27 CST 2021","Name":"符膑","Identity_code":"621207198705053913","Data_long":"5092154845666240618","Str_time":"1627490547000","Null_data":"","time_col":"2021-07-29 12:42:27.801","Age":"4"},{"data9":"丈夫未可轻年少","Salary":"11256","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里 ","Sex":"","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.5780","Data_boolean":"0","City":"西藏自治区","C_time":"Thu Jul 29 12:42:27 CST 2021","Name":"杭馞","Identity_code":"620505199212138709","Data_long":"5033582258729271468","Str_time":"1627490547000","Null_data":"","time_col":"2021-07-29 12:42:27.84","Age":"36"},{"data9":"丈夫未可轻年少","Salary":"12265","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里 ","Sex":"男","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.4160","Data_boolean":"0","City":"广西壮族自治区","C_time":"Thu Jul 29 12:42:28 CST 2021","Name":"沈彩","Identity_code":"150222198201131535","Data_long":"4534197929533166937","Str_time":"1627490548000","Null_data":"","time_col":"2021-07-29 12:42:28.251","Age":"56"},{"data9":"丈夫未可轻年少","Salary":"12168","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里 ","Sex":"","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.5560","Data_boolean":"0","City":"天津市","C_time":"Thu Jul 29 12:42:28 CST 2021","Name":"法浡","Identity_code":"231113200102059347","Data_long":"-764231769089655513","Str_time":"1627490548000","Null_data":"","time_col":"2021-07-29 12:42:28.276","Age":"58"}]</t>
+  </si>
+  <si>
+    <t>dea1cc8a-dd10-44d5-85ec-6178852a7ed4</t>
+  </si>
+  <si>
+    <t>tc_decision</t>
+  </si>
+  <si>
+    <t>828972d0-ddc5-4072-b9c5-914fb05199aa</t>
+  </si>
+  <si>
+    <t>3b4ade52-5eaf-4ed6-98cd-824b217549e1</t>
+  </si>
+  <si>
+    <t>52f7f051-089a-4239-aec6-67176dfaa372</t>
+  </si>
+  <si>
+    <t>[{'Sex': '女', 'Name1': '诸殡', 'Age': '97', 'Name': '诸殡'}, {'Sex': '女', 'Name1': '张臣', 'Age': '78', 'Name': '张臣'}, {'Sex': '', 'Name1': '龚沧', 'Age': '98', 'Name': '龚沧'}, {'Sex': '女', 'Name1': '湛波', 'Age': '91', 'Name': '湛波'}, {'Sex': '', 'Name1': '赖逞', 'Age': '71', 'Name': '赖逞'}, {'Sex': '', 'Name1': '伏玚', 'Age': '84', 'Name': '伏玚'}, {'Sex': '女', 'Name1': '陈趻', 'Age': '92', 'Name': '陈趻'}, {'Sex': '女', 'Name1': '解茌', 'Age': '92', 'Name': '解茌'}, {'Sex': '', 'Name1': '薄惩', 'Age': '87', 'Name': '薄惩'}, {'Sex': '男', 'Name1': '马剥', 'Age': '73', 'Name': '马剥'}, {'Sex': '女', 'Name1': '诸殡', 'Age': '97', 'Name': '诸殡'}, {'Sex': '女', 'Name1': '薛敞', 'Age': '76', 'Name': '薛敞'}, {'Sex': '男', 'Name1': '孟茝', 'Age': '85', 'Name': '孟茝'}, {'Sex': '', 'Name1': '龚沧', 'Age': '98', 'Name': '龚沧'}, {'Sex': '', 'Name1': '赖逞', 'Age': '71', 'Name': '赖逞'}, {'Sex': '', 'Name1': '劳铂', 'Age': '96', 'Name': '劳铂'}, {'Sex': '女', 'Name1': '李巉', 'Age': '85', 'Name': '李巉'}, {'Sex': '', 'Name1': '裴驰', 'Age': '95', 'Name': '裴驰'}, {'Sex': '', 'Name1': '莘葧', 'Age': '78', 'Name': '莘葧'}, {'Sex': '男', 'Name1': '刁鵏', 'Age': '71', 'Name': '刁鵏'}, {'Sex': '', 'Name1': '谈偲', 'Age': '78', 'Name': '谈偲'}, {'Sex': '女', 'Name1': '吕谶', 'Age': '89', 'Name': '吕谶'}, {'Sex': '女', 'Name1': '卢郴', 'Age': '96', 'Name': '卢郴'}, {'Sex': '男', 'Name1': '米抄', 'Age': '95', 'Name': '米抄'}, {'Sex': '男', 'Name1': '卞鋹', 'Age': '79', 'Name': '卞鋹'}, {'Sex': '男', 'Name1': '禄饽', 'Age': '91', 'Name': '禄饽'}, {'Sex': '', 'Name1': '万俟鵏', 'Age': '82', 'Name': '万俟鵏'}, {'Sex': '', 'Name1': '西门箣', 'Age': '71', 'Name': '西门箣'}, {'Sex': '女', 'Name1': '梅捕', 'Age': '91', 'Name': '梅捕'}, {'Sex': '', 'Name1': '涂鑶', 'Age': '87', 'Name': '涂鑶'}, {'Sex': '女', 'Name1': '暴葧', 'Age': '94', 'Name': '暴葧'}, {'Sex': '男', 'Name1': '谷梁晡', 'Age': '87', 'Name': '谷梁晡'}, {'Sex': '女', 'Name1': '莫漕', 'Age': '89', 'Name': '莫漕'}, {'Sex': '女', 'Name1': '夏侯鋋', 'Age': '97', 'Name': '夏侯鋋'}, {'Sex': '', 'Name1': '彭斌', 'Age': '86', 'Name': '彭斌'}, {'Sex': '', 'Name1': '公呈', 'Age': '75', 'Name': '公呈'}, {'Sex': '女', 'Name1': '卢郴', 'Age': '96', 'Name': '卢郴'}, {'Sex': '', 'Name1': '哈鋋', 'Age': '89', 'Name': '哈鋋'}, {'Sex': '女', 'Name1': '梅捕', 'Age': '91', 'Name': '梅捕'}, {'Sex': '女', 'Name1': '赖渤', 'Age': '85', 'Name': '赖渤'}, {'Sex': '男', 'Name1': '俞蹅', 'Age': '91', 'Name': '俞蹅'}, {'Sex': '', 'Name1': '边诧', 'Age': '80', 'Name': '边诧'}, {'Sex': '男', 'Name1': '于步', 'Age': '90', 'Name': '于步'}, {'Sex': '男', 'Name1': '封檗', 'Age': '96', 'Name': '封檗'}, {'Sex': '女', 'Name1': '向彩', 'Age': '94', 'Name': '向彩'}, {'Sex': '女', 'Name1': '项巢', 'Age': '86', 'Name': '项巢'}, {'Sex': '女', 'Name1': '曹猜', 'Age': '72', 'Name': '曹猜'}, {'Sex': '女', 'Name1': '端木涔', 'Age': '71', 'Name': '端木涔'}, {'Sex': '', 'Name1': '阚测', 'Age': '83', 'Name': '阚测'}, {'Sex': '女', 'Name1': '敖蒇', 'Age': '92', 'Name': '敖蒇'}]</t>
+  </si>
+  <si>
+    <t>http://info2:8088/cluster/app/application_1624575716462_3538</t>
+  </si>
+  <si>
+    <t>c3755e6b-0190-4487-b892-642124f7a6f6</t>
+  </si>
+  <si>
+    <t>tc_group_steps</t>
+  </si>
+  <si>
+    <t>875dc24b-e2bc-4361-8dd3-d340a9d32a49</t>
+  </si>
+  <si>
+    <t>ffd87be6-0ca5-4f4f-bb4a-05904323f467</t>
+  </si>
+  <si>
+    <t>[{'count_Name': '52403', 'max_Age': '99', 'avg_Salary': '12500.178081', 'Sex': '男'}, {'count_Name': '52042', 'max_Age': '99', 'avg_Salary': '12501.661812', 'Sex': '女'}, {'count_Name': '52349', 'max_Age': '99', 'avg_Salary': '12484.517584', 'Sex': ''}]</t>
+  </si>
+  <si>
+    <t>http://info2:8088/cluster/app/application_1624575716462_3539</t>
+  </si>
+  <si>
+    <t>24f31e32-3f6b-43ec-bfb5-78d729a130d1</t>
+  </si>
+  <si>
+    <t>tc_cache</t>
+  </si>
+  <si>
+    <t>d6bcbe32-3fcd-4e9f-ba9a-26a7bb6f7a81</t>
+  </si>
+  <si>
+    <t>7067f0dc-5329-4a23-8bdf-97828f5440b8</t>
+  </si>
+  <si>
+    <t>[{'data9': '', 'Salary': '', 'data8': '', 'data7': '', 'data6': '', 'data5': '', 'data4': '', 'data3': '', 'Sex': '女', 'data2': '', 'data1': '', 'Data_double': '', 'Data_boolean': '', 'City': '', 'C_time': '', 'Name': '丁丙', 'Identity_code': '', 'Data_long': '', 'Str_time': '', 'Null_data': '', 'time_col': '', 'Age': '92'}, {'data9': '', 'Salary': '', 'data8': '', 'data7': '', 'data6': '', 'data5': '', 'data4': '', 'data3': '', 'Sex': 'null', 'data2': '', 'data1': '', 'Data_double': '', 'Data_boolean': '', 'City': '', 'C_time': '', 'Name': '丁产', 'Identity_code': '', 'Data_long': '', 'Str_time': '', 'Null_data': '', 'time_col': '', 'Age': '31'}, {'data9': '', 'Salary': '', 'data8': '', 'data7': '', 'data6': '', 'data5': '', 'data4': '', 'data3': '', 'Sex': 'null', 'data2': '', 'data1': '', 'Data_double': '', 'Data_boolean': '', 'City': '', 'C_time': '', 'Name': '丁仓', 'Identity_code': '', 'Data_long': '', 'Str_time': '', 'Null_data': '', 'time_col': '', 'Age': '90'}, {'data9': '', 'Salary': '', 'data8': '', 'data7': '', 'data6': '', 'data5': '', 'data4': '', 'data3': '', 'Sex': 'null', 'data2': '', 'data1': '', 'Data_double': '', 'Data_boolean': '', 'City': '', 'C_time': '', 'Name': '丁伡', 'Identity_code': '', 'Data_long': '', 'Str_time': '', 'Null_data': '', 'time_col': '', 'Age': '80'}, {'data9': '', 'Salary': '', 'data8': '', 'data7': '', 'data6': '', 'data5': '', 'data4': '', 'data3': '', 'Sex': 'null', 'data2': '', 'data1': '', 'Data_double': '', 'Data_boolean': '', 'City': '', 'C_time': '', 'Name': '丁伥', 'Identity_code': '', 'Data_long': '', 'Str_time': '', 'Null_data': '', 'time_col': '', 'Age': '61'}, {'data9': '', 'Salary': '', 'data8': '', 'data7': '', 'data6': '', 'data5': '', 'data4': '', 'data3': '', 'Sex': 'null', 'data2': '', 'data1': '', 'Data_double': '', 'Data_boolean': '', 'City': '', 'C_time': '', 'Name': '丁伧', 'Identity_code': '', 'Data_long': '', 'Str_time': '', 'Null_data': '', 'time_col': '', 'Age': '60'}, {'data9': '', 'Salary': '', 'data8': '', 'data7': '', 'data6': '', 'data5': '', 'data4': '', 'data3': '', 'Sex': 'null', 'data2': '', 'data1': '', 'Data_double': '', 'Data_boolean': '', 'City': '', 'C_time': '', 'Name': '丁侈', 'Identity_code': '', 'Data_long': '', 'Str_time': '', 'Null_data': '', 'time_col': '', 'Age': '3'}, {'data9': '', 'Salary': '', 'data8': '', 'data7': '', 'data6': '', 'data5': '', 'data4': '', 'data3': '', 'Sex': '男', 'data2': '', 'data1': '', 'Data_double': '', 'Data_boolean': '', 'City': '', 'C_time': '', 'Name': '丁侘', 'Identity_code': '', 'Data_long': '', 'Str_time': '', 'Null_data': '', 'time_col': '', 'Age': '88'}, {'data9': '', 'Salary': '', 'data8': '', 'data7': '', 'data6': '', 'data5': '', 'data4': '', 'data3': '', 'Sex': 'null', 'data2': '', 'data1': '', 'Data_double': '', 'Data_boolean': '', 'City': '', 'C_time': '', 'Name': '丁侪', 'Identity_code': '', 'Data_long': '', 'Str_time': '', 'Null_data': '', 'time_col': '', 'Age': '83'}, {'data9': '', 'Salary': '', 'data8': '', 'data7': '', 'data6': '', 'data5': '', 'data4': '', 'data3': '', 'Sex': '女', 'data2': '', 'data1': '', 'Data_double': '', 'Data_boolean': '', 'City': '', 'C_time': '', 'Name': '丁俵', 'Identity_code': '', 'Data_long': '', 'Str_time': '', 'Null_data': '', 'time_col': '', 'Age': '54'}, {'data9': '', 'Salary': '', 'data8': '', 'data7': '', 'data6': '', 'data5': '', 'data4': '', 'data3': '', 'Sex': 'null', 'data2': '', 'data1': '', 'Data_double': '', 'Data_boolean': '', 'City': '', 'C_time': '', 'Name': '丁倡', 'Identity_code': '', 'Data_long': '', 'Str_time': '', 'Null_data': '', 'time_col': '', 'Age': '39'}, {'data9': '', 'Salary': '', 'data8': '', 'data7': '', 'data6': '', 'data5': '', 'data4': '', 'data3': '', 'Sex': 'null', 'data2': '', 'data1': '', 'Data_double': '', 'Data_boolean': '', 'City': '', 'C_time': '', 'Name': '丁偁', 'Identity_code': '', 'Data_long': '', 'Str_time': '', 'Null_data': '', 'time_col': '', 'Age': '36'}, {'data9': '', 'Salary': '', 'data8': '', 'data7': '', 'data6': '', 'data5': '', 'data4': '', 'data3': '', 'Sex': 'null', 'data2': '', 'data1': '', 'Data_double': '', 'Data_boolean': '', 'City': '', 'C_time': '', 'Name': '丁僰', 'Identity_code': '', 'Data_long': '', 'Str_time': '', 'Null_data': '', 'time_col': '', 'Age': '70'}, {'data9': '', 'Salary': '', 'data8': '', 'data7': '', 'data6': '', 'data5': '', 'data4': '', 'data3': '', 'Sex': 'null', 'data2': '', 'data1': '', 'Data_double': '', 'Data_boolean': '', 'City': '', 'C_time': '', 'Name': '丁兵', 'Identity_code': '', 'Data_long': '', 'Str_time': '', 'Null_data': '', 'time_col': '', 'Age': '72'}, {'data9': '', 'Salary': '', 'data8': '', 'data7': '', 'data6': '', 'data5': '', 'data4': '', 'data3': '', 'Sex': 'null', 'data2': '', 'data1': '', 'Data_double': '', 'Data_boolean': '', 'City': '', 'C_time': '', 'Name': '丁冰', 'Identity_code': '', 'Data_long': '', 'Str_time': '', 'Null_data': '', 'time_col': '', 'Age': '51'}, {'data9': '', 'Salary': '', 'data8': '', 'data7': '', 'data6': '', 'data5': '', 'data4': '', 'data3': '', 'Sex': '男', 'data2': '', 'data1': '', 'Data_double': '', 'Data_boolean': '', 'City': '', 'C_time': '', 'Name': '丁刬', 'Identity_code': '', 'Data_long': '', 'Str_time': '', 'Null_data': '', 'time_col': '', 'Age': '16'}, {'data9': '', 'Salary': '', 'data8': '', 'data7': '', 'data6': '', 'data5': '', 'data4': '', 'data3': '', 'Sex': '女', 'data2': '', 'data1': '', 'Data_double': '', 'Data_boolean': '', 'City': '', 'C_time': '', 'Name': '丁剥', 'Identity_code': '', 'Data_long': '', 'Str_time': '', 'Null_data': '', 'time_col': '', 'Age': '33'}, {'data9': '', 'Salary': '', 'data8': '', 'data7': '', 'data6': '', 'data5': '', 'data4': '', 'data3': '', 'Sex': '女', 'data2': '', 'data1': '', 'Data_double': '', 'Data_boolean': '', 'City': '', 'C_time': '', 'Name': '丁勃', 'Identity_code': '', 'Data_long': '', 'Str_time': '', 'Null_data': '', 'time_col': '', 'Age': '88'}, {'data9': '', 'Salary': '', 'data8': '', 'data7': '', 'data6': '', 'data5': '', 'data4': '', 'data3': '', 'Sex': '女', 'data2': '', 'data1': '', 'Data_double': '', 'Data_boolean': '', 'City': '', 'C_time': '', 'Name': '丁匙', 'Identity_code': '', 'Data_long': '', 'Str_time': '', 'Null_data': '', 'time_col': '', 'Age': '10'}, {'data9': '', 'Salary': '', 'data8': '', 'data7': '', 'data6': '', 'data5': '', 'data4': '', 'data3': '', 'Sex': '男', 'data2': '', 'data1': '', 'Data_double': '', 'Data_boolean': '', 'City': '', 'C_time': '', 'Name': '丁博', 'Identity_code': '', 'Data_long': '', 'Str_time': '', 'Null_data': '', 'time_col': '', 'Age': '63'}, {'data9': '', 'Salary': '', 'data8': '', 'data7': '', 'data6': '', 'data5': '', 'data4': '', 'data3': '', 'Sex': 'null', 'data2': '', 'data1': '', 'Data_double': '', 'Data_boolean': '', 'City': '', 'C_time': '', 'Name': '丁卟', 'Identity_code': '', 'Data_long': '', 'Str_time': '', 'Null_data': '', 'time_col': '', 'Age': '95'}, {'data9': '', 'Salary': '', 'data8': '', 'data7': '', 'data6': '', 'data5': '', 'data4': '', 'data3': '', 'Sex': '女', 'data2': '', 'data1': '', 'Data_double': '', 'Data_boolean': '', 'City': '', 'C_time': '', 'Name': '丁厂', 'Identity_code': '', 'Data_long': '', 'Str_time': '', 'Null_data': '', 'time_col': '', 'Age': '84'}, {'data9': '', 'Salary': '', 'data8': '', 'data7': '', 'data6': '', 'data5': '', 'data4': '', 'data3': '', 'Sex': '女', 'data2': '', 'data1': '', 'Data_double': '', 'Data_boolean': '', 'City': '', 'C_time': '', 'Name': '丁参', 'Identity_code': '', 'Data_long': '', 'Str_time': '', 'Null_data': '', 'time_col': '', 'Age': '47'}, {'data9': '', 'Salary': '', 'data8': '', 'data7': '', 'data6': '', 'data5': '', 'data4': '', 'data3': '', 'Sex': 'null', 'data2': '', 'data1': '', 'Data_double': '', 'Data_boolean': '', 'City': '', 'C_time': '', 'Name': '丁吵', 'Identity_code': '', 'Data_long': '', 'Str_time': '', 'Null_data': '', 'time_col': '', 'Age': '16'}, {'data9': '', 'Salary': '', 'data8': '', 'data7': '', 'data6': '', 'data5': '', 'data4': '', 'data3': '', 'Sex': 'null', 'data2': '', 'data1': '', 'Data_double': '', 'Data_boolean': '', 'City': '', 'C_time': '', 'Name': '丁呈', 'Identity_code': '', 'Data_long': '', 'Str_time': '', 'Null_data': '', 'time_col': '', 'Age': '20'}, {'data9': '', 'Salary': '', 'data8': '', 'data7': '', 'data6': '', 'data5': '', 'data4': '', 'data3': '', 'Sex': '男', 'data2': '', 'data1': '', 'Data_double': '', 'Data_boolean': '', 'City': '', 'C_time': '', 'Name': '丁哧', 'Identity_code': '', 'Data_long': '', 'Str_time': '', 'Null_data': '', 'time_col': '', 'Age': '1'}, {'data9': '', 'Salary': '', 'data8': '', 'data7': '', 'data6': '', 'data5': '', 'data4': '', 'data3': '', 'Sex': '女', 'data2': '', 'data1': '', 'Data_double': '', 'Data_boolean': '', 'City': '', 'C_time': '', 'Name': '丁唱', 'Identity_code': '', 'Data_long': '', 'Str_time': '', 'Null_data': '', 'time_col': '', 'Age': '2'}, {'data9': '', 'Salary': '', 'data8': '', 'data7': '', 'data6': '', 'data5': '', 'data4': '', 'data3': '', 'Sex': 'null', 'data2': '', 'data1': '', 'Data_double': '', 'Data_boolean': '', 'City': '', 'C_time': '', 'Name': '丁嗏', 'Identity_code': '', 'Data_long': '', 'Str_time': '', 'Null_data': '', 'time_col': '', 'Age': '60'}, {'data9': '', 'Salary': '', 'data8': '', 'data7': '', 'data6': '', 'data5': '', 'data4': '', 'data3': '', 'Sex': '男', 'data2': '', 'data1': '', 'Data_double': '', 'Data_boolean': '', 'City': '', 'C_time': '', 'Name': '丁嗔', 'Identity_code': '', 'Data_long': '', 'Str_time': '', 'Null_data': '', 'time_col': '', 'Age': '4'}, {'data9': '', 'Salary': '', 'data8': '', 'data7': '', 'data6': '', 'data5': '', 'data4': '', 'data3': '', 'Sex': '男', 'data2': '', 'data1': '', 'Data_double': '', 'Data_boolean': '', 'City': '', 'C_time': '', 'Name': '丁嗤', 'Identity_code': '', 'Data_long': '', 'Str_time': '', 'Null_data': '', 'time_col': '', 'Age': '13'}, {'data9': '', 'Salary': '', 'data8': '', 'data7': '', 'data6': '', 'data5': '', 'data4': '', 'data3': '', 'Sex': 'null', 'data2': '', 'data1': '', 'Data_double': '', 'Data_boolean': '', 'City': '', 'C_time': '', 'Name': '丁嘈', 'Identity_code': '', 'Data_long': '', 'Str_time': '', 'Null_data': '', 'time_col': '', 'Age': '97'}, {'data9': '', 'Salary': '', 'data8': '', 'data7': '', 'data6': '', 'data5': '', 'data4': '', 'data3': '', 'Sex': 'null', 'data2': '', 'data1': '', 'Data_double': '', 'Data_boolean': '', 'City': '', 'C_time': '', 'Name': '丁垞', 'Identity_code': '', 'Data_long': '', 'Str_time': '', 'Null_data': '', 'time_col': '', 'Age': '13'}, {'data9': '', 'Salary': '', 'data8': '', 'data7': '', 'data6': '', 'data5': '', 'data4': '', 'data3': '', 'Sex': '女', 'data2': '', 'data1': '', 'Data_double': '', 'Data_boolean': '', 'City': '', 'C_time': '', 'Name': '丁城', 'Identity_code': '', 'Data_long': '', 'Str_time': '', 'Null_data': '', 'time_col': '', 'Age': '17'}, {'data9': '', 'Salary': '', 'data8': '', 'data7': '', 'data6': '', 'data5': '', 'data4': '', 'data3': '', 'Sex': '女', 'data2': '', 'data1': '', 'Data_double': '', 'Data_boolean': '', 'City': '', 'C_time': '', 'Name': '丁埕', 'Identity_code': '', 'Data_long': '', 'Str_time': '', 'Null_data': '', 'time_col': '', 'Age': '87'}, {'data9': '', 'Salary': '', 'data8': '', 'data7': '', 'data6': '', 'data5': '', 'data4': '', 'data3': '', 'Sex': '男', 'data2': '', 'data1': '', 'Data_double': '', 'Data_boolean': '', 'City': '', 'C_time': '', 'Name': '丁墀', 'Identity_code': '', 'Data_long': '', 'Str_time': '', 'Null_data': '', 'time_col': '', 'Age': '22'}, {'data9': '', 'Salary': '', 'data8': '', 'data7': '', 'data6': '', 'data5': '', 'data4': '', 'data3': '', 'Sex': '男', 'data2': '', 'data1': '', 'Data_double': '', 'Data_boolean': '', 'City': '', 'C_time': '', 'Name': '丁姹', 'Identity_code': '', 'Data_long': '', 'Str_time': '', 'Null_data': '', 'time_col': '', 'Age': '78'}, {'data9': '', 'Salary': '', 'data8': '', 'data7': '', 'data6': '', 'data5': '', 'data4': '', 'data3': '', 'Sex': '男', 'data2': '', 'data1': '', 'Data_double': '', 'Data_boolean': '', 'City': '', 'C_time': '', 'Name': '丁媸', 'Identity_code': '', 'Data_long': '', 'Str_time': '', 'Null_data': '', 'time_col': '', 'Age': '45'}, {'data9': '', 'Salary': '', 'data8': '', 'data7': '', 'data6': '', 'data5': '', 'data4': '', 'data3': '', 'Sex': '女', 'data2': '', 'data1': '', 'Data_double': '', 'Data_boolean': '', 'City': '', 'C_time': '', 'Name': '丁嫦', 'Identity_code': '', 'Data_long': '', 'Str_time': '', 'Null_data': '', 'time_col': '', 'Age': '7'}, {'data9': '', 'Salary': '', 'data8': '', 'data7': '', 'data6': '', 'data5': '', 'data4': '', 'data3': '', 'Sex': '男', 'data2': '', 'data1': '', 'Data_double': '', 'Data_boolean': '', 'City': '', 'C_time': '', 'Name': '丁宸', 'Identity_code': '', 'Data_long': '', 'Str_time': '', 'Null_data': '', 'time_col': '', 'Age': '20'}, {'data9': '', 'Salary': '', 'data8': '', 'data7': '', 'data6': '', 'data5': '', 'data4': '', 'data3': '', 'Sex': '女', 'data2': '', 'data1': '', 'Data_double': '', 'Data_boolean': '', 'City': '', 'C_time': '', 'Name': '丁宾', 'Identity_code': '', 'Data_long': '', 'Str_time': '', 'Null_data': '', 'time_col': '', 'Age': '85'}, {'data9': '', 'Salary': '', 'data8': '', 'data7': '', 'data6': '', 'data5': '', 'data4': '', 'data3': '', 'Sex': '女', 'data2': '', 'data1': '', 'Data_double': '', 'Data_boolean': '', 'City': '', 'C_time': '', 'Name': '丁察', 'Identity_code': '', 'Data_long': '', 'Str_time': '', 'Null_data': '', 'time_col': '', 'Age': '23'}, {'data9': '', 'Salary': '', 'data8': '', 'data7': '', 'data6': '', 'data5': '', 'data4': '', 'data3': '', 'Sex': 'null', 'data2': '', 'data1': '', 'Data_double': '', 'Data_boolean': '', 'City': '', 'C_time': '', 'Name': '丁尺', 'Identity_code': '', 'Data_long': '', 'Str_time': '', 'Null_data': '', 'time_col': '', 'Age': '77'}, {'data9': '', 'Salary': '', 'data8': '', 'data7': '', 'data6': '', 'data5': '', 'data4': '', 'data3': '', 'Sex': '女', 'data2': '', 'data1': '', 'Data_double': '', 'Data_boolean': '', 'City': '', 'C_time': '', 'Name': '丁岑', 'Identity_code': '', 'Data_long': '', 'Str_time': '', 'Null_data': '', 'time_col': '', 'Age': '7'}, {'data9': '', 'Salary': '', 'data8': '', 'data7': '', 'data6': '', 'data5': '', 'data4': '', 'data3': '', 'Sex': 'null', 'data2': '', 'data1': '', 'Data_double': '', 'Data_boolean': '', 'City': '', 'C_time': '', 'Name': '丁岔', 'Identity_code': '', 'Data_long': '', 'Str_time': '', 'Null_data': '', 'time_col': '', 'Age': '22'}, {'data9': '', 'Salary': '', 'data8': '', 'data7': '', 'data6': '', 'data5': '', 'data4': '', 'data3': '', 'Sex': 'null', 'data2': '', 'data1': '', 'Data_double': '', 'Data_boolean': '', 'City': '', 'C_time': '', 'Name': '丁巢', 'Identity_code': '', 'Data_long': '', 'Str_time': '', 'Null_data': '', 'time_col': '', 'Age': '33'}, {'data9': '', 'Salary': '', 'data8': '', 'data7': '', 'data6': '', 'data5': '', 'data4': '', 'data3': '', 'Sex': '男', 'data2': '', 'data1': '', 'Data_double': '', 'Data_boolean': '', 'City': '', 'C_time': '', 'Name': '丁差', 'Identity_code': '', 'Data_long': '', 'Str_time': '', 'Null_data': '', 'time_col': '', 'Age': '48'}, {'data9': '', 'Salary': '', 'data8': '', 'data7': '', 'data6': '', 'data5': '', 'data4': '', 'data3': '', 'Sex': 'null', 'data2': '', 'data1': '', 'Data_double': '', 'Data_boolean': '', 'City': '', 'C_time': '', 'Name': '丁常', 'Identity_code': '', 'Data_long': '', 'Str_time': '', 'Null_data': '', 'time_col': '', 'Age': '19'}, {'data9': '', 'Salary': '', 'data8': '', 'data7': '', 'data6': '', 'data5': '', 'data4': '', 'data3': '', 'Sex': '男', 'data2': '', 'data1': '', 'Data_double': '', 'Data_boolean': '', 'City': '', 'C_time': '', 'Name': '丁幷', 'Identity_code': '', 'Data_long': '', 'Str_time': '', 'Null_data': '', 'time_col': '', 'Age': '40'}, {'data9': '', 'Salary': '', 'data8': '', 'data7': '', 'data6': '', 'data5': '', 'data4': '', 'data3': '', 'Sex': '女', 'data2': '', 'data1': '', 'Data_double': '', 'Data_boolean': '', 'City': '', 'C_time': '', 'Name': '丁庯', 'Identity_code': '', 'Data_long': '', 'Str_time': '', 'Null_data': '', 'time_col': '', 'Age': '32'}, {'data9': '', 'Salary': '', 'data8': '', 'data7': '', 'data6': '', 'data5': '', 'data4': '', 'data3': '', 'Sex': '女', 'data2': '', 'data1': '', 'Data_double': '', 'Data_boolean': '', 'City': '', 'C_time': '', 'Name': '丁弛', 'Identity_code': '', 'Data_long': '', 'Str_time': '', 'Null_data': '', 'time_col': '', 'Age': '73'}]</t>
+  </si>
+  <si>
+    <t>http://info2:8088/cluster/app/application_1624575716462_3537</t>
+  </si>
+  <si>
+    <t>960c167c-bcc7-4a7d-9f51-536affcb4d58</t>
+  </si>
+  <si>
+    <t>tc_validate</t>
+  </si>
+  <si>
+    <t>36cf17f9-e7a7-4161-a5e0-c0f0d0b3f45d</t>
+  </si>
+  <si>
+    <t>5b6f0a34-6c2a-48a9-81ec-eb5b5a8d03e0</t>
+  </si>
+  <si>
+    <t>[{"data9":"丈夫未可轻年少","Salary":"12726","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"女","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.376","Data_boolean":"true","City":"湖南省","C_time":"Thu Jul 29 12:42:04 CST 2021","Name":"逄车","Identity_code":"121110198809221838","Data_long":"2238797512035836945","Str_time":"1627490524000","Null_data":"","time_col":"2021-07-29 12:42:04.575","Age":"79"},{"data9":"丈夫未可轻年少","Salary":"11468","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"女","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.628","Data_boolean":"false","City":"山西省","C_time":"Thu Jul 29 12:42:05 CST 2021","Name":"焦茬","Identity_code":"641524197604264804","Data_long":"6147576326547539368","Str_time":"1627490525000","Null_data":"","time_col":"2021-07-29 12:42:05.247","Age":"77"},{"data9":"丈夫未可轻年少","Salary":"12175","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.97","Data_boolean":"true","City":"安徽省","C_time":"Thu Jul 29 12:42:06 CST 2021","Name":"呼延鵏","Identity_code":"500419198004198321","Data_long":"3489449672673599115","Str_time":"1627490526000","Null_data":"","time_col":"2021-07-29 12:42:06.594","Age":"80"},{"data9":"丈夫未可轻年少","Salary":"13691","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.502","Data_boolean":"false","City":"陕西省","C_time":"Thu Jul 29 12:42:08 CST 2021","Name":"弓龀","Identity_code":"340103199308103971","Data_long":"-5200435162009168713","Str_time":"1627490528000","Null_data":"","time_col":"2021-07-29 12:42:08.519","Age":"86"},{"data9":"丈夫未可轻年少","Salary":"14929","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"男","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.735","Data_boolean":"true","City":"西藏自治区","C_time":"Thu Jul 29 12:42:08 CST 2021","Name":"越钗","Identity_code":"320415199303027851","Data_long":"1075844727142234880","Str_time":"1627490528000","Null_data":"","time_col":"2021-07-29 12:42:08.952","Age":"98"},{"data9":"丈夫未可轻年少","Salary":"13668","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"男","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.721","Data_boolean":"true","City":"福建省","C_time":"Thu Jul 29 12:42:09 CST 2021","Name":"蓬郴","Identity_code":"460501198411044186","Data_long":"7592234984088311139","Str_time":"1627490529000","Null_data":"","time_col":"2021-07-29 12:42:09.24","Age":"74"},{"data9":"丈夫未可轻年少","Salary":"14561","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"女","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.787","Data_boolean":"false","City":"河南省","C_time":"Thu Jul 29 12:42:09 CST 2021","Name":"颛孙镔","Identity_code":"130407199010234394","Data_long":"1189352591613938443","Str_time":"1627490529000","Null_data":"","time_col":"2021-07-29 12:42:09.683","Age":"76"},{"data9":"丈夫未可轻年少","Salary":"10381","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"女","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.943","Data_boolean":"true","City":"山西省","C_time":"Thu Jul 29 12:42:10 CST 2021","Name":"左丘晡","Identity_code":"120619198804216673","Data_long":"6386656193399858500","Str_time":"1627490530000","Null_data":"","time_col":"2021-07-29 12:42:10.394","Age":"84"},{"data9":"丈夫未可轻年少","Salary":"13202","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.326","Data_boolean":"true","City":"福建省","C_time":"Thu Jul 29 12:42:10 CST 2021","Name":"戎炒","Identity_code":"541820197907259682","Data_long":"8902950796826859626","Str_time":"1627490530000","Null_data":"","time_col":"2021-07-29 12:42:10.57","Age":"74"},{"data9":"丈夫未可轻年少","Salary":"14830","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"女","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.684","Data_boolean":"false","City":"吉林省","C_time":"Thu Jul 29 12:42:11 CST 2021","Name":"归褾","Identity_code":"450128197408029430","Data_long":"-5355548747088215938","Str_time":"1627490531000","Null_data":"","time_col":"2021-07-29 12:42:11.015","Age":"72"},{"data9":"丈夫未可轻年少","Salary":"12441","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.358","Data_boolean":"true","City":"吉林省","C_time":"Thu Jul 29 12:42:11 CST 2021","Name":"颛孙彩","Identity_code":"370522197910284341","Data_long":"1307027328676124390","Str_time":"1627490531000","Null_data":"","time_col":"2021-07-29 12:42:11.678","Age":"94"},{"data9":"丈夫未可轻年少","Salary":"12117","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"女","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.777","Data_boolean":"true","City":"福建省","C_time":"Thu Jul 29 12:42:13 CST 2021","Name":"况丞","Identity_code":"211227199810115377","Data_long":"-4825951607369203404","Str_time":"1627490533000","Null_data":"","time_col":"2021-07-29 12:42:13.693","Age":"99"},{"data9":"丈夫未可轻年少","Salary":"11746","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"男","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.252","Data_boolean":"true","City":"天津市","C_time":"Thu Jul 29 12:42:13 CST 2021","Name":"裴诧","Identity_code":"151107200004023814","Data_long":"3221385120317375970","Str_time":"1627490533000","Null_data":"","time_col":"2021-07-29 12:42:13.905","Age":"93"},{"data9":"丈夫未可轻年少","Salary":"14111","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"男","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.37","Data_boolean":"false","City":"宁夏回族自治区","C_time":"Thu Jul 29 12:42:15 CST 2021","Name":"巴镈","Identity_code":"370802197203299661","Data_long":"-7527136514230699234","Str_time":"1627490535000","Null_data":"","time_col":"2021-07-29 12:42:15.255","Age":"93"},{"data9":"丈夫未可轻年少","Salary":"14749","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.673","Data_boolean":"true","City":"四川省","C_time":"Thu Jul 29 12:42:15 CST 2021","Name":"尚晨","Identity_code":"510108199803138525","Data_long":"5419551866843095627","Str_time":"1627490535000","Null_data":"","time_col":"2021-07-29 12:42:15.464","Age":"71"},{"data9":"丈夫未可轻年少","Salary":"11282","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.639","Data_boolean":"true","City":"吉林省","C_time":"Thu Jul 29 12:42:16 CST 2021","Name":"贝忱","Identity_code":"631214198703062830","Data_long":"-2827859610629386690","Str_time":"1627490536000","Null_data":"","time_col":"2021-07-29 12:42:16.137","Age":"73"},{"data9":"丈夫未可轻年少","Salary":"14093","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"男","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.786","Data_boolean":"true","City":"山西省","C_time":"Thu Jul 29 12:42:16 CST 2021","Name":"弘捕","Identity_code":"150824198207252677","Data_long":"7291096667611783256","Str_time":"1627490536000","Null_data":"","time_col":"2021-07-29 12:42:16.326","Age":"86"},{"data9":"丈夫未可轻年少","Salary":"11718","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"男","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.061","Data_boolean":"false","City":"甘肃省","C_time":"Thu Jul 29 12:42:17 CST 2021","Name":"於宬","Identity_code":"811409198912075449","Data_long":"6340755413267269975","Str_time":"1627490537000","Null_data":"","time_col":"2021-07-29 12:42:17.438","Age":"82"},{"data9":"丈夫未可轻年少","Salary":"10457","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"女","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.501","Data_boolean":"true","City":"天津市","C_time":"Thu Jul 29 12:42:19 CST 2021","Name":"文成","Identity_code":"460102200010063075","Data_long":"9131878487137695237","Str_time":"1627490539000","Null_data":"","time_col":"2021-07-29 12:42:19.638","Age":"74"},{"data9":"丈夫未可轻年少","Salary":"14469","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.093","Data_boolean":"false","City":"山东省","C_time":"Thu Jul 29 12:42:20 CST 2021","Name":"窦镈","Identity_code":"510625198312013838","Data_long":"-1140813859544373761","Str_time":"1627490540000","Null_data":"","time_col":"2021-07-29 12:42:20.779","Age":"82"},{"data9":"丈夫未可轻年少","Salary":"13140","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"女","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.004","Data_boolean":"true","City":"黑龙江省","C_time":"Thu Jul 29 12:42:22 CST 2021","Name":"黄偁","Identity_code":"450312199609048572","Data_long":"-3941580422615077757","Str_time":"1627490542000","Null_data":"","time_col":"2021-07-29 12:42:22.746","Age":"75"},{"data9":"丈夫未可轻年少","Salary":"14914","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"女","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.093","Data_boolean":"false","City":"辽宁省","C_time":"Thu Jul 29 12:42:23 CST 2021","Name":"梁羼","Identity_code":"130123197403148096","Data_long":"8660656856637300325","Str_time":"1627490543000","Null_data":"","time_col":"2021-07-29 12:42:23.782","Age":"87"},{"data9":"丈夫未可轻年少","Salary":"12315","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"女","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.307","Data_boolean":"false","City":"陕西省","C_time":"Thu Jul 29 12:42:24 CST 2021","Name":"郏粲","Identity_code":"621710198409101708","Data_long":"6971143696207885739","Str_time":"1627490544000","Null_data":"","time_col":"2021-07-29 12:42:24.233","Age":"99"},{"data9":"丈夫未可轻年少","Salary":"11640","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"男","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.894","Data_boolean":"false","City":"江西省","C_time":"Thu Jul 29 12:42:24 CST 2021","Name":"解茬","Identity_code":"650627199503131878","Data_long":"7342877959037554973","Str_time":"1627490544000","Null_data":"","time_col":"2021-07-29 12:42:24.677","Age":"96"},{"data9":"丈夫未可轻年少","Salary":"11386","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"女","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.186","Data_boolean":"false","City":"香港","C_time":"Thu Jul 29 12:42:25 CST 2021","Name":"郁跛","Identity_code":"350523199310107411","Data_long":"4342291810925625452","Str_time":"1627490545000","Null_data":"","time_col":"2021-07-29 12:42:25.197","Age":"80"},{"data9":"丈夫未可轻年少","Salary":"14839","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"女","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.271","Data_boolean":"false","City":"西藏自治区","C_time":"Thu Jul 29 12:42:25 CST 2021","Name":"詹别","Identity_code":"620322199510102849","Data_long":"-2404850633037915218","Str_time":"1627490545000","Null_data":"","time_col":"2021-07-29 12:42:25.545","Age":"74"},{"data9":"丈夫未可轻年少","Salary":"14084","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"男","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.713","Data_boolean":"false","City":"内蒙古自治区","C_time":"Thu Jul 29 12:42:25 CST 2021","Name":"邵尺","Identity_code":"361314199310082926","Data_long":"3730933616205816897","Str_time":"1627490545000","Null_data":"","time_col":"2021-07-29 12:42:25.982","Age":"93"},{"data9":"丈夫未可轻年少","Salary":"12906","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"女","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.335","Data_boolean":"true","City":"陕西省","C_time":"Thu Jul 29 12:42:26 CST 2021","Name":"殷布","Identity_code":"121425200004072013","Data_long":"6437756388036508109","Str_time":"1627490546000","Null_data":"","time_col":"2021-07-29 12:42:26.955","Age":"88"},{"data9":"丈夫未可轻年少","Salary":"11218","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.367","Data_boolean":"true","City":"吉林省","C_time":"Thu Jul 29 12:42:27 CST 2021","Name":"段干曹","Identity_code":"450711198007137599","Data_long":"-6282738831527744221","Str_time":"1627490547000","Null_data":"","time_col":"2021-07-29 12:42:27.352","Age":"71"},{"data9":"丈夫未可轻年少","Salary":"12019","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"女","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.556","Data_boolean":"true","City":"江苏省","C_time":"Thu Jul 29 12:42:29 CST 2021","Name":"涂痴","Identity_code":"460203199003307534","Data_long":"-4235356755177676195","Str_time":"1627490549000","Null_data":"","time_col":"2021-07-29 12:42:29.568","Age":"89"},{"data9":"丈夫未可轻年少","Salary":"11182","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"女","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.372","Data_boolean":"true","City":"黑龙江省","C_time":"Thu Jul 29 12:42:30 CST 2021","Name":"巫刬","Identity_code":"351219197611022916","Data_long":"5374600825835395887","Str_time":"1627490550000","Null_data":"","time_col":"2021-07-29 12:42:30.452","Age":"89"},{"data9":"丈夫未可轻年少","Salary":"11465","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"男","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.305","Data_boolean":"false","City":"贵州省","C_time":"Thu Jul 29 12:42:30 CST 2021","Name":"雍持","Identity_code":"511723199910118481","Data_long":"6687772121319783417","Str_time":"1627490550000","Null_data":"","time_col":"2021-07-29 12:42:30.895","Age":"71"},{"data9":"丈夫未可轻年少","Salary":"11772","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"男","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.128","Data_boolean":"true","City":"海南省","C_time":"Thu Jul 29 12:42:31 CST 2021","Name":"廉蹅","Identity_code":"650802197905111911","Data_long":"-8289361538866235808","Str_time":"1627490551000","Null_data":"","time_col":"2021-07-29 12:42:31.322","Age":"87"},{"data9":"丈夫未可轻年少","Salary":"12008","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"女","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.355","Data_boolean":"true","City":"黑龙江省","C_time":"Thu Jul 29 12:42:31 CST 2021","Name":"濮掣","Identity_code":"510805199210296281","Data_long":"8167036439705958570","Str_time":"1627490551000","Null_data":"","time_col":"2021-07-29 12:42:31.411","Age":"81"},{"data9":"丈夫未可轻年少","Salary":"13030","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"男","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.964","Data_boolean":"true","City":"四川省","C_time":"Thu Jul 29 12:42:31 CST 2021","Name":"余琛","Identity_code":"150102198007215863","Data_long":"-6200194752129449092","Str_time":"1627490551000","Null_data":"","time_col":"2021-07-29 12:42:31.85","Age":"84"},{"data9":"丈夫未可轻年少","Salary":"14855","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.037","Data_boolean":"false","City":"山西省","C_time":"Thu Jul 29 12:42:33 CST 2021","Name":"邴脭","Identity_code":"501026200002231048","Data_long":"-5326115387487104617","Str_time":"1627490553000","Null_data":"","time_col":"2021-07-29 12:42:33.154","Age":"90"},{"data9":"丈夫未可轻年少","Salary":"14874","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.296","Data_boolean":"true","City":"山西省","C_time":"Thu Jul 29 12:42:33 CST 2021","Name":"彭忱","Identity_code":"520923198301092972","Data_long":"2842985721793472045","Str_time":"1627490553000","Null_data":"","time_col":"2021-07-29 12:42:33.515","Age":"79"},{"data9":"丈夫未可轻年少","Salary":"13693","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.488","Data_boolean":"false","City":"广东省","C_time":"Thu Jul 29 12:42:33 CST 2021","Name":"仇怅","Identity_code":"631504197707305480","Data_long":"-5074494048366742555","Str_time":"1627490553000","Null_data":"","time_col":"2021-07-29 12:42:33.95","Age":"71"},{"data9":"丈夫未可轻年少","Salary":"14555","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"男","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.236","Data_boolean":"false","City":"湖北省","C_time":"Thu Jul 29 12:42:34 CST 2021","Name":"祝邴","Identity_code":"500917199312201647","Data_long":"-2743322386287808909","Str_time":"1627490554000","Null_data":"","time_col":"2021-07-29 12:42:34.394","Age":"98"},{"data9":"丈夫未可轻年少","Salary":"12227","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.279","Data_boolean":"false","City":"山东省","C_time":"Thu Jul 29 12:42:34 CST 2021","Name":"墨锸","Identity_code":"430926198908271103","Data_long":"1821034211532739326","Str_time":"1627490554000","Null_data":"","time_col":"2021-07-29 12:42:34.914","Age":"92"},{"data9":"丈夫未可轻年少","Salary":"12612","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"男","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.863","Data_boolean":"false","City":"浙江省","C_time":"Thu Jul 29 12:42:35 CST 2021","Name":"后摈","Identity_code":"460106198701135389","Data_long":"-5405706404682732355","Str_time":"1627490555000","Null_data":"","time_col":"2021-07-29 12:42:35.262","Age":"92"},{"data9":"丈夫未可轻年少","Salary":"10746","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"女","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.074","Data_boolean":"true","City":"新疆维吾尔族自治区","C_time":"Thu Jul 29 12:42:36 CST 2021","Name":"赖趁","Identity_code":"641626199312058869","Data_long":"790413443147388116","Str_time":"1627490556000","Null_data":"","time_col":"2021-07-29 12:42:36.563","Age":"96"},{"data9":"丈夫未可轻年少","Salary":"14187","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.615","Data_boolean":"true","City":"海南省","C_time":"Thu Jul 29 12:42:37 CST 2021","Name":"禹场","Identity_code":"371701198905075584","Data_long":"-8187083553142153802","Str_time":"1627490557000","Null_data":"","time_col":"2021-07-29 12:42:37.0","Age":"86"},{"data9":"丈夫未可轻年少","Salary":"12598","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"男","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.131","Data_boolean":"false","City":"湖北省","C_time":"Thu Jul 29 12:42:37 CST 2021","Name":"韦炒","Identity_code":"351125197304062394","Data_long":"1968631905214205264","Str_time":"1627490557000","Null_data":"","time_col":"2021-07-29 12:42:37.436","Age":"93"},{"data9":"丈夫未可轻年少","Salary":"11074","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"女","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.687","Data_boolean":"false","City":"江苏省","C_time":"Thu Jul 29 12:42:37 CST 2021","Name":"麻儭","Identity_code":"430904198803237210","Data_long":"-1834894996389030807","Str_time":"1627490557000","Null_data":"","time_col":"2021-07-29 12:42:37.521","Age":"78"},{"data9":"丈夫未可轻年少","Salary":"10879","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"男","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.859","Data_boolean":"false","City":"云南省","C_time":"Thu Jul 29 12:42:38 CST 2021","Name":"林僝","Identity_code":"360625199007142184","Data_long":"-4692641913718765648","Str_time":"1627490558000","Null_data":"","time_col":"2021-07-29 12:42:38.384","Age":"88"},{"data9":"丈夫未可轻年少","Salary":"11073","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.987","Data_boolean":"false","City":"湖南省","C_time":"Thu Jul 29 12:42:39 CST 2021","Name":"濮螭","Identity_code":"631727198101253094","Data_long":"2899828513866349885","Str_time":"1627490559000","Null_data":"","time_col":"2021-07-29 12:42:39.297","Age":"82"},{"data9":"丈夫未可轻年少","Salary":"11506","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"男","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.263","Data_boolean":"true","City":"云南省","C_time":"Thu Jul 29 12:42:39 CST 2021","Name":"黎憯","Identity_code":"520122199909018328","Data_long":"6488629163057103499","Str_time":"1627490559000","Null_data":"","time_col":"2021-07-29 12:42:39.764","Age":"83"},{"data9":"丈夫未可轻年少","Salary":"10124","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"女","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.645","Data_boolean":"false","City":"浙江省","C_time":"Thu Jul 29 12:42:39 CST 2021","Name":"鄢餔","Identity_code":"630908198407202633","Data_long":"2706395246706065054","Str_time":"1627490559000","Null_data":"","time_col":"2021-07-29 12:42:39.765","Age":"93"},{"data9":"丈夫未可轻年少","Salary":"14767","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.911","Data_boolean":"true","City":"甘肃省","C_time":"Thu Jul 29 12:42:40 CST 2021","Name":"翁博","Identity_code":"450816197910272751","Data_long":"-4760151533245469670","Str_time":"1627490560000","Null_data":"","time_col":"2021-07-29 12:42:40.216","Age":"86"}]</t>
+  </si>
+  <si>
+    <t>[{'data9': '丈夫未可轻年少', 'Salary': '12726', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '女', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.376', 'Data_boolean': 'true', 'City': '湖南省', 'C_time': 'Thu Jul 29 12:42:04 CST 2021', 'Name': '逄车', 'Identity_code': '121110198809221838', 'Data_long': '2238797512035836945', 'Str_time': '1627490524000', 'Null_data': '', 'time_col': '2021-07-29 12:42:04.575', 'Age': '79'}, {'data9': '丈夫未可轻年少', 'Salary': '11468', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '女', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.628', 'Data_boolean': 'false', 'City': '山西省', 'C_time': 'Thu Jul 29 12:42:05 CST 2021', 'Name': '焦茬', 'Identity_code': '641524197604264804', 'Data_long': '6147576326547539368', 'Str_time': '1627490525000', 'Null_data': '', 'time_col': '2021-07-29 12:42:05.247', 'Age': '77'}, {'data9': '丈夫未可轻年少', 'Salary': '12175', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.97', 'Data_boolean': 'true', 'City': '安徽省', 'C_time': 'Thu Jul 29 12:42:06 CST 2021', 'Name': '呼延鵏', 'Identity_code': '500419198004198321', 'Data_long': '3489449672673599115', 'Str_time': '1627490526000', 'Null_data': '', 'time_col': '2021-07-29 12:42:06.594', 'Age': '80'}, {'data9': '丈夫未可轻年少', 'Salary': '13691', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.502', 'Data_boolean': 'false', 'City': '陕西省', 'C_time': 'Thu Jul 29 12:42:08 CST 2021', 'Name': '弓龀', 'Identity_code': '340103199308103971', 'Data_long': '-5200435162009168713', 'Str_time': '1627490528000', 'Null_data': '', 'time_col': '2021-07-29 12:42:08.519', 'Age': '86'}, {'data9': '丈夫未可轻年少', 'Salary': '14929', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '男', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.735', 'Data_boolean': 'true', 'City': '西藏自治区', 'C_time': 'Thu Jul 29 12:42:08 CST 2021', 'Name': '越钗', 'Identity_code': '320415199303027851', 'Data_long': '1075844727142234880', 'Str_time': '1627490528000', 'Null_data': '', 'time_col': '2021-07-29 12:42:08.952', 'Age': '98'}, {'data9': '丈夫未可轻年少', 'Salary': '13668', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '男', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.721', 'Data_boolean': 'true', 'City': '福建省', 'C_time': 'Thu Jul 29 12:42:09 CST 2021', 'Name': '蓬郴', 'Identity_code': '460501198411044186', 'Data_long': '7592234984088311139', 'Str_time': '1627490529000', 'Null_data': '', 'time_col': '2021-07-29 12:42:09.24', 'Age': '74'}, {'data9': '丈夫未可轻年少', 'Salary': '14561', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '女', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.787', 'Data_boolean': 'false', 'City': '河南省', 'C_time': 'Thu Jul 29 12:42:09 CST 2021', 'Name': '颛孙镔', 'Identity_code': '130407199010234394', 'Data_long': '1189352591613938443', 'Str_time': '1627490529000', 'Null_data': '', 'time_col': '2021-07-29 12:42:09.683', 'Age': '76'}, {'data9': '丈夫未可轻年少', 'Salary': '10381', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '女', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.943', 'Data_boolean': 'true', 'City': '山西省', 'C_time': 'Thu Jul 29 12:42:10 CST 2021', 'Name': '左丘晡', 'Identity_code': '120619198804216673', 'Data_long': '6386656193399858500', 'Str_time': '1627490530000', 'Null_data': '', 'time_col': '2021-07-29 12:42:10.394', 'Age': '84'}, {'data9': '丈夫未可轻年少', 'Salary': '13202', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.326', 'Data_boolean': 'true', 'City': '福建省', 'C_time': 'Thu Jul 29 12:42:10 CST 2021', 'Name': '戎炒', 'Identity_code': '541820197907259682', 'Data_long': '8902950796826859626', 'Str_time': '1627490530000', 'Null_data': '', 'time_col': '2021-07-29 12:42:10.57', 'Age': '74'}, {'data9': '丈夫未可轻年少', 'Salary': '14830', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '女', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.684', 'Data_boolean': 'false', 'City': '吉林省', 'C_time': 'Thu Jul 29 12:42:11 CST 2021', 'Name': '归褾', 'Identity_code': '450128197408029430', 'Data_long': '-5355548747088215938', 'Str_time': '1627490531000', 'Null_data': '', 'time_col': '2021-07-29 12:42:11.015', 'Age': '72'}, {'data9': '丈夫未可轻年少', 'Salary': '12441', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.358', 'Data_boolean': 'true', 'City': '吉林省', 'C_time': 'Thu Jul 29 12:42:11 CST 2021', 'Name': '颛孙彩', 'Identity_code': '370522197910284341', 'Data_long': '1307027328676124390', 'Str_time': '1627490531000', 'Null_data': '', 'time_col': '2021-07-29 12:42:11.678', 'Age': '94'}, {'data9': '丈夫未可轻年少', 'Salary': '12117', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '女', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.777', 'Data_boolean': 'true', 'City': '福建省', 'C_time': 'Thu Jul 29 12:42:13 CST 2021', 'Name': '况丞', 'Identity_code': '211227199810115377', 'Data_long': '-4825951607369203404', 'Str_time': '1627490533000', 'Null_data': '', 'time_col': '2021-07-29 12:42:13.693', 'Age': '99'}, {'data9': '丈夫未可轻年少', 'Salary': '11746', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '男', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.252', 'Data_boolean': 'true', 'City': '天津市', 'C_time': 'Thu Jul 29 12:42:13 CST 2021', 'Name': '裴诧', 'Identity_code': '151107200004023814', 'Data_long': '3221385120317375970', 'Str_time': '1627490533000', 'Null_data': '', 'time_col': '2021-07-29 12:42:13.905', 'Age': '93'}, {'data9': '丈夫未可轻年少', 'Salary': '14111', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '男', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.37', 'Data_boolean': 'false', 'City': '宁夏回族自治区', 'C_time': 'Thu Jul 29 12:42:15 CST 2021', 'Name': '巴镈', 'Identity_code': '370802197203299661', 'Data_long': '-7527136514230699234', 'Str_time': '1627490535000', 'Null_data': '', 'time_col': '2021-07-29 12:42:15.255', 'Age': '93'}, {'data9': '丈夫未可轻年少', 'Salary': '14749', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.673', 'Data_boolean': 'true', 'City': '四川省', 'C_time': 'Thu Jul 29 12:42:15 CST 2021', 'Name': '尚晨', 'Identity_code': '510108199803138525', 'Data_long': '5419551866843095627', 'Str_time': '1627490535000', 'Null_data': '', 'time_col': '2021-07-29 12:42:15.464', 'Age': '71'}, {'data9': '丈夫未可轻年少', 'Salary': '11282', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.639', 'Data_boolean': 'true', 'City': '吉林省', 'C_time': 'Thu Jul 29 12:42:16 CST 2021', 'Name': '贝忱', 'Identity_code': '631214198703062830', 'Data_long': '-2827859610629386690', 'Str_time': '1627490536000', 'Null_data': '', 'time_col': '2021-07-29 12:42:16.137', 'Age': '73'}, {'data9': '丈夫未可轻年少', 'Salary': '14093', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '男', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.786', 'Data_boolean': 'true', 'City': '山西省', 'C_time': 'Thu Jul 29 12:42:16 CST 2021', 'Name': '弘捕', 'Identity_code': '150824198207252677', 'Data_long': '7291096667611783256', 'Str_time': '1627490536000', 'Null_data': '', 'time_col': '2021-07-29 12:42:16.326', 'Age': '86'}, {'data9': '丈夫未可轻年少', 'Salary': '11718', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '男', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.061', 'Data_boolean': 'false', 'City': '甘肃省', 'C_time': 'Thu Jul 29 12:42:17 CST 2021', 'Name': '於宬', 'Identity_code': '811409198912075449', 'Data_long': '6340755413267269975', 'Str_time': '1627490537000', 'Null_data': '', 'time_col': '2021-07-29 12:42:17.438', 'Age': '82'}, {'data9': '丈夫未可轻年少', 'Salary': '10457', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '女', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.501', 'Data_boolean': 'true', 'City': '天津市', 'C_time': 'Thu Jul 29 12:42:19 CST 2021', 'Name': '文成', 'Identity_code': '460102200010063075', 'Data_long': '9131878487137695237', 'Str_time': '1627490539000', 'Null_data': '', 'time_col': '2021-07-29 12:42:19.638', 'Age': '74'}, {'data9': '丈夫未可轻年少', 'Salary': '14469', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.093', 'Data_boolean': 'false', 'City': '山东省', 'C_time': 'Thu Jul 29 12:42:20 CST 2021', 'Name': '窦镈', 'Identity_code': '510625198312013838', 'Data_long': '-1140813859544373761', 'Str_time': '1627490540000', 'Null_data': '', 'time_col': '2021-07-29 12:42:20.779', 'Age': '82'}, {'data9': '丈夫未可轻年少', 'Salary': '13140', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '女', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.004', 'Data_boolean': 'true', 'City': '黑龙江省', 'C_time': 'Thu Jul 29 12:42:22 CST 2021', 'Name': '黄偁', 'Identity_code': '450312199609048572', 'Data_long': '-3941580422615077757', 'Str_time': '1627490542000', 'Null_data': '', 'time_col': '2021-07-29 12:42:22.746', 'Age': '75'}, {'data9': '丈夫未可轻年少', 'Salary': '14914', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '女', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.093', 'Data_boolean': 'false', 'City': '辽宁省', 'C_time': 'Thu Jul 29 12:42:23 CST 2021', 'Name': '梁羼', 'Identity_code': '130123197403148096', 'Data_long': '8660656856637300325', 'Str_time': '1627490543000', 'Null_data': '', 'time_col': '2021-07-29 12:42:23.782', 'Age': '87'}, {'data9': '丈夫未可轻年少', 'Salary': '12315', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '女', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.307', 'Data_boolean': 'false', 'City': '陕西省', 'C_time': 'Thu Jul 29 12:42:24 CST 2021', 'Name': '郏粲', 'Identity_code': '621710198409101708', 'Data_long': '6971143696207885739', 'Str_time': '1627490544000', 'Null_data': '', 'time_col': '2021-07-29 12:42:24.233', 'Age': '99'}, {'data9': '丈夫未可轻年少', 'Salary': '11640', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '男', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.894', 'Data_boolean': 'false', 'City': '江西省', 'C_time': 'Thu Jul 29 12:42:24 CST 2021', 'Name': '解茬', 'Identity_code': '650627199503131878', 'Data_long': '7342877959037554973', 'Str_time': '1627490544000', 'Null_data': '', 'time_col': '2021-07-29 12:42:24.677', 'Age': '96'}, {'data9': '丈夫未可轻年少', 'Salary': '11386', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '女', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.186', 'Data_boolean': 'false', 'City': '香港', 'C_time': 'Thu Jul 29 12:42:25 CST 2021', 'Name': '郁跛', 'Identity_code': '350523199310107411', 'Data_long': '4342291810925625452', 'Str_time': '1627490545000', 'Null_data': '', 'time_col': '2021-07-29 12:42:25.197', 'Age': '80'}, {'data9': '丈夫未可轻年少', 'Salary': '14839', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '女', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.271', 'Data_boolean': 'false', 'City': '西藏自治区', 'C_time': 'Thu Jul 29 12:42:25 CST 2021', 'Name': '詹别', 'Identity_code': '620322199510102849', 'Data_long': '-2404850633037915218', 'Str_time': '1627490545000', 'Null_data': '', 'time_col': '2021-07-29 12:42:25.545', 'Age': '74'}, {'data9': '丈夫未可轻年少', 'Salary': '14084', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '男', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.713', 'Data_boolean': 'false', 'City': '内蒙古自治区', 'C_time': 'Thu Jul 29 12:42:25 CST 2021', 'Name': '邵尺', 'Identity_code': '361314199310082926', 'Data_long': '3730933616205816897', 'Str_time': '1627490545000', 'Null_data': '', 'time_col': '2021-07-29 12:42:25.982', 'Age': '93'}, {'data9': '丈夫未可轻年少', 'Salary': '12906', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '女', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.335', 'Data_boolean': 'true', 'City': '陕西省', 'C_time': 'Thu Jul 29 12:42:26 CST 2021', 'Name': '殷布', 'Identity_code': '121425200004072013', 'Data_long': '6437756388036508109', 'Str_time': '1627490546000', 'Null_data': '', 'time_col': '2021-07-29 12:42:26.955', 'Age': '88'}, {'data9': '丈夫未可轻年少', 'Salary': '11218', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.367', 'Data_boolean': 'true', 'City': '吉林省', 'C_time': 'Thu Jul 29 12:42:27 CST 2021', 'Name': '段干曹', 'Identity_code': '450711198007137599', 'Data_long': '-6282738831527744221', 'Str_time': '1627490547000', 'Null_data': '', 'time_col': '2021-07-29 12:42:27.352', 'Age': '71'}, {'data9': '丈夫未可轻年少', 'Salary': '12019', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '女', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.556', 'Data_boolean': 'true', 'City': '江苏省', 'C_time': 'Thu Jul 29 12:42:29 CST 2021', 'Name': '涂痴', 'Identity_code': '460203199003307534', 'Data_long': '-4235356755177676195', 'Str_time': '1627490549000', 'Null_data': '', 'time_col': '2021-07-29 12:42:29.568', 'Age': '89'}, {'data9': '丈夫未可轻年少', 'Salary': '11182', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '女', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.372', 'Data_boolean': 'true', 'City': '黑龙江省', 'C_time': 'Thu Jul 29 12:42:30 CST 2021', 'Name': '巫刬', 'Identity_code': '351219197611022916', 'Data_long': '5374600825835395887', 'Str_time': '1627490550000', 'Null_data': '', 'time_col': '2021-07-29 12:42:30.452', 'Age': '89'}, {'data9': '丈夫未可轻年少', 'Salary': '11465', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '男', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.305', 'Data_boolean': 'false', 'City': '贵州省', 'C_time': 'Thu Jul 29 12:42:30 CST 2021', 'Name': '雍持', 'Identity_code': '511723199910118481', 'Data_long': '6687772121319783417', 'Str_time': '1627490550000', 'Null_data': '', 'time_col': '2021-07-29 12:42:30.895', 'Age': '71'}, {'data9': '丈夫未可轻年少', 'Salary': '11772', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '男', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.128', 'Data_boolean': 'true', 'City': '海南省', 'C_time': 'Thu Jul 29 12:42:31 CST 2021', 'Name': '廉蹅', 'Identity_code': '650802197905111911', 'Data_long': '-8289361538866235808', 'Str_time': '1627490551000', 'Null_data': '', 'time_col': '2021-07-29 12:42:31.322', 'Age': '87'}, {'data9': '丈夫未可轻年少', 'Salary': '12008', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '女', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.355', 'Data_boolean': 'true', 'City': '黑龙江省', 'C_time': 'Thu Jul 29 12:42:31 CST 2021', 'Name': '濮掣', 'Identity_code': '510805199210296281', 'Data_long': '8167036439705958570', 'Str_time': '1627490551000', 'Null_data': '', 'time_col': '2021-07-29 12:42:31.411', 'Age': '81'}, {'data9': '丈夫未可轻年少', 'Salary': '13030', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '男', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.964', 'Data_boolean': 'true', 'City': '四川省', 'C_time': 'Thu Jul 29 12:42:31 CST 2021', 'Name': '余琛', 'Identity_code': '150102198007215863', 'Data_long': '-6200194752129449092', 'Str_time': '1627490551000', 'Null_data': '', 'time_col': '2021-07-29 12:42:31.85', 'Age': '84'}, {'data9': '丈夫未可轻年少', 'Salary': '14855', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.037', 'Data_boolean': 'false', 'City': '山西省', 'C_time': 'Thu Jul 29 12:42:33 CST 2021', 'Name': '邴脭', 'Identity_code': '501026200002231048', 'Data_long': '-5326115387487104617', 'Str_time': '1627490553000', 'Null_data': '', 'time_col': '2021-07-29 12:42:33.154', 'Age': '90'}, {'data9': '丈夫未可轻年少', 'Salary': '14874', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.296', 'Data_boolean': 'true', 'City': '山西省', 'C_time': 'Thu Jul 29 12:42:33 CST 2021', 'Name': '彭忱', 'Identity_code': '520923198301092972', 'Data_long': '2842985721793472045', 'Str_time': '1627490553000', 'Null_data': '', 'time_col': '2021-07-29 12:42:33.515', 'Age': '79'}, {'data9': '丈夫未可轻年少', 'Salary': '13693', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.488', 'Data_boolean': 'false', 'City': '广东省', 'C_time': 'Thu Jul 29 12:42:33 CST 2021', 'Name': '仇怅', 'Identity_code': '631504197707305480', 'Data_long': '-5074494048366742555', 'Str_time': '1627490553000', 'Null_data': '', 'time_col': '2021-07-29 12:42:33.95', 'Age': '71'}, {'data9': '丈夫未可轻年少', 'Salary': '14555', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '男', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.236', 'Data_boolean': 'false', 'City': '湖北省', 'C_time': 'Thu Jul 29 12:42:34 CST 2021', 'Name': '祝邴', 'Identity_code': '500917199312201647', 'Data_long': '-2743322386287808909', 'Str_time': '1627490554000', 'Null_data': '', 'time_col': '2021-07-29 12:42:34.394', 'Age': '98'}, {'data9': '丈夫未可轻年少', 'Salary': '12227', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.279', 'Data_boolean': 'false', 'City': '山东省', 'C_time': 'Thu Jul 29 12:42:34 CST 2021', 'Name': '墨锸', 'Identity_code': '430926198908271103', 'Data_long': '1821034211532739326', 'Str_time': '1627490554000', 'Null_data': '', 'time_col': '2021-07-29 12:42:34.914', 'Age': '92'}, {'data9': '丈夫未可轻年少', 'Salary': '12612', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '男', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.863', 'Data_boolean': 'false', 'City': '浙江省', 'C_time': 'Thu Jul 29 12:42:35 CST 2021', 'Name': '后摈', 'Identity_code': '460106198701135389', 'Data_long': '-5405706404682732355', 'Str_time': '1627490555000', 'Null_data': '', 'time_col': '2021-07-29 12:42:35.262', 'Age': '92'}, {'data9': '丈夫未可轻年少', 'Salary': '10746', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '女', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.074', 'Data_boolean': 'true', 'City': '新疆维吾尔族自治区', 'C_time': 'Thu Jul 29 12:42:36 CST 2021', 'Name': '赖趁', 'Identity_code': '641626199312058869', 'Data_long': '790413443147388116', 'Str_time': '1627490556000', 'Null_data': '', 'time_col': '2021-07-29 12:42:36.563', 'Age': '96'}, {'data9': '丈夫未可轻年少', 'Salary': '14187', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.615', 'Data_boolean': 'true', 'City': '海南省', 'C_time': 'Thu Jul 29 12:42:37 CST 2021', 'Name': '禹场', 'Identity_code': '371701198905075584', 'Data_long': '-8187083553142153802', 'Str_time': '1627490557000', 'Null_data': '', 'time_col': '2021-07-29 12:42:37.0', 'Age': '86'}, {'data9': '丈夫未可轻年少', 'Salary': '12598', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '男', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.131', 'Data_boolean': 'false', 'City': '湖北省', 'C_time': 'Thu Jul 29 12:42:37 CST 2021', 'Name': '韦炒', 'Identity_code': '351125197304062394', 'Data_long': '1968631905214205264', 'Str_time': '1627490557000', 'Null_data': '', 'time_col': '2021-07-29 12:42:37.436', 'Age': '93'}, {'data9': '丈夫未可轻年少', 'Salary': '11074', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '女', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.687', 'Data_boolean': 'false', 'City': '江苏省', 'C_time': 'Thu Jul 29 12:42:37 CST 2021', 'Name': '麻儭', 'Identity_code': '430904198803237210', 'Data_long': '-1834894996389030807', 'Str_time': '1627490557000', 'Null_data': '', 'time_col': '2021-07-29 12:42:37.521', 'Age': '78'}, {'data9': '丈夫未可轻年少', 'Salary': '10879', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '男', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.859', 'Data_boolean': 'false', 'City': '云南省', 'C_time': 'Thu Jul 29 12:42:38 CST 2021', 'Name': '林僝', 'Identity_code': '360625199007142184', 'Data_long': '-4692641913718765648', 'Str_time': '1627490558000', 'Null_data': '', 'time_col': '2021-07-29 12:42:38.384', 'Age': '88'}, {'data9': '丈夫未可轻年少', 'Salary': '11073', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.987', 'Data_boolean': 'false', 'City': '湖南省', 'C_time': 'Thu Jul 29 12:42:39 CST 2021', 'Name': '濮螭', 'Identity_code': '631727198101253094', 'Data_long': '2899828513866349885', 'Str_time': '1627490559000', 'Null_data': '', 'time_col': '2021-07-29 12:42:39.297', 'Age': '82'}, {'data9': '丈夫未可轻年少', 'Salary': '11506', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '男', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.263', 'Data_boolean': 'true', 'City': '云南省', 'C_time': 'Thu Jul 29 12:42:39 CST 2021', 'Name': '黎憯', 'Identity_code': '520122199909018328', 'Data_long': '6488629163057103499', 'Str_time': '1627490559000', 'Null_data': '', 'time_col': '2021-07-29 12:42:39.764', 'Age': '83'}, {'data9': '丈夫未可轻年少', 'Salary': '10124', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '女', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.645', 'Data_boolean': 'false', 'City': '浙江省', 'C_time': 'Thu Jul 29 12:42:39 CST 2021', 'Name': '鄢餔', 'Identity_code': '630908198407202633', 'Data_long': '2706395246706065054', 'Str_time': '1627490559000', 'Null_data': '', 'time_col': '2021-07-29 12:42:39.765', 'Age': '93'}, {'data9': '丈夫未可轻年少', 'Salary': '14767', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.911', 'Data_boolean': 'true', 'City': '甘肃省', 'C_time': 'Thu Jul 29 12:42:40 CST 2021', 'Name': '翁博', 'Identity_code': '450816197910272751', 'Data_long': '-4760151533245469670', 'Str_time': '1627490560000', 'Null_data': '', 'time_col': '2021-07-29 12:42:40.216', 'Age': '86'}]</t>
+  </si>
+  <si>
+    <t>http://info2:8088/cluster/app/application_1624575716462_3540</t>
+  </si>
+  <si>
+    <t>6cda6b94-2964-4736-98d2-904e634a4d07</t>
+  </si>
+  <si>
+    <t>47de47cc-d4d8-413e-aeda-e3be73510606</t>
+  </si>
+  <si>
+    <t>[{'data9': '丈夫未可轻年少', 'Salary': '12726', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '女', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.376', 'Data_boolean': 'true', 'City': '湖南省', 'C_time': 'Thu Jul 29 12:42:04 CST 2021', 'Name': '逄车', 'Identity_code': '121110198809221838', 'Data_long': '2238797512035836945', 'Str_time': '1627490524000', 'Null_data': '', 'time_col': '2021-07-29 12:42:04.575', 'Age': '79'}, {'data9': '丈夫未可轻年少', 'Salary': '13356', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '女', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.056', 'Data_boolean': 'true', 'City': '河南省', 'C_time': 'Thu Jul 29 12:42:04 CST 2021', 'Name': '欧阳玻', 'Identity_code': '341209200007011773', 'Data_long': '-2592756034699986574', 'Str_time': '1627490524000', 'Null_data': '', 'time_col': '2021-07-29 12:42:04.818', 'Age': '45'}, {'data9': '丈夫未可轻年少', 'Salary': '11255', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.267', 'Data_boolean': 'true', 'City': '青海省', 'C_time': 'Thu Jul 29 12:42:05 CST 2021', 'Name': '平察', 'Identity_code': '811605197808112259', 'Data_long': '-4165552592569938805', 'Str_time': '1627490525000', 'Null_data': '', 'time_col': '2021-07-29 12:42:05.021', 'Age': '0'}, {'data9': '丈夫未可轻年少', 'Salary': '11468', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '女', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.628', 'Data_boolean': 'false', 'City': '山西省', 'C_time': 'Thu Jul 29 12:42:05 CST 2021', 'Name': '焦茬', 'Identity_code': '641524197604264804', 'Data_long': '6147576326547539368', 'Str_time': '1627490525000', 'Null_data': '', 'time_col': '2021-07-29 12:42:05.247', 'Age': '77'}, {'data9': '丈夫未可轻年少', 'Salary': '13303', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '男', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.368', 'Data_boolean': 'false', 'City': '新疆维吾尔族自治区', 'C_time': 'Thu Jul 29 12:42:05 CST 2021', 'Name': '龙缤', 'Identity_code': '211509199601021172', 'Data_long': '1864007205724646641', 'Str_time': '1627490525000', 'Null_data': '', 'time_col': '2021-07-29 12:42:05.465', 'Age': '59'}, {'data9': '丈夫未可轻年少', 'Salary': '12669', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '男', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.117', 'Data_boolean': 'false', 'City': '河南省', 'C_time': 'Thu Jul 29 12:42:05 CST 2021', 'Name': '楮铂', 'Identity_code': '351718200103132801', 'Data_long': '-2351096073866400808', 'Str_time': '1627490525000', 'Null_data': '', 'time_col': '2021-07-29 12:42:05.686', 'Age': '50'}, {'data9': '丈夫未可轻年少', 'Salary': '14942', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '女', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.266', 'Data_boolean': 'true', 'City': '天津市', 'C_time': 'Thu Jul 29 12:42:05 CST 2021', 'Name': '司马澄', 'Identity_code': '110918197504031916', 'Data_long': '-3432020163875956094', 'Str_time': '1627490525000', 'Null_data': '', 'time_col': '2021-07-29 12:42:05.899', 'Age': '6'}, {'data9': '丈夫未可轻年少', 'Salary': '10820', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '女', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.479', 'Data_boolean': 'false', 'City': '辽宁省', 'C_time': 'Thu Jul 29 12:42:06 CST 2021', 'Name': '衡倡', 'Identity_code': '521217198404017777', 'Data_long': '-6773331653668545940', 'Str_time': '1627490526000', 'Null_data': '', 'time_col': '2021-07-29 12:42:06.146', 'Age': '25'}, {'data9': '丈夫未可轻年少', 'Salary': '12928', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '男', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.993', 'Data_boolean': 'false', 'City': '新疆维吾尔族自治区', 'C_time': 'Thu Jul 29 12:42:06 CST 2021', 'Name': '喻啵', 'Identity_code': '640416199401243102', 'Data_long': '-6627649792684701581', 'Str_time': '1627490526000', 'Null_data': '', 'time_col': '2021-07-29 12:42:06.337', 'Age': '57'}, {'data9': '丈夫未可轻年少', 'Salary': '12175', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.97', 'Data_boolean': 'true', 'City': '安徽省', 'C_time': 'Thu Jul 29 12:42:06 CST 2021', 'Name': '呼延鵏', 'Identity_code': '500419198004198321', 'Data_long': '3489449672673599115', 'Str_time': '1627490526000', 'Null_data': '', 'time_col': '2021-07-29 12:42:06.594', 'Age': '80'}, {'data9': '丈夫未可轻年少', 'Salary': '14394', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '男', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.482', 'Data_boolean': 'true', 'City': '广西壮族自治区', 'C_time': 'Thu Jul 29 12:42:06 CST 2021', 'Name': '马蹭', 'Identity_code': '111327199010055151', 'Data_long': '-3000934209773665411', 'Str_time': '1627490526000', 'Null_data': '', 'time_col': '2021-07-29 12:42:06.776', 'Age': '20'}, {'data9': '丈夫未可轻年少', 'Salary': '11820', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '男', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.886', 'Data_boolean': 'true', 'City': '青海省', 'C_time': 'Thu Jul 29 12:42:07 CST 2021', 'Name': '佴卜', 'Identity_code': '530912197207154334', 'Data_long': '803473466840680501', 'Str_time': '1627490527000', 'Null_data': '', 'time_col': '2021-07-29 12:42:07.043', 'Age': '63'}, {'data9': '丈夫未可轻年少', 'Salary': '13599', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '男', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.588', 'Data_boolean': 'false', 'City': '山东省', 'C_time': 'Thu Jul 29 12:42:07 CST 2021', 'Name': '封采', 'Identity_code': '460424199605189511', 'Data_long': '4762396091232020157', 'Str_time': '1627490527000', 'Null_data': '', 'time_col': '2021-07-29 12:42:07.234', 'Age': '65'}, {'data9': '丈夫未可轻年少', 'Salary': '13188', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '男', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.122', 'Data_boolean': 'true', 'City': '澳门', 'C_time': 'Thu Jul 29 12:42:07 CST 2021', 'Name': '戈膊', 'Identity_code': '210224198611067907', 'Data_long': '-9124011482361313140', 'Str_time': '1627490527000', 'Null_data': '', 'time_col': '2021-07-29 12:42:07.49', 'Age': '50'}, {'data9': '丈夫未可轻年少', 'Salary': '13899', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '男', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.908', 'Data_boolean': 'true', 'City': '天津市', 'C_time': 'Thu Jul 29 12:42:07 CST 2021', 'Name': '艾苌', 'Identity_code': '410915199906156491', 'Data_long': '-5783878045306474470', 'Str_time': '1627490527000', 'Null_data': '', 'time_col': '2021-07-29 12:42:07.659', 'Age': '21'}, {'data9': '丈夫未可轻年少', 'Salary': '11269', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '男', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.794', 'Data_boolean': 'true', 'City': '江西省', 'C_time': 'Thu Jul 29 12:42:07 CST 2021', 'Name': '魏蹩', 'Identity_code': '711426198710188738', 'Data_long': '-453875004473808152', 'Str_time': '1627490527000', 'Null_data': '', 'time_col': '2021-07-29 12:42:07.915', 'Age': '47'}, {'data9': '丈夫未可轻年少', 'Salary': '10014', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '女', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.651', 'Data_boolean': 'true', 'City': '宁夏回族自治区', 'C_time': 'Thu Jul 29 12:42:08 CST 2021', 'Name': '双豺', 'Identity_code': '350607197306213851', 'Data_long': '6369768989252912965', 'Str_time': '1627490528000', 'Null_data': '', 'time_col': '2021-07-29 12:42:08.088', 'Age': '35'}, {'data9': '丈夫未可轻年少', 'Salary': '10715', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '男', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.045', 'Data_boolean': 'false', 'City': '西藏自治区', 'C_time': 'Thu Jul 29 12:42:08 CST 2021', 'Name': '孟册', 'Identity_code': '130216197605248806', 'Data_long': '3004253461820428325', 'Str_time': '1627490528000', 'Null_data': '', 'time_col': '2021-07-29 12:42:08.357', 'Age': '49'}, {'data9': '丈夫未可轻年少', 'Salary': '13691', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.502', 'Data_boolean': 'false', 'City': '陕西省', 'C_time': 'Thu Jul 29 12:42:08 CST 2021', 'Name': '弓龀', 'Identity_code': '340103199308103971', 'Data_long': '-5200435162009168713', 'Str_time': '1627490528000', 'Null_data': '', 'time_col': '2021-07-29 12:42:08.519', 'Age': '86'}, {'data9': '丈夫未可轻年少', 'Salary': '13251', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.008', 'Data_boolean': 'true', 'City': '浙江省', 'C_time': 'Thu Jul 29 12:42:08 CST 2021', 'Name': '解铛', 'Identity_code': '211218199602217532', 'Data_long': '-7159209519914515083', 'Str_time': '1627490528000', 'Null_data': '', 'time_col': '2021-07-29 12:42:08.801', 'Age': '29'}, {'data9': '丈夫未可轻年少', 'Salary': '14929', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '男', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.735', 'Data_boolean': 'true', 'City': '西藏自治区', 'C_time': 'Thu Jul 29 12:42:08 CST 2021', 'Name': '越钗', 'Identity_code': '320415199303027851', 'Data_long': '1075844727142234880', 'Str_time': '1627490528000', 'Null_data': '', 'time_col': '2021-07-29 12:42:08.952', 'Age': '98'}, {'data9': '丈夫未可轻年少', 'Salary': '13668', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '男', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.721', 'Data_boolean': 'true', 'City': '福建省', 'C_time': 'Thu Jul 29 12:42:09 CST 2021', 'Name': '蓬郴', 'Identity_code': '460501198411044186', 'Data_long': '7592234984088311139', 'Str_time': '1627490529000', 'Null_data': '', 'time_col': '2021-07-29 12:42:09.24', 'Age': '74'}, {'data9': '丈夫未可轻年少', 'Salary': '12317', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '男', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.228', 'Data_boolean': 'false', 'City': '河北省', 'C_time': 'Thu Jul 29 12:42:09 CST 2021', 'Name': '孟残', 'Identity_code': '131010197207248628', 'Data_long': '7243590641783941789', 'Str_time': '1627490529000', 'Null_data': '', 'time_col': '2021-07-29 12:42:09.508', 'Age': '49'}, {'data9': '丈夫未可轻年少', 'Salary': '14561', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '女', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.787', 'Data_boolean': 'false', 'City': '河南省', 'C_time': 'Thu Jul 29 12:42:09 CST 2021', 'Name': '颛孙镔', 'Identity_code': '130407199010234394', 'Data_long': '1189352591613938443', 'Str_time': '1627490529000', 'Null_data': '', 'time_col': '2021-07-29 12:42:09.683', 'Age': '76'}, {'data9': '丈夫未可轻年少', 'Salary': '10166', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '女', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.85', 'Data_boolean': 'true', 'City': '云南省', 'C_time': 'Thu Jul 29 12:42:09 CST 2021', 'Name': '寇巉', 'Identity_code': '331219199002231346', 'Data_long': '5195369347335673154', 'Str_time': '1627490529000', 'Null_data': '', 'time_col': '2021-07-29 12:42:09.943', 'Age': '46'}, {'data9': '丈夫未可轻年少', 'Salary': '11891', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '女', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.389', 'Data_boolean': 'true', 'City': '四川省', 'C_time': 'Thu Jul 29 12:42:10 CST 2021', 'Name': '元骖', 'Identity_code': '651513198203093194', 'Data_long': '-5025626343275216985', 'Str_time': '1627490530000', 'Null_data': '', 'time_col': '2021-07-29 12:42:10.131', 'Age': '63'}, {'data9': '丈夫未可轻年少', 'Salary': '10381', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '女', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.943', 'Data_boolean': 'true', 'City': '山西省', 'C_time': 'Thu Jul 29 12:42:10 CST 2021', 'Name': '左丘晡', 'Identity_code': '120619198804216673', 'Data_long': '6386656193399858500', 'Str_time': '1627490530000', 'Null_data': '', 'time_col': '2021-07-29 12:42:10.394', 'Age': '84'}, {'data9': '丈夫未可轻年少', 'Salary': '13202', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.326', 'Data_boolean': 'true', 'City': '福建省', 'C_time': 'Thu Jul 29 12:42:10 CST 2021', 'Name': '戎炒', 'Identity_code': '541820197907259682', 'Data_long': '8902950796826859626', 'Str_time': '1627490530000', 'Null_data': '', 'time_col': '2021-07-29 12:42:10.57', 'Age': '74'}, {'data9': '丈夫未可轻年少', 'Salary': '10405', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '女', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.149', 'Data_boolean': 'false', 'City': '河南省', 'C_time': 'Thu Jul 29 12:42:10 CST 2021', 'Name': '郤畅', 'Identity_code': '430908197907048321', 'Data_long': '5611173229047631160', 'Str_time': '1627490530000', 'Null_data': '', 'time_col': '2021-07-29 12:42:10.826', 'Age': '5'}, {'data9': '丈夫未可轻年少', 'Salary': '14830', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '女', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.684', 'Data_boolean': 'false', 'City': '吉林省', 'C_time': 'Thu Jul 29 12:42:11 CST 2021', 'Name': '归褾', 'Identity_code': '450128197408029430', 'Data_long': '-5355548747088215938', 'Str_time': '1627490531000', 'Null_data': '', 'time_col': '2021-07-29 12:42:11.015', 'Age': '72'}, {'data9': '丈夫未可轻年少', 'Salary': '10703', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '男', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.213', 'Data_boolean': 'false', 'City': '广西壮族自治区', 'C_time': 'Thu Jul 29 12:42:11 CST 2021', 'Name': '束偿', 'Identity_code': '151204197802273439', 'Data_long': '-6500735408189379693', 'Str_time': '1627490531000', 'Null_data': '', 'time_col': '2021-07-29 12:42:11.244', 'Age': '55'}, {'data9': '丈夫未可轻年少', 'Salary': '12674', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '男', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.466', 'Data_boolean': 'false', 'City': '云南省', 'C_time': 'Thu Jul 29 12:42:11 CST 2021', 'Name': '衡僝', 'Identity_code': '310122198304014592', 'Data_long': '-6977824025935606139', 'Str_time': '1627490531000', 'Null_data': '', 'time_col': '2021-07-29 12:42:11.461', 'Age': '32'}, {'data9': '丈夫未可轻年少', 'Salary': '12441', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.358', 'Data_boolean': 'true', 'City': '吉林省', 'C_time': 'Thu Jul 29 12:42:11 CST 2021', 'Name': '颛孙彩', 'Identity_code': '370522197910284341', 'Data_long': '1307027328676124390', 'Str_time': '1627490531000', 'Null_data': '', 'time_col': '2021-07-29 12:42:11.678', 'Age': '94'}, {'data9': '丈夫未可轻年少', 'Salary': '11225', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '男', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.644', 'Data_boolean': 'false', 'City': '宁夏回族自治区', 'C_time': 'Thu Jul 29 12:42:11 CST 2021', 'Name': '景怖', 'Identity_code': '331517200001307590', 'Data_long': '3036358964258799691', 'Str_time': '1627490531000', 'Null_data': '', 'time_col': '2021-07-29 12:42:11.947', 'Age': '3'}, {'data9': '丈夫未可轻年少', 'Salary': '12581', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '男', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.271', 'Data_boolean': 'true', 'City': '陕西省', 'C_time': 'Thu Jul 29 12:42:12 CST 2021', 'Name': '伍摛', 'Identity_code': '640917198409081704', 'Data_long': '-6786316880982789808', 'Str_time': '1627490532000', 'Null_data': '', 'time_col': '2021-07-29 12:42:12.106', 'Age': '49'}, {'data9': '丈夫未可轻年少', 'Salary': '11049', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.508', 'Data_boolean': 'false', 'City': '宁夏回族自治区', 'C_time': 'Thu Jul 29 12:42:12 CST 2021', 'Name': '杭不', 'Identity_code': '410806198012134484', 'Data_long': '1565898336484632640', 'Str_time': '1627490532000', 'Null_data': '', 'time_col': '2021-07-29 12:42:12.387', 'Age': '38'}, {'data9': '丈夫未可轻年少', 'Salary': '12271', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '女', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.001', 'Data_boolean': 'true', 'City': '吉林省', 'C_time': 'Thu Jul 29 12:42:12 CST 2021', 'Name': '凌怊', 'Identity_code': '341608198104225125', 'Data_long': '-2962042181378921297', 'Str_time': '1627490532000', 'Null_data': '', 'time_col': '2021-07-29 12:42:12.553', 'Age': '61'}, {'data9': '丈夫未可轻年少', 'Salary': '14297', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '女', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.984', 'Data_boolean': 'true', 'City': '辽宁省', 'C_time': 'Thu Jul 29 12:42:12 CST 2021', 'Name': '臧瞠', 'Identity_code': '631118199301144791', 'Data_long': '-3838680200217734246', 'Str_time': '1627490532000', 'Null_data': '', 'time_col': '2021-07-29 12:42:12.824', 'Age': '69'}, {'data9': '丈夫未可轻年少', 'Salary': '10301', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.466', 'Data_boolean': 'false', 'City': '海南省', 'C_time': 'Thu Jul 29 12:42:13 CST 2021', 'Name': '岳塍', 'Identity_code': '350219197410319282', 'Data_long': '-5332490583113065948', 'Str_time': '1627490533000', 'Null_data': '', 'time_col': '2021-07-29 12:42:13.015', 'Age': '52'}, {'data9': '丈夫未可轻年少', 'Salary': '12645', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '男', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.03', 'Data_boolean': 'true', 'City': '宁夏回族自治区', 'C_time': 'Thu Jul 29 12:42:13 CST 2021', 'Name': '阮彩', 'Identity_code': '341020200103141170', 'Data_long': '-2354417959339441502', 'Str_time': '1627490533000', 'Null_data': '', 'time_col': '2021-07-29 12:42:13.259', 'Age': '57'}, {'data9': '丈夫未可轻年少', 'Salary': '14848', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '女', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.241', 'Data_boolean': 'true', 'City': '宁夏回族自治区', 'C_time': 'Thu Jul 29 12:42:13 CST 2021', 'Name': '佴繟', 'Identity_code': '541511198007214445', 'Data_long': '-3255097148068393625', 'Str_time': '1627490533000', 'Null_data': '', 'time_col': '2021-07-29 12:42:13.448', 'Age': '12'}, {'data9': '丈夫未可轻年少', 'Salary': '12117', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '女', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.777', 'Data_boolean': 'true', 'City': '福建省', 'C_time': 'Thu Jul 29 12:42:13 CST 2021', 'Name': '况丞', 'Identity_code': '211227199810115377', 'Data_long': '-4825951607369203404', 'Str_time': '1627490533000', 'Null_data': '', 'time_col': '2021-07-29 12:42:13.693', 'Age': '99'}, {'data9': '丈夫未可轻年少', 'Salary': '11746', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '男', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.252', 'Data_boolean': 'true', 'City': '天津市', 'C_time': 'Thu Jul 29 12:42:13 CST 2021', 'Name': '裴诧', 'Identity_code': '151107200004023814', 'Data_long': '3221385120317375970', 'Str_time': '1627490533000', 'Null_data': '', 'time_col': '2021-07-29 12:42:13.905', 'Age': '93'}, {'data9': '丈夫未可轻年少', 'Salary': '11476', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '女', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.005', 'Data_boolean': 'false', 'City': '香港', 'C_time': 'Thu Jul 29 12:42:14 CST 2021', 'Name': '元檦', 'Identity_code': '810602198912094629', 'Data_long': '-2516790643047868331', 'Str_time': '1627490534000', 'Null_data': '', 'time_col': '2021-07-29 12:42:14.126', 'Age': '21'}, {'data9': '丈夫未可轻年少', 'Salary': '11158', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '女', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.986', 'Data_boolean': 'false', 'City': '内蒙古自治区', 'C_time': 'Thu Jul 29 12:42:14 CST 2021', 'Name': '别髌', 'Identity_code': '610209197703119754', 'Data_long': '-7551817184017467979', 'Str_time': '1627490534000', 'Null_data': '', 'time_col': '2021-07-29 12:42:14.38', 'Age': '39'}, {'data9': '丈夫未可轻年少', 'Salary': '10923', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '男', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.154', 'Data_boolean': 'true', 'City': '湖北省', 'C_time': 'Thu Jul 29 12:42:14 CST 2021', 'Name': '何箣', 'Identity_code': '141711198810144374', 'Data_long': '2620625372220253489', 'Str_time': '1627490534000', 'Null_data': '', 'time_col': '2021-07-29 12:42:14.577', 'Age': '25'}, {'data9': '丈夫未可轻年少', 'Salary': '14398', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '男', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.874', 'Data_boolean': 'false', 'City': '西藏自治区', 'C_time': 'Thu Jul 29 12:42:14 CST 2021', 'Name': '梁丘伯', 'Identity_code': '120702199308261771', 'Data_long': '1783413820249539796', 'Str_time': '1627490534000', 'Null_data': '', 'time_col': '2021-07-29 12:42:14.818', 'Age': '2'}, {'data9': '丈夫未可轻年少', 'Salary': '14421', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.6', 'Data_boolean': 'true', 'City': '海南省', 'C_time': 'Thu Jul 29 12:42:15 CST 2021', 'Name': '夏鋋', 'Identity_code': '130202198001096882', 'Data_long': '3704450406324620311', 'Str_time': '1627490535000', 'Null_data': '', 'time_col': '2021-07-29 12:42:15.026', 'Age': '65'}, {'data9': '丈夫未可轻年少', 'Salary': '14111', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '男', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.37', 'Data_boolean': 'false', 'City': '宁夏回族自治区', 'C_time': 'Thu Jul 29 12:42:15 CST 2021', 'Name': '巴镈', 'Identity_code': '370802197203299661', 'Data_long': '-7527136514230699234', 'Str_time': '1627490535000', 'Null_data': '', 'time_col': '2021-07-29 12:42:15.255', 'Age': '93'}, {'data9': '丈夫未可轻年少', 'Salary': '14749', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.673', 'Data_boolean': 'true', 'City': '四川省', 'C_time': 'Thu Jul 29 12:42:15 CST 2021', 'Name': '尚晨', 'Identity_code': '510108199803138525', 'Data_long': '5419551866843095627', 'Str_time': '1627490535000', 'Null_data': '', 'time_col': '2021-07-29 12:42:15.464', 'Age': '71'}]</t>
+  </si>
+  <si>
+    <t>http://info2:8088/cluster/app/application_1624575716462_3781</t>
+  </si>
+  <si>
+    <t>4b0bf11b-48a4-40b1-beb1-13332b8ab7af</t>
+  </si>
+  <si>
+    <t>tc_deduplication</t>
+  </si>
+  <si>
+    <t>e2122e9e-68ad-4b3d-96e0-8cde7afccf31</t>
+  </si>
+  <si>
+    <t>[{"data9":"丈夫未可轻年少","Salary":"14071","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"男","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.115","Data_boolean":"false","City":"云南省","C_time":"Thu Jul 29 12:12:08 CST 2021","Name":"万俟僰","Identity_code":"350408197507138575","Data_long":"7218882576321488930","Str_time":"1627488728000","Null_data":"","time_col":"2021-07-29 12:12:08.007","Age":"46"},{"data9":"丈夫未可轻年少","Salary":"10509","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"男","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.306","Data_boolean":"false","City":"新疆维吾尔族自治区","C_time":"Thu Jul 29 05:56:23 CST 2021","Name":"万俟怖","Identity_code":"451221199811148904","Data_long":"6230932584980220915","Str_time":"1627509383000","Null_data":"","time_col":"2021-07-29 05:56:23.087","Age":"62"},{"data9":"丈夫未可轻年少","Salary":"14733","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"男","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.532","Data_boolean":"false","City":"香港","C_time":"Wed Jul 28 18:28:28 CST 2021","Name":"万涔","Identity_code":"630703200106107887","Data_long":"1448464589802620623","Str_time":"1627424908000","Null_data":"","time_col":"2021-07-28 18:28:28.529","Age":"59"},{"data9":"丈夫未可轻年少","Salary":"13813","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"男","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.445","Data_boolean":"true","City":"山东省","C_time":"Thu Jul 29 12:39:44 CST 2021","Name":"万涔","Identity_code":"651226198710203451","Data_long":"8835786859559445094","Str_time":"1627490384000","Null_data":"","time_col":"2021-07-29 12:39:44.591","Age":"55"},{"data9":"丈夫未可轻年少","Salary":"10506","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"男","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.814","Data_boolean":"false","City":"甘肃省","C_time":"Thu Jul 29 10:22:54 CST 2021","Name":"上官膊","Identity_code":"710622199709237064","Data_long":"8242233671606043267","Str_time":"1627525374000","Null_data":"","time_col":"2021-07-29 10:22:54.239","Age":"67"},{"data9":"丈夫未可轻年少","Salary":"11282","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"女","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.759","Data_boolean":"false","City":"新疆维吾尔族自治区","C_time":"Wed Jul 28 20:52:46 CST 2021","Name":"上官膊","Identity_code":"120406197808014572","Data_long":"3338377010735012213","Str_time":"1627433566000","Null_data":"","time_col":"2021-07-28 20:52:46.284","Age":"36"},{"data9":"丈夫未可轻年少","Salary":"11871","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"男","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.734","Data_boolean":"true","City":"内蒙古自治区","C_time":"Wed Jul 28 15:51:04 CST 2021","Name":"丌官簸","Identity_code":"511813199202064194","Data_long":"-4007332293394948006","Str_time":"1627415464000","Null_data":"","time_col":"2021-07-28 15:51:04.513","Age":"57"},{"data9":"丈夫未可轻年少","Salary":"11728","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"男","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.917","Data_boolean":"true","City":"山西省","C_time":"Wed Jul 28 22:47:03 CST 2021","Name":"丘曹","Identity_code":"511008197209078244","Data_long":"1403922655167716306","Str_time":"1627440423000","Null_data":"","time_col":"2021-07-28 22:47:03.421","Age":"95"},{"data9":"丈夫未可轻年少","Salary":"12108","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"男","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.169","Data_boolean":"false","City":"山东省","C_time":"Thu Jul 29 05:37:11 CST 2021","Name":"东敇","Identity_code":"621723198205115909","Data_long":"-7950930620449466945","Str_time":"1627508231000","Null_data":"","time_col":"2021-07-29 05:37:11.247","Age":"83"},{"data9":"丈夫未可轻年少","Salary":"10414","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"女","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.706","Data_boolean":"false","City":"山西省","C_time":"Thu Jul 29 00:22:47 CST 2021","Name":"东方蹩","Identity_code":"370324199906031015","Data_long":"343345300292484766","Str_time":"1627489367000","Null_data":"","time_col":"2021-07-29 00:22:47.76","Age":"91"},{"data9":"丈夫未可轻年少","Salary":"11483","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.455","Data_boolean":"false","City":"宁夏回族自治区","C_time":"Wed Jul 28 20:36:42 CST 2021","Name":"东方蹩","Identity_code":"651003197510171661","Data_long":"5798693936720184674","Str_time":"1627432602000","Null_data":"","time_col":"2021-07-28 20:36:42.308","Age":"72"},{"data9":"丈夫未可轻年少","Salary":"10297","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"女","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.833","Data_boolean":"false","City":"澳门","C_time":"Thu Jul 29 02:26:41 CST 2021","Name":"东方蹩","Identity_code":"131718198007231792","Data_long":"6193634768579732369","Str_time":"1627496801000","Null_data":"","time_col":"2021-07-29 02:26:41.268","Age":"22"},{"data9":"丈夫未可轻年少","Salary":"11479","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"男","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.308","Data_boolean":"true","City":"四川省","C_time":"Thu Jul 29 04:16:20 CST 2021","Name":"东方蹩","Identity_code":"320411199312113039","Data_long":"-1796772493754715525","Str_time":"1627503380000","Null_data":"","time_col":"2021-07-29 04:16:20.117","Age":"6"},{"data9":"丈夫未可轻年少","Salary":"11468","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"女","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.688","Data_boolean":"false","City":"上海市","C_time":"Wed Jul 28 17:01:12 CST 2021","Name":"东方龀","Identity_code":"120628197702091832","Data_long":"-2292586206981439484","Str_time":"1627419672000","Null_data":"","time_col":"2021-07-28 17:01:12.84","Age":"22"},{"data9":"丈夫未可轻年少","Salary":"14780","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"男","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.572","Data_boolean":"true","City":"宁夏回族自治区","C_time":"Wed Jul 28 23:46:22 CST 2021","Name":"东门嗔","Identity_code":"121506199704261978","Data_long":"-8122907978899569630","Str_time":"1627443982000","Null_data":"","time_col":"2021-07-28 23:46:22.971","Age":"78"},{"data9":"丈夫未可轻年少","Salary":"10637","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"女","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.043","Data_boolean":"true","City":"山东省","C_time":"Wed Jul 28 17:22:36 CST 2021","Name":"东门嗔","Identity_code":"130515198611097500","Data_long":"-2090276590820998180","Str_time":"1627420956000","Null_data":"","time_col":"2021-07-28 17:22:36.192","Age":"57"},{"data9":"丈夫未可轻年少","Salary":"11224","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"女","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.768","Data_boolean":"false","City":"江苏省","C_time":"Thu Jul 29 12:19:45 CST 2021","Name":"严恻","Identity_code":"540214198009245260","Data_long":"-848082301499944331","Str_time":"1627489185000","Null_data":"","time_col":"2021-07-29 12:19:45.125","Age":"26"},{"data9":"丈夫未可轻年少","Salary":"14236","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"男","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.38","Data_boolean":"false","City":"台湾","C_time":"Thu Jul 29 12:50:20 CST 2021","Name":"丰汊","Identity_code":"530907197209268031","Data_long":"1293347238450059736","Str_time":"1627491020000","Null_data":"","time_col":"2021-07-29 12:50:20.372","Age":"73"},{"data9":"丈夫未可轻年少","Salary":"14747","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.612","Data_boolean":"false","City":"河南省","C_time":"Thu Jul 29 11:57:11 CST 2021","Name":"乐墋","Identity_code":"510502200007102002","Data_long":"4011701626352068553","Str_time":"1627531031000","Null_data":"","time_col":"2021-07-29 11:57:11.959","Age":"37"},{"data9":"丈夫未可轻年少","Salary":"10122","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.652","Data_boolean":"false","City":"河南省","C_time":"Thu Jul 29 04:56:47 CST 2021","Name":"乐柄","Identity_code":"220302197201229358","Data_long":"3076706541854647073","Str_time":"1627505807000","Null_data":"","time_col":"2021-07-29 04:56:47.782","Age":"12"},{"data9":"丈夫未可轻年少","Salary":"12681","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"男","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.196","Data_boolean":"false","City":"山东省","C_time":"Thu Jul 29 02:46:41 CST 2021","Name":"乐逞","Identity_code":"610826199011198662","Data_long":"-115880227760569888","Str_time":"1627498001000","Null_data":"","time_col":"2021-07-29 02:46:41.322","Age":"97"},{"data9":"丈夫未可轻年少","Salary":"12946","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.153","Data_boolean":"true","City":"台湾","C_time":"Wed Jul 28 23:19:49 CST 2021","Name":"乔尘","Identity_code":"410622198703147942","Data_long":"2912232645745700888","Str_time":"1627442389000","Null_data":"","time_col":"2021-07-28 23:19:49.509","Age":"52"},{"data9":"丈夫未可轻年少","Salary":"10435","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"男","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.305","Data_boolean":"false","City":"北京市","C_time":"Thu Jul 29 10:54:31 CST 2021","Name":"乔尘","Identity_code":"421121197302217626","Data_long":"3065773036114919872","Str_time":"1627527271000","Null_data":"","time_col":"2021-07-29 10:54:31.522","Age":"35"},{"data9":"丈夫未可轻年少","Salary":"13010","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.135","Data_boolean":"true","City":"安徽省","C_time":"Thu Jul 29 01:28:58 CST 2021","Name":"乜蹩","Identity_code":"460404198001294162","Data_long":"1367105781208534084","Str_time":"1627493338000","Null_data":"","time_col":"2021-07-29 01:28:58.656","Age":"43"},{"data9":"丈夫未可轻年少","Salary":"14117","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"男","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.849","Data_boolean":"false","City":"香港","C_time":"Thu Jul 29 05:56:46 CST 2021","Name":"乜蹩","Identity_code":"420209200102225589","Data_long":"-974774665221659753","Str_time":"1627509406000","Null_data":"","time_col":"2021-07-29 05:56:46.002","Age":"13"},{"data9":"丈夫未可轻年少","Salary":"12632","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"男","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.3","Data_boolean":"true","City":"河南省","C_time":"Wed Jul 28 23:53:22 CST 2021","Name":"习惩","Identity_code":"411716197301026769","Data_long":"1309119269316775769","Str_time":"1627444402000","Null_data":"","time_col":"2021-07-28 23:53:22.166","Age":"67"},{"data9":"丈夫未可轻年少","Salary":"14389","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"男","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.095","Data_boolean":"false","City":"贵州省","C_time":"Wed Jul 28 20:54:09 CST 2021","Name":"于儭","Identity_code":"520611198012103880","Data_long":"2452243990853123826","Str_time":"1627433649000","Null_data":"","time_col":"2021-07-28 20:54:09.585","Age":"8"},{"data9":"丈夫未可轻年少","Salary":"12209","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"男","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.153","Data_boolean":"false","City":"浙江省","C_time":"Thu Jul 29 01:27:59 CST 2021","Name":"于沧","Identity_code":"440226198311205073","Data_long":"5759259167931242721","Str_time":"1627493279000","Null_data":"","time_col":"2021-07-29 01:27:59.452","Age":"7"},{"data9":"丈夫未可轻年少","Salary":"13967","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"女","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.207","Data_boolean":"false","City":"安徽省","C_time":"Thu Jul 29 05:20:44 CST 2021","Name":"于炳","Identity_code":"811021198204303220","Data_long":"-4044772727671252550","Str_time":"1627507244000","Null_data":"","time_col":"2021-07-29 05:20:44.605","Age":"72"},{"data9":"丈夫未可轻年少","Salary":"12055","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"男","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.522","Data_boolean":"true","City":"天津市","C_time":"Wed Jul 28 20:59:57 CST 2021","Name":"于炳","Identity_code":"341521198703026361","Data_long":"-1036539469193407560","Str_time":"1627433997000","Null_data":"","time_col":"2021-07-28 20:59:57.608","Age":"48"},{"data9":"丈夫未可轻年少","Salary":"11417","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"男","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.745","Data_boolean":"false","City":"贵州省","C_time":"Thu Jul 29 09:11:02 CST 2021","Name":"于藏","Identity_code":"541109199106153844","Data_long":"-6120654016863765273","Str_time":"1627521062000","Null_data":"","time_col":"2021-07-29 09:11:02.866","Age":"95"},{"data9":"丈夫未可轻年少","Salary":"11002","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"女","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.466","Data_boolean":"true","City":"山西省","C_time":"Wed Jul 28 18:16:19 CST 2021","Name":"于藏","Identity_code":"150822197203099393","Data_long":"7572972021731586908","Str_time":"1627424179000","Null_data":"","time_col":"2021-07-28 18:16:19.915","Age":"60"},{"data9":"丈夫未可轻年少","Salary":"12588","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.142","Data_boolean":"true","City":"湖南省","C_time":"Thu Jul 29 01:04:46 CST 2021","Name":"云吥","Identity_code":"521825200009068601","Data_long":"-437059284011323722","Str_time":"1627491886000","Null_data":"","time_col":"2021-07-29 01:04:46.634","Age":"75"},{"data9":"丈夫未可轻年少","Salary":"13220","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.9","Data_boolean":"true","City":"海南省","C_time":"Thu Jul 29 05:42:39 CST 2021","Name":"井忏","Identity_code":"430220197206011378","Data_long":"2490769839689404326","Str_time":"1627508559000","Null_data":"","time_col":"2021-07-29 05:42:39.124","Age":"44"},{"data9":"丈夫未可轻年少","Salary":"14971","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.599","Data_boolean":"false","City":"吉林省","C_time":"Thu Jul 29 01:41:31 CST 2021","Name":"井忏","Identity_code":"651819199812121713","Data_long":"-1229703126647818803","Str_time":"1627494091000","Null_data":"","time_col":"2021-07-29 01:41:31.939","Age":"24"},{"data9":"丈夫未可轻年少","Salary":"11160","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.105","Data_boolean":"true","City":"云南省","C_time":"Thu Jul 29 03:18:35 CST 2021","Name":"井撤","Identity_code":"410923197109258823","Data_long":"-8455181185590275959","Str_time":"1627499915000","Null_data":"","time_col":"2021-07-29 03:18:35.636","Age":"68"},{"data9":"丈夫未可轻年少","Salary":"13338","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.882","Data_boolean":"true","City":"辽宁省","C_time":"Thu Jul 29 04:36:07 CST 2021","Name":"亢帛","Identity_code":"231601199302276641","Data_long":"3003118754073171577","Str_time":"1627504567000","Null_data":"","time_col":"2021-07-29 04:36:07.629","Age":"29"},{"data9":"丈夫未可轻年少","Salary":"12466","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.728","Data_boolean":"true","City":"北京市","C_time":"Thu Jul 29 07:09:42 CST 2021","Name":"亢赪","Identity_code":"111013199902166802","Data_long":"1916754612513961714","Str_time":"1627513782000","Null_data":"","time_col":"2021-07-29 07:09:42.222","Age":"45"},{"data9":"丈夫未可轻年少","Salary":"12857","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"女","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.418","Data_boolean":"true","City":"重庆市","C_time":"Thu Jul 29 11:52:22 CST 2021","Name":"仇诧","Identity_code":"221301197210035528","Data_long":"679962334105164090","Str_time":"1627530742000","Null_data":"","time_col":"2021-07-29 11:52:22.537","Age":"71"},{"data9":"丈夫未可轻年少","Salary":"12021","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.794","Data_boolean":"true","City":"四川省","C_time":"Thu Jul 29 03:55:34 CST 2021","Name":"仉僝","Identity_code":"520826197311083308","Data_long":"8545702812344352006","Str_time":"1627502134000","Null_data":"","time_col":"2021-07-29 03:55:34.3","Age":"70"},{"data9":"丈夫未可轻年少","Salary":"11121","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"女","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.14","Data_boolean":"false","City":"宁夏回族自治区","C_time":"Wed Jul 28 22:22:42 CST 2021","Name":"仉僝","Identity_code":"451207199910216550","Data_long":"-8995688131525398232","Str_time":"1627438962000","Null_data":"","time_col":"2021-07-28 22:22:42.665","Age":"31"},{"data9":"丈夫未可轻年少","Salary":"11717","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"女","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.739","Data_boolean":"false","City":"宁夏回族自治区","C_time":"Thu Jul 29 12:47:11 CST 2021","Name":"仉锸","Identity_code":"460128199112122238","Data_long":"2691207644197896456","Str_time":"1627490831000","Null_data":"","time_col":"2021-07-29 12:47:11.736","Age":"44"},{"data9":"丈夫未可轻年少","Salary":"10323","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"男","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.464","Data_boolean":"false","City":"辽宁省","C_time":"Thu Jul 29 09:55:42 CST 2021","Name":"从魑","Identity_code":"421012199112229596","Data_long":"7204392922332136996","Str_time":"1627523742000","Null_data":"","time_col":"2021-07-29 09:55:42.123","Age":"12"},{"data9":"丈夫未可轻年少","Salary":"10666","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.178","Data_boolean":"false","City":"北京市","C_time":"Thu Jul 29 05:37:55 CST 2021","Name":"令狐渤","Identity_code":"141123197309112940","Data_long":"-5563724409049918644","Str_time":"1627508275000","Null_data":"","time_col":"2021-07-29 05:37:55.489","Age":"93"},{"data9":"丈夫未可轻年少","Salary":"10851","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.386","Data_boolean":"false","City":"湖北省","C_time":"Thu Jul 29 10:17:26 CST 2021","Name":"令狐渤","Identity_code":"631009198603014048","Data_long":"2800960727491435344","Str_time":"1627525046000","Null_data":"","time_col":"2021-07-29 10:17:26.684","Age":"57"},{"data9":"丈夫未可轻年少","Salary":"13335","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.601","Data_boolean":"true","City":"江苏省","C_time":"Thu Jul 29 02:20:06 CST 2021","Name":"令狐碴","Identity_code":"360307197707067610","Data_long":"2648492078710227269","Str_time":"1627496406000","Null_data":"","time_col":"2021-07-29 02:20:06.948","Age":"42"},{"data9":"丈夫未可轻年少","Salary":"10006","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.444","Data_boolean":"true","City":"吉林省","C_time":"Thu Jul 29 06:53:01 CST 2021","Name":"仲踟","Identity_code":"620224200009151490","Data_long":"5177505379692216352","Str_time":"1627512781000","Null_data":"","time_col":"2021-07-29 06:53:01.014","Age":"36"},{"data9":"丈夫未可轻年少","Salary":"13954","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.295","Data_boolean":"false","City":"上海市","C_time":"Wed Jul 28 23:26:01 CST 2021","Name":"仲踟","Identity_code":"500120197407192222","Data_long":"1222990845644713851","Str_time":"1627442761000","Null_data":"","time_col":"2021-07-28 23:26:01.116","Age":"1"},{"data9":"丈夫未可轻年少","Salary":"11711","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.496","Data_boolean":"true","City":"江苏省","C_time":"Wed Jul 28 17:44:42 CST 2021","Name":"伊檫","Identity_code":"420812200007202918","Data_long":"8713723400538140896","Str_time":"1627422282000","Null_data":"","time_col":"2021-07-28 17:44:42.421","Age":"9"},{"data9":"丈夫未可轻年少","Salary":"13815","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"男","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.023","Data_boolean":"true","City":"香港","C_time":"Thu Jul 29 08:21:43 CST 2021","Name":"伍藏","Identity_code":"351822197307073572","Data_long":"120882534993544572","Str_time":"1627518103000","Null_data":"","time_col":"2021-07-29 08:21:43.528","Age":"77"}]</t>
+  </si>
+  <si>
+    <t>57147360-c539-4f83-9954-25de78696cc5</t>
+  </si>
+  <si>
+    <t>tc_interserct</t>
+  </si>
+  <si>
+    <t>49c699c1-7563-4908-84ca-a684e2454347</t>
+  </si>
+  <si>
+    <t>f3aff0eb-c0f1-4960-898f-da281d4218f7</t>
+  </si>
+  <si>
+    <t>[{"Sex":"男"},{"Sex":"女"}]</t>
+  </si>
+  <si>
+    <t>[{'Sex': '男'}, {'Sex': '女'}]</t>
+  </si>
+  <si>
+    <t>http://info2:8088/cluster/app/application_1624575716462_3905</t>
+  </si>
+  <si>
+    <t>12e5375f-fdc2-4d98-95fa-99852c485195</t>
+  </si>
+  <si>
+    <t>tc_split_union</t>
+  </si>
+  <si>
+    <t>f9d74f01-c1b7-4e59-87e8-82510b11746c</t>
+  </si>
+  <si>
+    <t>7b1b6735-1f05-4eec-9516-994c7a5f43c1</t>
+  </si>
+  <si>
+    <t>[{"data9":"丈夫未可轻年少","Salary":"11746","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"男","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.252","Data_boolean":"true","City":"天津市","C_time":"Thu Jul 29 12:42:13 CST 2021","Name":"裴诧","Identity_code":"151107200004023814","Data_long":"3221385120317375970","Str_time":"1627490533000","Null_data":"","time_col":"2021-07-29 12:42:13.905","Age":"93"},{"data9":"丈夫未可轻年少","Salary":"13442","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"女","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.465","Data_boolean":"true","City":"重庆市","C_time":"Thu Jul 29 12:46:02 CST 2021","Name":"漆雕鋹","Identity_code":"450110198605084091","Data_long":"-2262661776005726500","Str_time":"1627490762000","Null_data":"","time_col":"2021-07-29 12:46:02.933","Age":"86"},{"data9":"丈夫未可轻年少","Salary":"11761","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"女","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.097","Data_boolean":"false","City":"西藏自治区","C_time":"Thu Jul 29 12:47:06 CST 2021","Name":"后颤","Identity_code":"131004197603038132","Data_long":"-3244440154013854030","Str_time":"1627490826000","Null_data":"","time_col":"2021-07-29 12:47:06.739","Age":"97"},{"data9":"丈夫未可轻年少","Salary":"10196","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.899","Data_boolean":"true","City":"江西省","C_time":"Thu Jul 29 12:47:37 CST 2021","Name":"柳羼","Identity_code":"370624198010033950","Data_long":"4555641864721668767","Str_time":"1627490857000","Null_data":"","time_col":"2021-07-29 12:47:37.273","Age":"96"},{"data9":"丈夫未可轻年少","Salary":"10916","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.487","Data_boolean":"true","City":"香港","C_time":"Thu Jul 29 12:43:35 CST 2021","Name":"劳呈","Identity_code":"430902197511192135","Data_long":"5303935598092473416","Str_time":"1627490615000","Null_data":"","time_col":"2021-07-29 12:43:35.132","Age":"88"},{"data9":"丈夫未可轻年少","Salary":"12866","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.867","Data_boolean":"true","City":"海南省","C_time":"Thu Jul 29 12:44:25 CST 2021","Name":"甄簸","Identity_code":"331211197709098539","Data_long":"4204092325807648250","Str_time":"1627490665000","Null_data":"","time_col":"2021-07-29 12:44:25.544","Age":"90"},{"data9":"丈夫未可轻年少","Salary":"13003","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.104","Data_boolean":"false","City":"澳门","C_time":"Thu Jul 29 12:52:37 CST 2021","Name":"尤巢","Identity_code":"510428199012151046","Data_long":"-6979631237253358500","Str_time":"1627491157000","Null_data":"","time_col":"2021-07-29 12:52:37.221","Age":"73"},{"data9":"丈夫未可轻年少","Salary":"13387","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"女","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.669","Data_boolean":"false","City":"重庆市","C_time":"Thu Jul 29 12:53:55 CST 2021","Name":"农恻","Identity_code":"650421199106076653","Data_long":"-472007540328394908","Str_time":"1627491235000","Null_data":"","time_col":"2021-07-29 12:53:55.672","Age":"71"},{"data9":"丈夫未可轻年少","Salary":"13734","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"男","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.591","Data_boolean":"true","City":"湖南省","C_time":"Thu Jul 29 12:41:52 CST 2021","Name":"百里瓝","Identity_code":"611124199406059285","Data_long":"7593457860132856062","Str_time":"1627490512000","Null_data":"","time_col":"2021-07-29 12:41:52.06","Age":"76"},{"data9":"丈夫未可轻年少","Salary":"12526","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"女","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.823","Data_boolean":"false","City":"宁夏回族自治区","C_time":"Thu Jul 29 12:21:30 CST 2021","Name":"华尝","Identity_code":"411509199910166897","Data_long":"1515537562960104766","Str_time":"1627489290000","Null_data":"","time_col":"2021-07-29 12:21:30.174","Age":"72"},{"data9":"丈夫未可轻年少","Salary":"12615","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.809","Data_boolean":"false","City":"吉林省","C_time":"Thu Jul 29 12:59:28 CST 2021","Name":"苍惝","Identity_code":"450311199803164384","Data_long":"-7161644187129046161","Str_time":"1627491568000","Null_data":"","time_col":"2021-07-29 12:59:28.07","Age":"86"},{"data9":"丈夫未可轻年少","Salary":"11083","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"男","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.769","Data_boolean":"true","City":"陕西省","C_time":"Thu Jul 29 13:06:42 CST 2021","Name":"蒙葧","Identity_code":"630418198806021519","Data_long":"-3187974669391976236","Str_time":"1627492002000","Null_data":"","time_col":"2021-07-29 13:06:42.478","Age":"96"},{"data9":"丈夫未可轻年少","Salary":"14841","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.008","Data_boolean":"false","City":"安徽省","C_time":"Thu Jul 29 12:27:56 CST 2021","Name":"鲜于刬","Identity_code":"441511198011115160","Data_long":"4164622306269801136","Str_time":"1627489676000","Null_data":"","time_col":"2021-07-29 12:27:56.271","Age":"89"},{"data9":"丈夫未可轻年少","Salary":"13615","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.904","Data_boolean":"false","City":"海南省","C_time":"Thu Jul 29 12:28:28 CST 2021","Name":"司马抻","Identity_code":"631303198509053183","Data_long":"2991010522925883586","Str_time":"1627489708000","Null_data":"","time_col":"2021-07-29 12:28:28.714","Age":"89"},{"data9":"丈夫未可轻年少","Salary":"12552","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"女","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.089","Data_boolean":"false","City":"澳门","C_time":"Thu Jul 29 07:36:13 CST 2021","Name":"匡橙","Identity_code":"650428199108238248","Data_long":"-222148621884821626","Str_time":"1627515373000","Null_data":"","time_col":"2021-07-29 07:36:13.001","Age":"88"},{"data9":"丈夫未可轻年少","Salary":"12440","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"女","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.815","Data_boolean":"true","City":"吉林省","C_time":"Thu Jul 29 02:42:03 CST 2021","Name":"淳于笞","Identity_code":"141804198404177428","Data_long":"141690006560659625","Str_time":"1627497723000","Null_data":"","time_col":"2021-07-29 02:42:03.967","Age":"95"},{"data9":"丈夫未可轻年少","Salary":"10332","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"女","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.079","Data_boolean":"false","City":"河南省","C_time":"Thu Jul 29 06:31:26 CST 2021","Name":"罗摈","Identity_code":"141301197712312304","Data_long":"5082014026077829804","Str_time":"1627511486000","Null_data":"","time_col":"2021-07-29 06:31:26.24","Age":"94"},{"data9":"丈夫未可轻年少","Salary":"11562","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.577","Data_boolean":"true","City":"河北省","C_time":"Thu Jul 29 04:50:56 CST 2021","Name":"鲜于觇","Identity_code":"371307197704082658","Data_long":"-1952103015532069651","Str_time":"1627505456000","Null_data":"","time_col":"2021-07-29 04:50:56.928","Age":"90"},{"data9":"丈夫未可轻年少","Salary":"11789","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"女","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.87","Data_boolean":"true","City":"山西省","C_time":"Wed Jul 28 15:49:00 CST 2021","Name":"阴闯","Identity_code":"710908198408152637","Data_long":"2157086330920431981","Str_time":"1627415340000","Null_data":"","time_col":"2021-07-28 15:49:00.669","Age":"85"},{"data9":"丈夫未可轻年少","Salary":"11978","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"男","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.886","Data_boolean":"false","City":"山东省","C_time":"Wed Jul 28 15:49:20 CST 2021","Name":"司巉","Identity_code":"461516198901092865","Data_long":"-1907811444255585672","Str_time":"1627415360000","Null_data":"","time_col":"2021-07-28 15:49:20.813","Age":"90"},{"data9":"丈夫未可轻年少","Salary":"11533","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"男","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.2","Data_boolean":"true","City":"天津市","C_time":"Wed Jul 28 22:40:25 CST 2021","Name":"喻饼","Identity_code":"410820197601235590","Data_long":"-8330376545022918357","Str_time":"1627440025000","Null_data":"","time_col":"2021-07-28 22:40:25.083","Age":"81"},{"data9":"丈夫未可轻年少","Salary":"14177","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"男","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.415","Data_boolean":"true","City":"西藏自治区","C_time":"Thu Jul 29 06:42:41 CST 2021","Name":"鲍伡","Identity_code":"230410197806063772","Data_long":"4880588701825147190","Str_time":"1627512161000","Null_data":"","time_col":"2021-07-29 06:42:41.949","Age":"99"},{"data9":"丈夫未可轻年少","Salary":"12063","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"男","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.334","Data_boolean":"false","City":"山东省","C_time":"Thu Jul 29 06:33:10 CST 2021","Name":"赫连差","Identity_code":"651412197901046252","Data_long":"-7037516870314042922","Str_time":"1627511590000","Null_data":"","time_col":"2021-07-29 06:33:10.614","Age":"72"},{"data9":"丈夫未可轻年少","Salary":"10098","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"女","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.508","Data_boolean":"true","City":"河南省","C_time":"Thu Jul 29 05:57:35 CST 2021","Name":"边婵","Identity_code":"640508198108193152","Data_long":"-2144438370705853074","Str_time":"1627509455000","Null_data":"","time_col":"2021-07-29 05:57:35.873","Age":"71"},{"data9":"丈夫未可轻年少","Salary":"12060","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.526","Data_boolean":"true","City":"陕西省","C_time":"Thu Jul 29 10:54:39 CST 2021","Name":"樊彩","Identity_code":"310724197603108559","Data_long":"5219770091677726640","Str_time":"1627527279000","Null_data":"","time_col":"2021-07-29 10:54:39.189","Age":"83"},{"data9":"丈夫未可轻年少","Salary":"13726","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"女","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.323","Data_boolean":"false","City":"甘肃省","C_time":"Thu Jul 29 08:45:45 CST 2021","Name":"衡逋","Identity_code":"151406197610157618","Data_long":"1286181664141106746","Str_time":"1627519545000","Null_data":"","time_col":"2021-07-29 08:45:45.465","Age":"76"},{"data9":"丈夫未可轻年少","Salary":"10870","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.501","Data_boolean":"false","City":"新疆维吾尔族自治区","C_time":"Thu Jul 29 05:49:48 CST 2021","Name":"窦宾","Identity_code":"610303199602238387","Data_long":"9103680404506297376","Str_time":"1627508988000","Null_data":"","time_col":"2021-07-29 05:49:48.585","Age":"87"},{"data9":"丈夫未可轻年少","Salary":"14667","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"女","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.522","Data_boolean":"false","City":"湖北省","C_time":"Thu Jul 29 06:53:45 CST 2021","Name":"勾蝉","Identity_code":"211404198307225048","Data_long":"8309754179000649984","Str_time":"1627512825000","Null_data":"","time_col":"2021-07-29 06:53:45.032","Age":"98"},{"data9":"丈夫未可轻年少","Salary":"11912","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"男","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.899","Data_boolean":"true","City":"海南省","C_time":"Wed Jul 28 22:52:33 CST 2021","Name":"鄂捕","Identity_code":"211814198009027257","Data_long":"-8285298858045314882","Str_time":"1627440753000","Null_data":"","time_col":"2021-07-28 22:52:33.591","Age":"72"},{"data9":"丈夫未可轻年少","Salary":"14290","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"女","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.937","Data_boolean":"false","City":"江西省","C_time":"Wed Jul 28 15:50:10 CST 2021","Name":"郗娼","Identity_code":"540614198801241671","Data_long":"5389463862304365529","Str_time":"1627415410000","Null_data":"","time_col":"2021-07-28 15:50:10.208","Age":"92"},{"data9":"丈夫未可轻年少","Salary":"12238","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.693","Data_boolean":"true","City":"西藏自治区","C_time":"Thu Jul 29 00:55:25 CST 2021","Name":"巩怊","Identity_code":"530806199404061346","Data_long":"-8652965328680534715","Str_time":"1627491325000","Null_data":"","time_col":"2021-07-29 00:55:25.107","Age":"73"},{"data9":"丈夫未可轻年少","Salary":"12990","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"男","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.92","Data_boolean":"false","City":"广东省","C_time":"Thu Jul 29 02:46:14 CST 2021","Name":"芮长","Identity_code":"361522198910167727","Data_long":"7532649821942355882","Str_time":"1627497974000","Null_data":"","time_col":"2021-07-29 02:46:14.234","Age":"92"},{"data9":"丈夫未可轻年少","Salary":"13466","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"男","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.454","Data_boolean":"true","City":"黑龙江省","C_time":"Thu Jul 29 03:47:11 CST 2021","Name":"雍汊","Identity_code":"640427199309288235","Data_long":"3271911610311388376","Str_time":"1627501631000","Null_data":"","time_col":"2021-07-29 03:47:11.582","Age":"95"},{"data9":"丈夫未可轻年少","Salary":"12591","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"女","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.53","Data_boolean":"true","City":"上海市","C_time":"Wed Jul 28 15:55:58 CST 2021","Name":"封襮","Identity_code":"440927197502135791","Data_long":"-959911031956437391","Str_time":"1627415758000","Null_data":"","time_col":"2021-07-28 15:55:58.812","Age":"91"},{"data9":"丈夫未可轻年少","Salary":"10344","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"女","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.959","Data_boolean":"false","City":"山东省","C_time":"Wed Jul 28 15:56:24 CST 2021","Name":"微生邴","Identity_code":"151008199308235137","Data_long":"-3866370147467601596","Str_time":"1627415784000","Null_data":"","time_col":"2021-07-28 15:56:24.414","Age":"73"},{"data9":"丈夫未可轻年少","Salary":"11251","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"男","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.78","Data_boolean":"true","City":"江西省","C_time":"Wed Jul 28 21:50:21 CST 2021","Name":"浦玚","Identity_code":"451710197805243805","Data_long":"-3707075308034412268","Str_time":"1627437021000","Null_data":"","time_col":"2021-07-28 21:50:21.688","Age":"92"},{"data9":"丈夫未可轻年少","Salary":"12400","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.554","Data_boolean":"false","City":"湖南省","C_time":"Wed Jul 28 18:37:28 CST 2021","Name":"宦偲","Identity_code":"230524198802245502","Data_long":"2222849702321487554","Str_time":"1627425448000","Null_data":"","time_col":"2021-07-28 18:37:28.108","Age":"83"},{"data9":"丈夫未可轻年少","Salary":"12477","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"女","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.323","Data_boolean":"false","City":"内蒙古自治区","C_time":"Wed Jul 28 22:42:01 CST 2021","Name":"尹觇","Identity_code":"531508197801292631","Data_long":"-8166868281004881421","Str_time":"1627440121000","Null_data":"","time_col":"2021-07-28 22:42:01.792","Age":"92"},{"data9":"丈夫未可轻年少","Salary":"10275","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"女","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.138","Data_boolean":"true","City":"四川省","C_time":"Thu Jul 29 04:57:41 CST 2021","Name":"诸葛姹","Identity_code":"110912199101304687","Data_long":"-4863818241574535001","Str_time":"1627505861000","Null_data":"","time_col":"2021-07-29 04:57:41.421","Age":"86"},{"data9":"丈夫未可轻年少","Salary":"13705","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"女","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.009","Data_boolean":"false","City":"安徽省","C_time":"Thu Jul 29 04:57:50 CST 2021","Name":"濮阳吥","Identity_code":"521026197401166821","Data_long":"-4052745976249213300","Str_time":"1627505870000","Null_data":"","time_col":"2021-07-29 04:57:50.029","Age":"86"},{"data9":"丈夫未可轻年少","Salary":"13300","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"男","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.274","Data_boolean":"false","City":"西藏自治区","C_time":"Thu Jul 29 04:40:31 CST 2021","Name":"浦鸱","Identity_code":"311113199207054617","Data_long":"1717296662875225464","Str_time":"1627504831000","Null_data":"","time_col":"2021-07-29 04:40:31.289","Age":"99"},{"data9":"丈夫未可轻年少","Salary":"13569","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"女","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.699","Data_boolean":"true","City":"内蒙古自治区","C_time":"Wed Jul 28 22:36:51 CST 2021","Name":"庄豺","Identity_code":"330328198003054131","Data_long":"4349435990387578336","Str_time":"1627439811000","Null_data":"","time_col":"2021-07-28 22:36:51.672","Age":"83"},{"data9":"丈夫未可轻年少","Salary":"14450","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"女","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.014","Data_boolean":"true","City":"广西壮族自治区","C_time":"Thu Jul 29 07:52:57 CST 2021","Name":"谭晨","Identity_code":"461126199407086222","Data_long":"1510223071865746490","Str_time":"1627516377000","Null_data":"","time_col":"2021-07-29 07:52:57.312","Age":"83"},{"data9":"丈夫未可轻年少","Salary":"11031","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"男","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.917","Data_boolean":"true","City":"河北省","C_time":"Thu Jul 29 07:53:01 CST 2021","Name":"顾檦","Identity_code":"361522199010034276","Data_long":"8944757697039511360","Str_time":"1627516381000","Null_data":"","time_col":"2021-07-29 07:53:01.816","Age":"88"},{"data9":"丈夫未可轻年少","Salary":"11972","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.456","Data_boolean":"false","City":"吉林省","C_time":"Thu Jul 29 00:53:41 CST 2021","Name":"边埕","Identity_code":"151316199311169344","Data_long":"-7976108858933360188","Str_time":"1627491221000","Null_data":"","time_col":"2021-07-29 00:53:41.319","Age":"77"},{"data9":"丈夫未可轻年少","Salary":"10083","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"男","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.297","Data_boolean":"false","City":"重庆市","C_time":"Thu Jul 29 01:38:06 CST 2021","Name":"甘笞","Identity_code":"440707198807304822","Data_long":"-5935853512501407068","Str_time":"1627493886000","Null_data":"","time_col":"2021-07-29 01:38:06.682","Age":"97"},{"data9":"丈夫未可轻年少","Salary":"13034","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"女","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.469","Data_boolean":"false","City":"河南省","C_time":"Wed Jul 28 20:54:01 CST 2021","Name":"郁谌","Identity_code":"541406198510259632","Data_long":"2211412141625383751","Str_time":"1627433641000","Null_data":"","time_col":"2021-07-28 20:54:01.211","Age":"72"},{"data9":"丈夫未可轻年少","Salary":"12167","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.527","Data_boolean":"true","City":"甘肃省","C_time":"Wed Jul 28 22:57:51 CST 2021","Name":"郁蹭","Identity_code":"221520199601232990","Data_long":"-6834094592534493659","Str_time":"1627441071000","Null_data":"","time_col":"2021-07-28 22:57:51.883","Age":"84"},{"data9":"丈夫未可轻年少","Salary":"13546","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"女","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.045","Data_boolean":"false","City":"贵州省","C_time":"Thu Jul 29 00:52:23 CST 2021","Name":"衡鬓","Identity_code":"131324198409044572","Data_long":"702820996637209072","Str_time":"1627491143000","Null_data":"","time_col":"2021-07-29 00:52:23.758","Age":"92"},{"data9":"丈夫未可轻年少","Salary":"13754","data8":"宣父犹能畏后生","data7":"闻余大言皆冷笑","data6":"世人见我恒殊调","data5":"犹能簸却沧溟水","data4":"假令风歇时下来","data3":"扶摇直上九万里","Sex":"男","data2":"大鹏一日同风起","data1":"中国","Data_double":"0.223","Data_boolean":"true","City":"山东省","C_time":"Wed Jul 28 22:50:46 CST 2021","Name":"徐材","Identity_code":"110101198411252998","Data_long":"7225908538166449225","Str_time":"1627440646000","Null_data":"","time_col":"2021-07-28 22:50:46.331","Age":"83"}]</t>
+  </si>
+  <si>
+    <t>[{'data9': '丈夫未可轻年少', 'Salary': '11746', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '男', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.252', 'Data_boolean': 'true', 'City': '天津市', 'C_time': 'Thu Jul 29 12:42:13 CST 2021', 'Name': '裴诧', 'Identity_code': '151107200004023814', 'Data_long': '3221385120317375970', 'Str_time': '1627490533000', 'Null_data': '', 'time_col': '2021-07-29 12:42:13.905', 'Age': '93'}, {'data9': '丈夫未可轻年少', 'Salary': '13442', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '女', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.465', 'Data_boolean': 'true', 'City': '重庆市', 'C_time': 'Thu Jul 29 12:46:02 CST 2021', 'Name': '漆雕鋹', 'Identity_code': '450110198605084091', 'Data_long': '-2262661776005726500', 'Str_time': '1627490762000', 'Null_data': '', 'time_col': '2021-07-29 12:46:02.933', 'Age': '86'}, {'data9': '丈夫未可轻年少', 'Salary': '11761', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '女', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.097', 'Data_boolean': 'false', 'City': '西藏自治区', 'C_time': 'Thu Jul 29 12:47:06 CST 2021', 'Name': '后颤', 'Identity_code': '131004197603038132', 'Data_long': '-3244440154013854030', 'Str_time': '1627490826000', 'Null_data': '', 'time_col': '2021-07-29 12:47:06.739', 'Age': '97'}, {'data9': '丈夫未可轻年少', 'Salary': '10196', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.899', 'Data_boolean': 'true', 'City': '江西省', 'C_time': 'Thu Jul 29 12:47:37 CST 2021', 'Name': '柳羼', 'Identity_code': '370624198010033950', 'Data_long': '4555641864721668767', 'Str_time': '1627490857000', 'Null_data': '', 'time_col': '2021-07-29 12:47:37.273', 'Age': '96'}, {'data9': '丈夫未可轻年少', 'Salary': '10916', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.487', 'Data_boolean': 'true', 'City': '香港', 'C_time': 'Thu Jul 29 12:43:35 CST 2021', 'Name': '劳呈', 'Identity_code': '430902197511192135', 'Data_long': '5303935598092473416', 'Str_time': '1627490615000', 'Null_data': '', 'time_col': '2021-07-29 12:43:35.132', 'Age': '88'}, {'data9': '丈夫未可轻年少', 'Salary': '12866', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.867', 'Data_boolean': 'true', 'City': '海南省', 'C_time': 'Thu Jul 29 12:44:25 CST 2021', 'Name': '甄簸', 'Identity_code': '331211197709098539', 'Data_long': '4204092325807648250', 'Str_time': '1627490665000', 'Null_data': '', 'time_col': '2021-07-29 12:44:25.544', 'Age': '90'}, {'data9': '丈夫未可轻年少', 'Salary': '13003', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.104', 'Data_boolean': 'false', 'City': '澳门', 'C_time': 'Thu Jul 29 12:52:37 CST 2021', 'Name': '尤巢', 'Identity_code': '510428199012151046', 'Data_long': '-6979631237253358500', 'Str_time': '1627491157000', 'Null_data': '', 'time_col': '2021-07-29 12:52:37.221', 'Age': '73'}, {'data9': '丈夫未可轻年少', 'Salary': '13387', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '女', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.669', 'Data_boolean': 'false', 'City': '重庆市', 'C_time': 'Thu Jul 29 12:53:55 CST 2021', 'Name': '农恻', 'Identity_code': '650421199106076653', 'Data_long': '-472007540328394908', 'Str_time': '1627491235000', 'Null_data': '', 'time_col': '2021-07-29 12:53:55.672', 'Age': '71'}, {'data9': '丈夫未可轻年少', 'Salary': '13734', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '男', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.591', 'Data_boolean': 'true', 'City': '湖南省', 'C_time': 'Thu Jul 29 12:41:52 CST 2021', 'Name': '百里瓝', 'Identity_code': '611124199406059285', 'Data_long': '7593457860132856062', 'Str_time': '1627490512000', 'Null_data': '', 'time_col': '2021-07-29 12:41:52.06', 'Age': '76'}, {'data9': '丈夫未可轻年少', 'Salary': '12526', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '女', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.823', 'Data_boolean': 'false', 'City': '宁夏回族自治区', 'C_time': 'Thu Jul 29 12:21:30 CST 2021', 'Name': '华尝', 'Identity_code': '411509199910166897', 'Data_long': '1515537562960104766', 'Str_time': '1627489290000', 'Null_data': '', 'time_col': '2021-07-29 12:21:30.174', 'Age': '72'}, {'data9': '丈夫未可轻年少', 'Salary': '12615', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.809', 'Data_boolean': 'false', 'City': '吉林省', 'C_time': 'Thu Jul 29 12:59:28 CST 2021', 'Name': '苍惝', 'Identity_code': '450311199803164384', 'Data_long': '-7161644187129046161', 'Str_time': '1627491568000', 'Null_data': '', 'time_col': '2021-07-29 12:59:28.07', 'Age': '86'}, {'data9': '丈夫未可轻年少', 'Salary': '11083', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '男', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.769', 'Data_boolean': 'true', 'City': '陕西省', 'C_time': 'Thu Jul 29 13:06:42 CST 2021', 'Name': '蒙葧', 'Identity_code': '630418198806021519', 'Data_long': '-3187974669391976236', 'Str_time': '1627492002000', 'Null_data': '', 'time_col': '2021-07-29 13:06:42.478', 'Age': '96'}, {'data9': '丈夫未可轻年少', 'Salary': '14841', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.008', 'Data_boolean': 'false', 'City': '安徽省', 'C_time': 'Thu Jul 29 12:27:56 CST 2021', 'Name': '鲜于刬', 'Identity_code': '441511198011115160', 'Data_long': '4164622306269801136', 'Str_time': '1627489676000', 'Null_data': '', 'time_col': '2021-07-29 12:27:56.271', 'Age': '89'}, {'data9': '丈夫未可轻年少', 'Salary': '13615', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.904', 'Data_boolean': 'false', 'City': '海南省', 'C_time': 'Thu Jul 29 12:28:28 CST 2021', 'Name': '司马抻', 'Identity_code': '631303198509053183', 'Data_long': '2991010522925883586', 'Str_time': '1627489708000', 'Null_data': '', 'time_col': '2021-07-29 12:28:28.714', 'Age': '89'}, {'data9': '丈夫未可轻年少', 'Salary': '12552', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '女', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.089', 'Data_boolean': 'false', 'City': '澳门', 'C_time': 'Thu Jul 29 07:36:13 CST 2021', 'Name': '匡橙', 'Identity_code': '650428199108238248', 'Data_long': '-222148621884821626', 'Str_time': '1627515373000', 'Null_data': '', 'time_col': '2021-07-29 07:36:13.001', 'Age': '88'}, {'data9': '丈夫未可轻年少', 'Salary': '12440', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '女', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.815', 'Data_boolean': 'true', 'City': '吉林省', 'C_time': 'Thu Jul 29 02:42:03 CST 2021', 'Name': '淳于笞', 'Identity_code': '141804198404177428', 'Data_long': '141690006560659625', 'Str_time': '1627497723000', 'Null_data': '', 'time_col': '2021-07-29 02:42:03.967', 'Age': '95'}, {'data9': '丈夫未可轻年少', 'Salary': '10332', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '女', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.079', 'Data_boolean': 'false', 'City': '河南省', 'C_time': 'Thu Jul 29 06:31:26 CST 2021', 'Name': '罗摈', 'Identity_code': '141301197712312304', 'Data_long': '5082014026077829804', 'Str_time': '1627511486000', 'Null_data': '', 'time_col': '2021-07-29 06:31:26.24', 'Age': '94'}, {'data9': '丈夫未可轻年少', 'Salary': '11562', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.577', 'Data_boolean': 'true', 'City': '河北省', 'C_time': 'Thu Jul 29 04:50:56 CST 2021', 'Name': '鲜于觇', 'Identity_code': '371307197704082658', 'Data_long': '-1952103015532069651', 'Str_time': '1627505456000', 'Null_data': '', 'time_col': '2021-07-29 04:50:56.928', 'Age': '90'}, {'data9': '丈夫未可轻年少', 'Salary': '11789', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '女', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.87', 'Data_boolean': 'true', 'City': '山西省', 'C_time': 'Wed Jul 28 15:49:00 CST 2021', 'Name': '阴闯', 'Identity_code': '710908198408152637', 'Data_long': '2157086330920431981', 'Str_time': '1627415340000', 'Null_data': '', 'time_col': '2021-07-28 15:49:00.669', 'Age': '85'}, {'data9': '丈夫未可轻年少', 'Salary': '11978', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '男', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.886', 'Data_boolean': 'false', 'City': '山东省', 'C_time': 'Wed Jul 28 15:49:20 CST 2021', 'Name': '司巉', 'Identity_code': '461516198901092865', 'Data_long': '-1907811444255585672', 'Str_time': '1627415360000', 'Null_data': '', 'time_col': '2021-07-28 15:49:20.813', 'Age': '90'}, {'data9': '丈夫未可轻年少', 'Salary': '11533', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '男', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.2', 'Data_boolean': 'true', 'City': '天津市', 'C_time': 'Wed Jul 28 22:40:25 CST 2021', 'Name': '喻饼', 'Identity_code': '410820197601235590', 'Data_long': '-8330376545022918357', 'Str_time': '1627440025000', 'Null_data': '', 'time_col': '2021-07-28 22:40:25.083', 'Age': '81'}, {'data9': '丈夫未可轻年少', 'Salary': '14177', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '男', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.415', 'Data_boolean': 'true', 'City': '西藏自治区', 'C_time': 'Thu Jul 29 06:42:41 CST 2021', 'Name': '鲍伡', 'Identity_code': '230410197806063772', 'Data_long': '4880588701825147190', 'Str_time': '1627512161000', 'Null_data': '', 'time_col': '2021-07-29 06:42:41.949', 'Age': '99'}, {'data9': '丈夫未可轻年少', 'Salary': '12063', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '男', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.334', 'Data_boolean': 'false', 'City': '山东省', 'C_time': 'Thu Jul 29 06:33:10 CST 2021', 'Name': '赫连差', 'Identity_code': '651412197901046252', 'Data_long': '-7037516870314042922', 'Str_time': '1627511590000', 'Null_data': '', 'time_col': '2021-07-29 06:33:10.614', 'Age': '72'}, {'data9': '丈夫未可轻年少', 'Salary': '10098', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '女', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.508', 'Data_boolean': 'true', 'City': '河南省', 'C_time': 'Thu Jul 29 05:57:35 CST 2021', 'Name': '边婵', 'Identity_code': '640508198108193152', 'Data_long': '-2144438370705853074', 'Str_time': '1627509455000', 'Null_data': '', 'time_col': '2021-07-29 05:57:35.873', 'Age': '71'}, {'data9': '丈夫未可轻年少', 'Salary': '12060', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.526', 'Data_boolean': 'true', 'City': '陕西省', 'C_time': 'Thu Jul 29 10:54:39 CST 2021', 'Name': '樊彩', 'Identity_code': '310724197603108559', 'Data_long': '5219770091677726640', 'Str_time': '1627527279000', 'Null_data': '', 'time_col': '2021-07-29 10:54:39.189', 'Age': '83'}, {'data9': '丈夫未可轻年少', 'Salary': '13726', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '女', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.323', 'Data_boolean': 'false', 'City': '甘肃省', 'C_time': 'Thu Jul 29 08:45:45 CST 2021', 'Name': '衡逋', 'Identity_code': '151406197610157618', 'Data_long': '1286181664141106746', 'Str_time': '1627519545000', 'Null_data': '', 'time_col': '2021-07-29 08:45:45.465', 'Age': '76'}, {'data9': '丈夫未可轻年少', 'Salary': '10870', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.501', 'Data_boolean': 'false', 'City': '新疆维吾尔族自治区', 'C_time': 'Thu Jul 29 05:49:48 CST 2021', 'Name': '窦宾', 'Identity_code': '610303199602238387', 'Data_long': '9103680404506297376', 'Str_time': '1627508988000', 'Null_data': '', 'time_col': '2021-07-29 05:49:48.585', 'Age': '87'}, {'data9': '丈夫未可轻年少', 'Salary': '14667', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '女', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.522', 'Data_boolean': 'false', 'City': '湖北省', 'C_time': 'Thu Jul 29 06:53:45 CST 2021', 'Name': '勾蝉', 'Identity_code': '211404198307225048', 'Data_long': '8309754179000649984', 'Str_time': '1627512825000', 'Null_data': '', 'time_col': '2021-07-29 06:53:45.032', 'Age': '98'}, {'data9': '丈夫未可轻年少', 'Salary': '11912', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '男', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.899', 'Data_boolean': 'true', 'City': '海南省', 'C_time': 'Wed Jul 28 22:52:33 CST 2021', 'Name': '鄂捕', 'Identity_code': '211814198009027257', 'Data_long': '-8285298858045314882', 'Str_time': '1627440753000', 'Null_data': '', 'time_col': '2021-07-28 22:52:33.591', 'Age': '72'}, {'data9': '丈夫未可轻年少', 'Salary': '14290', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '女', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.937', 'Data_boolean': 'false', 'City': '江西省', 'C_time': 'Wed Jul 28 15:50:10 CST 2021', 'Name': '郗娼', 'Identity_code': '540614198801241671', 'Data_long': '5389463862304365529', 'Str_time': '1627415410000', 'Null_data': '', 'time_col': '2021-07-28 15:50:10.208', 'Age': '92'}, {'data9': '丈夫未可轻年少', 'Salary': '12238', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.693', 'Data_boolean': 'true', 'City': '西藏自治区', 'C_time': 'Thu Jul 29 00:55:25 CST 2021', 'Name': '巩怊', 'Identity_code': '530806199404061346', 'Data_long': '-8652965328680534715', 'Str_time': '1627491325000', 'Null_data': '', 'time_col': '2021-07-29 00:55:25.107', 'Age': '73'}, {'data9': '丈夫未可轻年少', 'Salary': '12990', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '男', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.92', 'Data_boolean': 'false', 'City': '广东省', 'C_time': 'Thu Jul 29 02:46:14 CST 2021', 'Name': '芮长', 'Identity_code': '361522198910167727', 'Data_long': '7532649821942355882', 'Str_time': '1627497974000', 'Null_data': '', 'time_col': '2021-07-29 02:46:14.234', 'Age': '92'}, {'data9': '丈夫未可轻年少', 'Salary': '13466', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '男', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.454', 'Data_boolean': 'true', 'City': '黑龙江省', 'C_time': 'Thu Jul 29 03:47:11 CST 2021', 'Name': '雍汊', 'Identity_code': '640427199309288235', 'Data_long': '3271911610311388376', 'Str_time': '1627501631000', 'Null_data': '', 'time_col': '2021-07-29 03:47:11.582', 'Age': '95'}, {'data9': '丈夫未可轻年少', 'Salary': '12591', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '女', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.53', 'Data_boolean': 'true', 'City': '上海市', 'C_time': 'Wed Jul 28 15:55:58 CST 2021', 'Name': '封襮', 'Identity_code': '440927197502135791', 'Data_long': '-959911031956437391', 'Str_time': '1627415758000', 'Null_data': '', 'time_col': '2021-07-28 15:55:58.812', 'Age': '91'}, {'data9': '丈夫未可轻年少', 'Salary': '10344', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '女', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.959', 'Data_boolean': 'false', 'City': '山东省', 'C_time': 'Wed Jul 28 15:56:24 CST 2021', 'Name': '微生邴', 'Identity_code': '151008199308235137', 'Data_long': '-3866370147467601596', 'Str_time': '1627415784000', 'Null_data': '', 'time_col': '2021-07-28 15:56:24.414', 'Age': '73'}, {'data9': '丈夫未可轻年少', 'Salary': '11251', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '男', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.78', 'Data_boolean': 'true', 'City': '江西省', 'C_time': 'Wed Jul 28 21:50:21 CST 2021', 'Name': '浦玚', 'Identity_code': '451710197805243805', 'Data_long': '-3707075308034412268', 'Str_time': '1627437021000', 'Null_data': '', 'time_col': '2021-07-28 21:50:21.688', 'Age': '92'}, {'data9': '丈夫未可轻年少', 'Salary': '12400', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.554', 'Data_boolean': 'false', 'City': '湖南省', 'C_time': 'Wed Jul 28 18:37:28 CST 2021', 'Name': '宦偲', 'Identity_code': '230524198802245502', 'Data_long': '2222849702321487554', 'Str_time': '1627425448000', 'Null_data': '', 'time_col': '2021-07-28 18:37:28.108', 'Age': '83'}, {'data9': '丈夫未可轻年少', 'Salary': '12477', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '女', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.323', 'Data_boolean': 'false', 'City': '内蒙古自治区', 'C_time': 'Wed Jul 28 22:42:01 CST 2021', 'Name': '尹觇', 'Identity_code': '531508197801292631', 'Data_long': '-8166868281004881421', 'Str_time': '1627440121000', 'Null_data': '', 'time_col': '2021-07-28 22:42:01.792', 'Age': '92'}, {'data9': '丈夫未可轻年少', 'Salary': '10275', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '女', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.138', 'Data_boolean': 'true', 'City': '四川省', 'C_time': 'Thu Jul 29 04:57:41 CST 2021', 'Name': '诸葛姹', 'Identity_code': '110912199101304687', 'Data_long': '-4863818241574535001', 'Str_time': '1627505861000', 'Null_data': '', 'time_col': '2021-07-29 04:57:41.421', 'Age': '86'}, {'data9': '丈夫未可轻年少', 'Salary': '13705', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '女', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.009', 'Data_boolean': 'false', 'City': '安徽省', 'C_time': 'Thu Jul 29 04:57:50 CST 2021', 'Name': '濮阳吥', 'Identity_code': '521026197401166821', 'Data_long': '-4052745976249213300', 'Str_time': '1627505870000', 'Null_data': '', 'time_col': '2021-07-29 04:57:50.029', 'Age': '86'}, {'data9': '丈夫未可轻年少', 'Salary': '13300', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '男', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.274', 'Data_boolean': 'false', 'City': '西藏自治区', 'C_time': 'Thu Jul 29 04:40:31 CST 2021', 'Name': '浦鸱', 'Identity_code': '311113199207054617', 'Data_long': '1717296662875225464', 'Str_time': '1627504831000', 'Null_data': '', 'time_col': '2021-07-29 04:40:31.289', 'Age': '99'}, {'data9': '丈夫未可轻年少', 'Salary': '13569', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '女', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.699', 'Data_boolean': 'true', 'City': '内蒙古自治区', 'C_time': 'Wed Jul 28 22:36:51 CST 2021', 'Name': '庄豺', 'Identity_code': '330328198003054131', 'Data_long': '4349435990387578336', 'Str_time': '1627439811000', 'Null_data': '', 'time_col': '2021-07-28 22:36:51.672', 'Age': '83'}, {'data9': '丈夫未可轻年少', 'Salary': '14450', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '女', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.014', 'Data_boolean': 'true', 'City': '广西壮族自治区', 'C_time': 'Thu Jul 29 07:52:57 CST 2021', 'Name': '谭晨', 'Identity_code': '461126199407086222', 'Data_long': '1510223071865746490', 'Str_time': '1627516377000', 'Null_data': '', 'time_col': '2021-07-29 07:52:57.312', 'Age': '83'}, {'data9': '丈夫未可轻年少', 'Salary': '11031', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '男', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.917', 'Data_boolean': 'true', 'City': '河北省', 'C_time': 'Thu Jul 29 07:53:01 CST 2021', 'Name': '顾檦', 'Identity_code': '361522199010034276', 'Data_long': '8944757697039511360', 'Str_time': '1627516381000', 'Null_data': '', 'time_col': '2021-07-29 07:53:01.816', 'Age': '88'}, {'data9': '丈夫未可轻年少', 'Salary': '11972', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.456', 'Data_boolean': 'false', 'City': '吉林省', 'C_time': 'Thu Jul 29 00:53:41 CST 2021', 'Name': '边埕', 'Identity_code': '151316199311169344', 'Data_long': '-7976108858933360188', 'Str_time': '1627491221000', 'Null_data': '', 'time_col': '2021-07-29 00:53:41.319', 'Age': '77'}, {'data9': '丈夫未可轻年少', 'Salary': '10083', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '男', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.297', 'Data_boolean': 'false', 'City': '重庆市', 'C_time': 'Thu Jul 29 01:38:06 CST 2021', 'Name': '甘笞', 'Identity_code': '440707198807304822', 'Data_long': '-5935853512501407068', 'Str_time': '1627493886000', 'Null_data': '', 'time_col': '2021-07-29 01:38:06.682', 'Age': '97'}, {'data9': '丈夫未可轻年少', 'Salary': '13034', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '女', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.469', 'Data_boolean': 'false', 'City': '河南省', 'C_time': 'Wed Jul 28 20:54:01 CST 2021', 'Name': '郁谌', 'Identity_code': '541406198510259632', 'Data_long': '2211412141625383751', 'Str_time': '1627433641000', 'Null_data': '', 'time_col': '2021-07-28 20:54:01.211', 'Age': '72'}, {'data9': '丈夫未可轻年少', 'Salary': '12167', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.527', 'Data_boolean': 'true', 'City': '甘肃省', 'C_time': 'Wed Jul 28 22:57:51 CST 2021', 'Name': '郁蹭', 'Identity_code': '221520199601232990', 'Data_long': '-6834094592534493659', 'Str_time': '1627441071000', 'Null_data': '', 'time_col': '2021-07-28 22:57:51.883', 'Age': '84'}, {'data9': '丈夫未可轻年少', 'Salary': '13546', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '女', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.045', 'Data_boolean': 'false', 'City': '贵州省', 'C_time': 'Thu Jul 29 00:52:23 CST 2021', 'Name': '衡鬓', 'Identity_code': '131324198409044572', 'Data_long': '702820996637209072', 'Str_time': '1627491143000', 'Null_data': '', 'time_col': '2021-07-29 00:52:23.758', 'Age': '92'}, {'data9': '丈夫未可轻年少', 'Salary': '13754', 'data8': '宣父犹能畏后生', 'data7': '闻余大言皆冷笑', 'data6': '世人见我恒殊调', 'data5': '犹能簸却沧溟水', 'data4': '假令风歇时下来', 'data3': '扶摇直上九万里', 'Sex': '男', 'data2': '大鹏一日同风起', 'data1': '中国', 'Data_double': '0.223', 'Data_boolean': 'true', 'City': '山东省', 'C_time': 'Wed Jul 28 22:50:46 CST 2021', 'Name': '徐材', 'Identity_code': '110101198411252998', 'Data_long': '7225908538166449225', 'Str_time': '1627440646000', 'Null_data': '', 'time_col': '2021-07-28 22:50:46.331', 'Age': '83'}]</t>
+  </si>
+  <si>
+    <t>http://info2:8088/cluster/app/application_1624575716462_3906</t>
+  </si>
+  <si>
+    <t>454b228a-9d36-41b8-895c-879f50176d8f</t>
+  </si>
+  <si>
+    <t>inner_join</t>
+  </si>
+  <si>
+    <t>a1a51753-99b8-4f1e-9d1d-2ecaff319309</t>
+  </si>
+  <si>
+    <t>1a43e283-89fa-4c46-9025-4038d8f73f09</t>
+  </si>
+  <si>
+    <t>[{"right_age":"30","left_name":"李四","right_col":"13884556412,246658845","left_age":"30","left_col":"13884556412,246658845","right_name":"李四","right_id":"2","left_id":"2"},{"right_age":"20","left_name":"张三","right_col":"13382512412,532554412","left_age":"20","left_col":"13382512412,532554412","right_name":"张三","right_id":"1","left_id":"1"}]</t>
+  </si>
+  <si>
+    <t>[{'right_age': '30', 'left_name': '李四', 'right_col': '13884556412,246658845', 'left_age': '30', 'left_col': '13884556412,246658845', 'right_name': '李四', 'right_id': '2', 'left_id': '2'}, {'right_age': '20', 'left_name': '张三', 'right_col': '13382512412,532554412', 'left_age': '20', 'left_col': '13382512412,532554412', 'right_name': '张三', 'right_id': '1', 'left_id': '1'}]</t>
+  </si>
+  <si>
+    <t>http://info2:8088/cluster/app/application_1624575716462_3907</t>
+  </si>
+  <si>
+    <t>f0f97967-d322-479d-a0fa-02a9c4837085</t>
+  </si>
+  <si>
+    <t>tc_minus</t>
+  </si>
+  <si>
+    <t>bdcaf156-c066-4ec5-afa4-6f04e2e7678d</t>
+  </si>
+  <si>
+    <t>ccf14e04-9d21-470b-8aa2-f184b9d9585b</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>http://info2:8088/cluster/app/application_1624575716462_3904</t>
+  </si>
+  <si>
+    <t>2f9f6d76-a559-40b1-bb61-ec9b1bcc17e3</t>
+  </si>
+  <si>
+    <t>rangejoin</t>
+  </si>
+  <si>
+    <t>ecea4548-3a86-4b8b-9360-36bacd34e981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[{"point_grade":"79","range_min":"70","point_student":"cersei","range_max":"80","range_grade":"C"},{"point_grade":"83","range_min":"80","point_student":"renley","range_max":"90","range_grade":"B"},{"point_grade":"95","range_min":"90","point_student":"sansa","range_max":"100","range_grade":"A"},{"point_grade":"37","range_min":"0","point_student":"tyrion","range_max":"60","range_grade":"F"},{"point_grade":"81","range_min":"80","point_student":"jaime","range_max":"90","range_grade":"B"},{"point_grade":"88","range_min":"80","point_student":"arya","range_max":"90","range_grade":"B"},{"point_grade":"72","range_min":"70","point_student":"robb","range_max":"80","range_grade":"C"},{"point_grade":"64","range_min":"60","point_student":"ned","range_max":"70","range_grade":"D"}]
+</t>
+  </si>
+  <si>
+    <t>80735386-975c-4349-83cd-dcfddc2ea311</t>
+  </si>
+  <si>
+    <t>projoin</t>
+  </si>
+  <si>
+    <t>bf8a3909-7519-4c50-aaff-3b8b20d2c65d</t>
+  </si>
+  <si>
+    <t>e8c65d4c-11c4-417d-8c4e-1b6df6cc5bad</t>
+  </si>
+  <si>
+    <t>[{"q":"张三","right_age":"20","right_col":"13382512412,532554412","e":"20","w":"13382512412,532554412","right_name":"张三","right_id":"1","left_id":"1"},{"q":"张三","right_age":"30","right_col":"13884556412,246658845","e":"20","w":"13382512412,532554412","right_name":"李四","right_id":"2","left_id":"1"},{"q":"李四","right_age":"20","right_col":"13382512412,532554412","e":"30","w":"13884556412,246658845","right_name":"张三","right_id":"1","left_id":"2"},{"q":"李四","right_age":"30","right_col":"13884556412,246658845","e":"30","w":"13884556412,246658845","right_name":"李四","right_id":"2","left_id":"2"},{"q":"王五","right_age":"20","right_col":"13382512412,532554412","e":"20","w":"13884556413,246658846","right_name":"张三","right_id":"1","left_id":"3"},{"q":"王五","right_age":"30","right_col":"13884556412,246658845","e":"20","w":"13884556413,246658846","right_name":"李四","right_id":"2","left_id":"3"}]</t>
+  </si>
+  <si>
+    <t>[{'q': '张三', 'right_age': '20', 'right_col': '13382512412,532554412', 'e': '20', 'w': '13382512412,532554412', 'right_name': '张三', 'right_id': '1', 'left_id': '1'}, {'q': '张三', 'right_age': '30', 'right_col': '13884556412,246658845', 'e': '20', 'w': '13382512412,532554412', 'right_name': '李四', 'right_id': '2', 'left_id': '1'}, {'q': '李四', 'right_age': '20', 'right_col': '13382512412,532554412', 'e': '30', 'w': '13884556412,246658845', 'right_name': '张三', 'right_id': '1', 'left_id': '2'}, {'q': '李四', 'right_age': '30', 'right_col': '13884556412,246658845', 'e': '30', 'w': '13884556412,246658845', 'right_name': '李四', 'right_id': '2', 'left_id': '2'}, {'q': '王五', 'right_age': '20', 'right_col': '13382512412,532554412', 'e': '20', 'w': '13884556413,246658846', 'right_name': '张三', 'right_id': '1', 'left_id': '3'}, {'q': '王五', 'right_age': '30', 'right_col': '13884556412,246658845', 'e': '20', 'w': '13884556413,246658846', 'right_name': '李四', 'right_id': '2', 'left_id': '3'}, {'q': '张三', 'right_age': '20', 'right_col': '13382512412,532554412', 'e': '20', 'w': '13382512412,532554412', 'right_name': '张三', 'right_id': '1', 'left_id': '1'}, {'q': '张三', 'right_age': '30', 'right_col': '13884556412,246658845', 'e': '20', 'w': '13382512412,532554412', 'right_name': '李四', 'right_id': '2', 'left_id': '1'}, {'q': '李四', 'right_age': '20', 'right_col': '13382512412,532554412', 'e': '30', 'w': '13884556412,246658845', 'right_name': '张三', 'right_id': '1', 'left_id': '2'}, {'q': '李四', 'right_age': '30', 'right_col': '13884556412,246658845', 'e': '30', 'w': '13884556412,246658845', 'right_name': '李四', 'right_id': '2', 'left_id': '2'}, {'q': '王五', 'right_age': '20', 'right_col': '13382512412,532554412', 'e': '20', 'w': '13884556413,246658846', 'right_name': '张三', 'right_id': '1', 'left_id': '3'}, {'q': '王五', 'right_age': '30', 'right_col': '13884556412,246658845', 'e': '20', 'w': '13884556413,246658846', 'right_name': '李四', 'right_id': '2', 'left_id': '3'}]</t>
+  </si>
+  <si>
+    <t>append</t>
+  </si>
+  <si>
+    <t>http://info2:8088/cluster/app/application_1624575716462_3934</t>
+  </si>
+  <si>
+    <t>4dde05e8-db28-4165-ae9d-a9beee5faee8</t>
+  </si>
+  <si>
+    <t>rtc_lq_0729</t>
+  </si>
+  <si>
+    <t>edb5d33d-8ded-4028-bcfd-4e5abfd49252</t>
+  </si>
+  <si>
+    <t>RUNNING</t>
+  </si>
+  <si>
+    <t>[{"date_str":"","clickTime":"2021-08-05 16:12:38.0","user_rank":"20","time_str":"161238","userId":"69","uuid":"c90bae40-6035-479f-b7aa-dced602038fa","url":"","username":"userE3668ff08-c319-48cd-a83c-9dc5865b1d89"},{"date_str":"20210805","clickTime":"2021-08-05 16:12:48.0","user_rank":"9","time_str":"","userId":"65","uuid":"ab418ff2-f116-4b15-b6ad-e2b597f5b2d9","url":"http://127.0.0.1/api/I","username":"userA398ada17-abf6-461e-8943-86ceac6f9b2d"},{"date_str":"","clickTime":"2021-08-05 16:12:58.0","user_rank":"31","time_str":"161258","userId":"69","uuid":"71ac91a8-955d-480d-b458-6772821560dc","url":"","username":"userE8fa666d4-bd53-43c2-82d8-de3a77b86a6c"},{"date_str":"20210805","clickTime":"2021-08-05 16:13:08.0","user_rank":"28","time_str":"","userId":"67","uuid":"71d82c90-650a-4685-a008-69425f468168","url":"http://127.0.0.1/api/K","username":"userC5e78a009-107f-49dd-90d6-3c356dcdcc37"},{"date_str":"","clickTime":"2021-08-05 16:13:18.0","user_rank":"46","time_str":"161318","userId":"66","uuid":"3dc26d17-107f-4cc6-a3de-a6f3210db8b4","url":"","username":"userB1dea9cf3-88c7-4ee7-b9f9-6dab68d7a843"},{"date_str":"","clickTime":"2021-08-05 16:13:28.0","user_rank":"96","time_str":"161328","userId":"65","uuid":"0fade666-7685-43da-9f1c-b8f5137c25c1","url":"","username":"userAe8b80234-29aa-45f5-9ba3-ca5aeb376804"},{"date_str":"20210805","clickTime":"2021-08-05 16:13:38.0","user_rank":"86","time_str":"","userId":"65","uuid":"cbab52ea-c67e-4894-83b8-969bfb000105","url":"http://127.0.0.1/api/J","username":"userAe61dd134-7471-4b31-b516-5f97e7036edf"},{"date_str":"","clickTime":"2021-08-05 16:13:48.0","user_rank":"34","time_str":"161348","userId":"72","uuid":"e411f1b4-f72a-42e9-ac41-184dd3b26a9f","url":"","username":"userH84ea6978-08f1-4f21-b173-42146cbd428d"},{"date_str":"","clickTime":"2021-08-05 16:13:58.0","user_rank":"48","time_str":"161358","userId":"73","uuid":"3243f3c1-3aff-4e3a-b731-8cfb519e7bdf","url":"","username":"userI74331aee-a54f-4f1e-8007-7a9f73c704ac"},{"date_str":"","clickTime":"2021-08-05 16:14:08.0","user_rank":"21","time_str":"161408","userId":"73","uuid":"cd68b1d1-ecf9-40ec-9313-401412ac7550","url":"","username":"userId6bf926f-c27f-4047-817e-3815fc39e202"},{"date_str":"20210805","clickTime":"2021-08-05 16:14:18.0","user_rank":"29","time_str":"","userId":"72","uuid":"89427085-cf93-4bd7-8373-672d9fd0d82a","url":"http://127.0.0.1/api/I","username":"userH14db720c-2b5d-4e71-8705-681b8c5cb6bc"},{"date_str":"20210805","clickTime":"2021-08-05 16:14:28.0","user_rank":"96","time_str":"","userId":"65","uuid":"e71209e2-03a2-42e7-a27a-15f41f87bfaa","url":"http://127.0.0.1/api/J","username":"userAf1a2b012-6a2c-432d-a072-68cfe0e74a45"},{"date_str":"20210805","clickTime":"2021-08-05 16:14:38.0","user_rank":"19","time_str":"","userId":"69","uuid":"23ab70d1-9d2d-4de3-8671-24c25fd1cfb3","url":"http://127.0.0.1/api/I","username":"userE0ad78ff8-00f2-40d6-bd3f-d804d1fdc65e"},{"date_str":"20210805","clickTime":"2021-08-05 16:14:48.0","user_rank":"6","time_str":"","userId":"67","uuid":"c399240d-4d09-431e-9fbe-390c9553a6ee","url":"http://127.0.0.1/api/I","username":"userCa8db9f55-5fb9-4619-a13f-882c9f5b9480"},{"date_str":"20210805","clickTime":"2021-08-05 16:14:58.0","user_rank":"72","time_str":"","userId":"70","uuid":"57a0d8ce-c098-45ff-9a29-60d766da3a26","url":"http://127.0.0.1/api/J","username":"userF089cefc3-9b98-40e4-832c-d3cdce7bdaae"},{"date_str":"20210805","clickTime":"2021-08-05 16:15:08.0","user_rank":"41","time_str":"","userId":"65","uuid":"7c9f8a03-5a6e-4000-a1ba-778a66f67e2b","url":"http://127.0.0.1/api/I","username":"userA81a248d1-5ff8-472b-9ea3-c70e1f49d51d"}]</t>
+  </si>
+  <si>
+    <t>[{'date_str': '', 'clickTime': '2021-08-05 16:12:38.0', 'user_rank': '20', 'time_str': '161238', 'userId': '69', 'uuid': 'c90bae40-6035-479f-b7aa-dced602038fa', 'url': '', 'username': 'userE3668ff08-c319-48cd-a83c-9dc5865b1d89'}, {'date_str': '20210805', 'clickTime': '2021-08-05 16:12:48.0', 'user_rank': '9', 'time_str': '', 'userId': '65', 'uuid': 'ab418ff2-f116-4b15-b6ad-e2b597f5b2d9', 'url': 'http://127.0.0.1/api/I', 'username': 'userA398ada17-abf6-461e-8943-86ceac6f9b2d'}, {'date_str': '', 'clickTime': '2021-08-05 16:12:58.0', 'user_rank': '31', 'time_str': '161258', 'userId': '69', 'uuid': '71ac91a8-955d-480d-b458-6772821560dc', 'url': '', 'username': 'userE8fa666d4-bd53-43c2-82d8-de3a77b86a6c'}, {'date_str': '20210805', 'clickTime': '2021-08-05 16:13:08.0', 'user_rank': '28', 'time_str': '', 'userId': '67', 'uuid': '71d82c90-650a-4685-a008-69425f468168', 'url': 'http://127.0.0.1/api/K', 'username': 'userC5e78a009-107f-49dd-90d6-3c356dcdcc37'}, {'date_str': '', 'clickTime': '2021-08-05 16:13:18.0', 'user_rank': '46', 'time_str': '161318', 'userId': '66', 'uuid': '3dc26d17-107f-4cc6-a3de-a6f3210db8b4', 'url': '', 'username': 'userB1dea9cf3-88c7-4ee7-b9f9-6dab68d7a843'}, {'date_str': '', 'clickTime': '2021-08-05 16:13:28.0', 'user_rank': '96', 'time_str': '161328', 'userId': '65', 'uuid': '0fade666-7685-43da-9f1c-b8f5137c25c1', 'url': '', 'username': 'userAe8b80234-29aa-45f5-9ba3-ca5aeb376804'}, {'date_str': '20210805', 'clickTime': '2021-08-05 16:13:38.0', 'user_rank': '86', 'time_str': '', 'userId': '65', 'uuid': 'cbab52ea-c67e-4894-83b8-969bfb000105', 'url': 'http://127.0.0.1/api/J', 'username': 'userAe61dd134-7471-4b31-b516-5f97e7036edf'}, {'date_str': '', 'clickTime': '2021-08-05 16:13:48.0', 'user_rank': '34', 'time_str': '161348', 'userId': '72', 'uuid': 'e411f1b4-f72a-42e9-ac41-184dd3b26a9f', 'url': '', 'username': 'userH84ea6978-08f1-4f21-b173-42146cbd428d'}, {'date_str': '', 'clickTime': '2021-08-05 16:13:58.0', 'user_rank': '48', 'time_str': '161358', 'userId': '73', 'uuid': '3243f3c1-3aff-4e3a-b731-8cfb519e7bdf', 'url': '', 'username': 'userI74331aee-a54f-4f1e-8007-7a9f73c704ac'}, {'date_str': '', 'clickTime': '2021-08-05 16:14:08.0', 'user_rank': '21', 'time_str': '161408', 'userId': '73', 'uuid': 'cd68b1d1-ecf9-40ec-9313-401412ac7550', 'url': '', 'username': 'userId6bf926f-c27f-4047-817e-3815fc39e202'}, {'date_str': '20210805', 'clickTime': '2021-08-05 16:14:18.0', 'user_rank': '29', 'time_str': '', 'userId': '72', 'uuid': '89427085-cf93-4bd7-8373-672d9fd0d82a', 'url': 'http://127.0.0.1/api/I', 'username': 'userH14db720c-2b5d-4e71-8705-681b8c5cb6bc'}, {'date_str': '20210805', 'clickTime': '2021-08-05 16:14:28.0', 'user_rank': '96', 'time_str': '', 'userId': '65', 'uuid': 'e71209e2-03a2-42e7-a27a-15f41f87bfaa', 'url': 'http://127.0.0.1/api/J', 'username': 'userAf1a2b012-6a2c-432d-a072-68cfe0e74a45'}, {'date_str': '20210805', 'clickTime': '2021-08-05 16:14:38.0', 'user_rank': '19', 'time_str': '', 'userId': '69', 'uuid': '23ab70d1-9d2d-4de3-8671-24c25fd1cfb3', 'url': 'http://127.0.0.1/api/I', 'username': 'userE0ad78ff8-00f2-40d6-bd3f-d804d1fdc65e'}, {'date_str': '20210805', 'clickTime': '2021-08-05 16:14:48.0', 'user_rank': '6', 'time_str': '', 'userId': '67', 'uuid': 'c399240d-4d09-431e-9fbe-390c9553a6ee', 'url': 'http://127.0.0.1/api/I', 'username': 'userCa8db9f55-5fb9-4619-a13f-882c9f5b9480'}, {'date_str': '20210805', 'clickTime': '2021-08-05 16:14:58.0', 'user_rank': '72', 'time_str': '', 'userId': '70', 'uuid': '57a0d8ce-c098-45ff-9a29-60d766da3a26', 'url': 'http://127.0.0.1/api/J', 'username': 'userF089cefc3-9b98-40e4-832c-d3cdce7bdaae'}, {'date_str': '20210805', 'clickTime': '2021-08-05 16:15:08.0', 'user_rank': '41', 'time_str': '', 'userId': '65', 'uuid': '7c9f8a03-5a6e-4000-a1ba-778a66f67e2b', 'url': 'http://127.0.0.1/api/I', 'username': 'userA81a248d1-5ff8-472b-9ea3-c70e1f49d51d'}, {'date_str': '', 'clickTime': '2021-08-05 16:12:38.0', 'user_rank': '20', 'time_str': '161238', 'userId': '69', 'uuid': 'c90bae40-6035-479f-b7aa-dced602038fa', 'url': '', 'username': 'userE3668ff08-c319-48cd-a83c-9dc5865b1d89'}, {'date_str': '20210805', 'clickTime': '2021-08-05 16:12:48.0', 'user_rank': '9', 'time_str': '', 'userId': '65', 'uuid': 'ab418ff2-f116-4b15-b6ad-e2b597f5b2d9', 'url': 'http://127.0.0.1/api/I', 'username': 'userA398ada17-abf6-461e-8943-86ceac6f9b2d'}, {'date_str': '', 'clickTime': '2021-08-05 16:12:58.0', 'user_rank': '31', 'time_str': '161258', 'userId': '69', 'uuid': '71ac91a8-955d-480d-b458-6772821560dc', 'url': '', 'username': 'userE8fa666d4-bd53-43c2-82d8-de3a77b86a6c'}, {'date_str': '20210805', 'clickTime': '2021-08-05 16:13:08.0', 'user_rank': '28', 'time_str': '', 'userId': '67', 'uuid': '71d82c90-650a-4685-a008-69425f468168', 'url': 'http://127.0.0.1/api/K', 'username': 'userC5e78a009-107f-49dd-90d6-3c356dcdcc37'}, {'date_str': '', 'clickTime': '2021-08-05 16:13:18.0', 'user_rank': '46', 'time_str': '161318', 'userId': '66', 'uuid': '3dc26d17-107f-4cc6-a3de-a6f3210db8b4', 'url': '', 'username': 'userB1dea9cf3-88c7-4ee7-b9f9-6dab68d7a843'}, {'date_str': '', 'clickTime': '2021-08-05 16:13:28.0', 'user_rank': '96', 'time_str': '161328', 'userId': '65', 'uuid': '0fade666-7685-43da-9f1c-b8f5137c25c1', 'url': '', 'username': 'userAe8b80234-29aa-45f5-9ba3-ca5aeb376804'}, {'date_str': '20210805', 'clickTime': '2021-08-05 16:13:38.0', 'user_rank': '86', 'time_str': '', 'userId': '65', 'uuid': 'cbab52ea-c67e-4894-83b8-969bfb000105', 'url': 'http://127.0.0.1/api/J', 'username': 'userAe61dd134-7471-4b31-b516-5f97e7036edf'}, {'date_str': '', 'clickTime': '2021-08-05 16:13:48.0', 'user_rank': '34', 'time_str': '161348', 'userId': '72', 'uuid': 'e411f1b4-f72a-42e9-ac41-184dd3b26a9f', 'url': '', 'username': 'userH84ea6978-08f1-4f21-b173-42146cbd428d'}, {'date_str': '', 'clickTime': '2021-08-05 16:13:58.0', 'user_rank': '48', 'time_str': '161358', 'userId': '73', 'uuid': '3243f3c1-3aff-4e3a-b731-8cfb519e7bdf', 'url': '', 'username': 'userI74331aee-a54f-4f1e-8007-7a9f73c704ac'}, {'date_str': '', 'clickTime': '2021-08-05 16:14:08.0', 'user_rank': '21', 'time_str': '161408', 'userId': '73', 'uuid': 'cd68b1d1-ecf9-40ec-9313-401412ac7550', 'url': '', 'username': 'userId6bf926f-c27f-4047-817e-3815fc39e202'}, {'date_str': '20210805', 'clickTime': '2021-08-05 16:14:18.0', 'user_rank': '29', 'time_str': '', 'userId': '72', 'uuid': '89427085-cf93-4bd7-8373-672d9fd0d82a', 'url': 'http://127.0.0.1/api/I', 'username': 'userH14db720c-2b5d-4e71-8705-681b8c5cb6bc'}, {'date_str': '20210805', 'clickTime': '2021-08-05 16:14:28.0', 'user_rank': '96', 'time_str': '', 'userId': '65', 'uuid': 'e71209e2-03a2-42e7-a27a-15f41f87bfaa', 'url': 'http://127.0.0.1/api/J', 'username': 'userAf1a2b012-6a2c-432d-a072-68cfe0e74a45'}, {'date_str': '20210805', 'clickTime': '2021-08-05 16:14:38.0', 'user_rank': '19', 'time_str': '', 'userId': '69', 'uuid': '23ab70d1-9d2d-4de3-8671-24c25fd1cfb3', 'url': 'http://127.0.0.1/api/I', 'username': 'userE0ad78ff8-00f2-40d6-bd3f-d804d1fdc65e'}, {'date_str': '20210805', 'clickTime': '2021-08-05 16:14:48.0', 'user_rank': '6', 'time_str': '', 'userId': '67', 'uuid': 'c399240d-4d09-431e-9fbe-390c9553a6ee', 'url': 'http://127.0.0.1/api/I', 'username': 'userCa8db9f55-5fb9-4619-a13f-882c9f5b9480'}, {'date_str': '20210805', 'clickTime': '2021-08-05 16:14:58.0', 'user_rank': '72', 'time_str': '', 'userId': '70', 'uuid': '57a0d8ce-c098-45ff-9a29-60d766da3a26', 'url': 'http://127.0.0.1/api/J', 'username': 'userF089cefc3-9b98-40e4-832c-d3cdce7bdaae'}, {'date_str': '20210805', 'clickTime': '2021-08-05 16:15:08.0', 'user_rank': '41', 'time_str': '', 'userId': '65', 'uuid': '7c9f8a03-5a6e-4000-a1ba-778a66f67e2b', 'url': 'http://127.0.0.1/api/I', 'username': 'userA81a248d1-5ff8-472b-9ea3-c70e1f49d51d'}, {'date_str': '', 'clickTime': '2021-08-05 16:12:38.0', 'user_rank': '20', 'time_str': '161238', 'userId': '69', 'uuid': 'c90bae40-6035-479f-b7aa-dced602038fa', 'url': '', 'username': 'userE3668ff08-c319-48cd-a83c-9dc5865b1d89'}, {'date_str': '20210805', 'clickTime': '2021-08-05 16:12:48.0', 'user_rank': '9', 'time_str': '', 'userId': '65', 'uuid': 'ab418ff2-f116-4b15-b6ad-e2b597f5b2d9', 'url': 'http://127.0.0.1/api/I', 'username': 'userA398ada17-abf6-461e-8943-86ceac6f9b2d'}, {'date_str': '', 'clickTime': '2021-08-05 16:12:58.0', 'user_rank': '31', 'time_str': '161258', 'userId': '69', 'uuid': '71ac91a8-955d-480d-b458-6772821560dc', 'url': '', 'username': 'userE8fa666d4-bd53-43c2-82d8-de3a77b86a6c'}, {'date_str': '20210805', 'clickTime': '2021-08-05 16:13:08.0', 'user_rank': '28', 'time_str': '', 'userId': '67', 'uuid': '71d82c90-650a-4685-a008-69425f468168', 'url': 'http://127.0.0.1/api/K', 'username': 'userC5e78a009-107f-49dd-90d6-3c356dcdcc37'}, {'date_str': '', 'clickTime': '2021-08-05 16:13:18.0', 'user_rank': '46', 'time_str': '161318', 'userId': '66', 'uuid': '3dc26d17-107f-4cc6-a3de-a6f3210db8b4', 'url': '', 'username': 'userB1dea9cf3-88c7-4ee7-b9f9-6dab68d7a843'}, {'date_str': '', 'clickTime': '2021-08-05 16:13:28.0', 'user_rank': '96', 'time_str': '161328', 'userId': '65', 'uuid': '0fade666-7685-43da-9f1c-b8f5137c25c1', 'url': '', 'username': 'userAe8b80234-29aa-45f5-9ba3-ca5aeb376804'}, {'date_str': '20210805', 'clickTime': '2021-08-05 16:13:38.0', 'user_rank': '86', 'time_str': '', 'userId': '65', 'uuid': 'cbab52ea-c67e-4894-83b8-969bfb000105', 'url': 'http://127.0.0.1/api/J', 'username': 'userAe61dd134-7471-4b31-b516-5f97e7036edf'}, {'date_str': '', 'clickTime': '2021-08-05 16:13:48.0', 'user_rank': '34', 'time_str': '161348', 'userId': '72', 'uuid': 'e411f1b4-f72a-42e9-ac41-184dd3b26a9f', 'url': '', 'username': 'userH84ea6978-08f1-4f21-b173-42146cbd428d'}, {'date_str': '', 'clickTime': '2021-08-05 16:13:58.0', 'user_rank': '48', 'time_str': '161358', 'userId': '73', 'uuid': '3243f3c1-3aff-4e3a-b731-8cfb519e7bdf', 'url': '', 'username': 'userI74331aee-a54f-4f1e-8007-7a9f73c704ac'}, {'date_str': '', 'clickTime': '2021-08-05 16:14:08.0', 'user_rank': '21', 'time_str': '161408', 'userId': '73', 'uuid': 'cd68b1d1-ecf9-40ec-9313-401412ac7550', 'url': '', 'username': 'userId6bf926f-c27f-4047-817e-3815fc39e202'}, {'date_str': '20210805', 'clickTime': '2021-08-05 16:14:18.0', 'user_rank': '29', 'time_str': '', 'userId': '72', 'uuid': '89427085-cf93-4bd7-8373-672d9fd0d82a', 'url': 'http://127.0.0.1/api/I', 'username': 'userH14db720c-2b5d-4e71-8705-681b8c5cb6bc'}, {'date_str': '20210805', 'clickTime': '2021-08-05 16:14:28.0', 'user_rank': '96', 'time_str': '', 'userId': '65', 'uuid': 'e71209e2-03a2-42e7-a27a-15f41f87bfaa', 'url': 'http://127.0.0.1/api/J', 'username': 'userAf1a2b012-6a2c-432d-a072-68cfe0e74a45'}, {'date_str': '20210805', 'clickTime': '2021-08-05 16:14:38.0', 'user_rank': '19', 'time_str': '', 'userId': '69', 'uuid': '23ab70d1-9d2d-4de3-8671-24c25fd1cfb3', 'url': 'http://127.0.0.1/api/I', 'username': 'userE0ad78ff8-00f2-40d6-bd3f-d804d1fdc65e'}, {'date_str': '20210805', 'clickTime': '2021-08-05 16:14:48.0', 'user_rank': '6', 'time_str': '', 'userId': '67', 'uuid': 'c399240d-4d09-431e-9fbe-390c9553a6ee', 'url': 'http://127.0.0.1/api/I', 'username': 'userCa8db9f55-5fb9-4619-a13f-882c9f5b9480'}, {'date_str': '20210805', 'clickTime': '2021-08-05 16:14:58.0', 'user_rank': '72', 'time_str': '', 'userId': '70', 'uuid': '57a0d8ce-c098-45ff-9a29-60d766da3a26', 'url': 'http://127.0.0.1/api/J', 'username': 'userF089cefc3-9b98-40e4-832c-d3cdce7bdaae'}, {'date_str': '20210805', 'clickTime': '2021-08-05 16:15:08.0', 'user_rank': '41', 'time_str': '', 'userId': '65', 'uuid': '7c9f8a03-5a6e-4000-a1ba-778a66f67e2b', 'url': 'http://127.0.0.1/api/I', 'username': 'userA81a248d1-5ff8-472b-9ea3-c70e1f49d51d'}, {'date_str': '', 'clickTime': '2021-08-05 16:12:38.0', 'user_rank': '20', 'time_str': '161238', 'userId': '69', 'uuid': 'c90bae40-6035-479f-b7aa-dced602038fa', 'url': '', 'username': 'userE3668ff08-c319-48cd-a83c-9dc5865b1d89'}, {'date_str': '20210805', 'clickTime': '2021-08-05 16:12:48.0', 'user_rank': '9', 'time_str': '', 'userId': '65', 'uuid': 'ab418ff2-f116-4b15-b6ad-e2b597f5b2d9', 'url': 'http://127.0.0.1/api/I', 'username': 'userA398ada17-abf6-461e-8943-86ceac6f9b2d'}]</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>e3b329b0-cbb3-4e03-a018-d4dea74d2217</t>
+  </si>
+  <si>
+    <t>rtc_lq_0809</t>
+  </si>
+  <si>
+    <t>08a7d705-4aa6-4400-8ae2-9e21071e3d32</t>
+  </si>
+  <si>
+    <t>[{"date_str":"","clickTime":"2021-08-05 16:12:38.0","user_rank":"20","time_str":"161238","userId":"69","uuid":"c90bae40-6035-479f-b7aa-dced602038fa","url":"","username":"userE3668ff08-c319-48cd-a83c-9dc5865b1d89"},{"date_str":"20210805","clickTime":"2021-08-05 16:12:48.0","user_rank":"9","time_str":"","userId":"65","uuid":"ab418ff2-f116-4b15-b6ad-e2b597f5b2d9","url":"http://127.0.0.1/api/I","username":"userA398ada17-abf6-461e-8943-86ceac6f9b2d"},{"date_str":"","clickTime":"2021-08-05 16:12:58.0","user_rank":"31","time_str":"161258","userId":"69","uuid":"71ac91a8-955d-480d-b458-6772821560dc","url":"","username":"userE8fa666d4-bd53-43c2-82d8-de3a77b86a6c"},{"date_str":"20210805","clickTime":"2021-08-05 16:13:08.0","user_rank":"28","time_str":"","userId":"67","uuid":"71d82c90-650a-4685-a008-69425f468168","url":"http://127.0.0.1/api/K","username":"userC5e78a009-107f-49dd-90d6-3c356dcdcc37"},{"date_str":"","clickTime":"2021-08-05 16:13:18.0","user_rank":"46","time_str":"161318","userId":"66","uuid":"3dc26d17-107f-4cc6-a3de-a6f3210db8b4","url":"","username":"userB1dea9cf3-88c7-4ee7-b9f9-6dab68d7a843"},{"date_str":"","clickTime":"2021-08-05 16:13:28.0","user_rank":"96","time_str":"161328","userId":"65","uuid":"0fade666-7685-43da-9f1c-b8f5137c25c1","url":"","username":"userAe8b80234-29aa-45f5-9ba3-ca5aeb376804"},{"date_str":"20210805","clickTime":"2021-08-05 16:13:38.0","user_rank":"86","time_str":"","userId":"65","uuid":"cbab52ea-c67e-4894-83b8-969bfb000105","url":"http://127.0.0.1/api/J","username":"userAe61dd134-7471-4b31-b516-5f97e7036edf"},{"date_str":"","clickTime":"2021-08-05 16:13:48.0","user_rank":"34","time_str":"161348","userId":"72","uuid":"e411f1b4-f72a-42e9-ac41-184dd3b26a9f","url":"","username":"userH84ea6978-08f1-4f21-b173-42146cbd428d"},{"date_str":"","clickTime":"2021-08-05 16:13:58.0","user_rank":"48","time_str":"161358","userId":"73","uuid":"3243f3c1-3aff-4e3a-b731-8cfb519e7bdf","url":"","username":"userI74331aee-a54f-4f1e-8007-7a9f73c704ac"},{"date_str":"","clickTime":"2021-08-05 16:14:08.0","user_rank":"21","time_str":"161408","userId":"73","uuid":"cd68b1d1-ecf9-40ec-9313-401412ac7550","url":"","username":"userId6bf926f-c27f-4047-817e-3815fc39e202"},{"date_str":"20210805","clickTime":"2021-08-05 16:14:18.0","user_rank":"29","time_str":"","userId":"72","uuid":"89427085-cf93-4bd7-8373-672d9fd0d82a","url":"http://127.0.0.1/api/I","username":"userH14db720c-2b5d-4e71-8705-681b8c5cb6bc"},{"date_str":"20210805","clickTime":"2021-08-05 16:14:28.0","user_rank":"96","time_str":"","userId":"65","uuid":"e71209e2-03a2-42e7-a27a-15f41f87bfaa","url":"http://127.0.0.1/api/J","username":"userAf1a2b012-6a2c-432d-a072-68cfe0e74a45"},{"date_str":"20210805","clickTime":"2021-08-05 16:14:38.0","user_rank":"19","time_str":"","userId":"69","uuid":"23ab70d1-9d2d-4de3-8671-24c25fd1cfb3","url":"http://127.0.0.1/api/I","username":"userE0ad78ff8-00f2-40d6-bd3f-d804d1fdc65e"},{"date_str":"20210805","clickTime":"2021-08-05 16:14:48.0","user_rank":"6","time_str":"","userId":"67","uuid":"c399240d-4d09-431e-9fbe-390c9553a6ee","url":"http://127.0.0.1/api/I","username":"userCa8db9f55-5fb9-4619-a13f-882c9f5b9480"},{"date_str":"20210805","clickTime":"2021-08-05 16:14:58.0","user_rank":"72","time_str":"","userId":"70","uuid":"57a0d8ce-c098-45ff-9a29-60d766da3a26","url":"http://127.0.0.1/api/J","username":"userF089cefc3-9b98-40e4-832c-d3cdce7bdaae"},{"date_str":"20210805","clickTime":"2021-08-05 16:15:08.0","user_rank":"41","time_str":"","userId":"65","uuid":"7c9f8a03-5a6e-4000-a1ba-778a66f67e2b","url":"http://127.0.0.1/api/I","username":"userA81a248d1-5ff8-472b-9ea3-c70e1f49d51d"},{"date_str":"","clickTime":"2021-08-05 16:12:38.0","user_rank":"20","time_str":"161238","userId":"69","uuid":"c90bae40-6035-479f-b7aa-dced602038fa","url":"","username":"userE3668ff08-c319-48cd-a83c-9dc5865b1d89"},{"date_str":"20210805","clickTime":"2021-08-05 16:12:48.0","user_rank":"9","time_str":"","userId":"65","uuid":"ab418ff2-f116-4b15-b6ad-e2b597f5b2d9","url":"http://127.0.0.1/api/I","username":"userA398ada17-abf6-461e-8943-86ceac6f9b2d"},{"date_str":"","clickTime":"2021-08-05 16:12:58.0","user_rank":"31","time_str":"161258","userId":"69","uuid":"71ac91a8-955d-480d-b458-6772821560dc","url":"","username":"userE8fa666d4-bd53-43c2-82d8-de3a77b86a6c"},{"date_str":"20210805","clickTime":"2021-08-05 16:13:08.0","user_rank":"28","time_str":"","userId":"67","uuid":"71d82c90-650a-4685-a008-69425f468168","url":"http://127.0.0.1/api/K","username":"userC5e78a009-107f-49dd-90d6-3c356dcdcc37"},{"date_str":"","clickTime":"2021-08-05 16:13:18.0","user_rank":"46","time_str":"161318","userId":"66","uuid":"3dc26d17-107f-4cc6-a3de-a6f3210db8b4","url":"","username":"userB1dea9cf3-88c7-4ee7-b9f9-6dab68d7a843"},{"date_str":"","clickTime":"2021-08-05 16:13:28.0","user_rank":"96","time_str":"161328","userId":"65","uuid":"0fade666-7685-43da-9f1c-b8f5137c25c1","url":"","username":"userAe8b80234-29aa-45f5-9ba3-ca5aeb376804"},{"date_str":"20210805","clickTime":"2021-08-05 16:13:38.0","user_rank":"86","time_str":"","userId":"65","uuid":"cbab52ea-c67e-4894-83b8-969bfb000105","url":"http://127.0.0.1/api/J","username":"userAe61dd134-7471-4b31-b516-5f97e7036edf"},{"date_str":"","clickTime":"2021-08-05 16:13:48.0","user_rank":"34","time_str":"161348","userId":"72","uuid":"e411f1b4-f72a-42e9-ac41-184dd3b26a9f","url":"","username":"userH84ea6978-08f1-4f21-b173-42146cbd428d"},{"date_str":"","clickTime":"2021-08-05 16:13:58.0","user_rank":"48","time_str":"161358","userId":"73","uuid":"3243f3c1-3aff-4e3a-b731-8cfb519e7bdf","url":"","username":"userI74331aee-a54f-4f1e-8007-7a9f73c704ac"},{"date_str":"","clickTime":"2021-08-05 16:14:08.0","user_rank":"21","time_str":"161408","userId":"73","uuid":"cd68b1d1-ecf9-40ec-9313-401412ac7550","url":"","username":"userId6bf926f-c27f-4047-817e-3815fc39e202"},{"date_str":"20210805","clickTime":"2021-08-05 16:14:18.0","user_rank":"29","time_str":"","userId":"72","uuid":"89427085-cf93-4bd7-8373-672d9fd0d82a","url":"http://127.0.0.1/api/I","username":"userH14db720c-2b5d-4e71-8705-681b8c5cb6bc"},{"date_str":"20210805","clickTime":"2021-08-05 16:14:28.0","user_rank":"96","time_str":"","userId":"65","uuid":"e71209e2-03a2-42e7-a27a-15f41f87bfaa","url":"http://127.0.0.1/api/J","username":"userAf1a2b012-6a2c-432d-a072-68cfe0e74a45"},{"date_str":"20210805","clickTime":"2021-08-05 16:14:38.0","user_rank":"19","time_str":"","userId":"69","uuid":"23ab70d1-9d2d-4de3-8671-24c25fd1cfb3","url":"http://127.0.0.1/api/I","username":"userE0ad78ff8-00f2-40d6-bd3f-d804d1fdc65e"},{"date_str":"20210805","clickTime":"2021-08-05 16:14:48.0","user_rank":"6","time_str":"","userId":"67","uuid":"c399240d-4d09-431e-9fbe-390c9553a6ee","url":"http://127.0.0.1/api/I","username":"userCa8db9f55-5fb9-4619-a13f-882c9f5b9480"},{"date_str":"20210805","clickTime":"2021-08-05 16:14:58.0","user_rank":"72","time_str":"","userId":"70","uuid":"57a0d8ce-c098-45ff-9a29-60d766da3a26","url":"http://127.0.0.1/api/J","username":"userF089cefc3-9b98-40e4-832c-d3cdce7bdaae"},{"date_str":"20210805","clickTime":"2021-08-05 16:15:08.0","user_rank":"41","time_str":"","userId":"65","uuid":"7c9f8a03-5a6e-4000-a1ba-778a66f67e2b","url":"http://127.0.0.1/api/I","username":"userA81a248d1-5ff8-472b-9ea3-c70e1f49d51d"}]</t>
+  </si>
+  <si>
+    <t>[{'date_str': '', 'clickTime': '2021-08-05 16:12:38.0', 'user_rank': '20', 'time_str': '161238', 'userId': '69', 'uuid': 'c90bae40-6035-479f-b7aa-dced602038fa', 'url': '', 'username': 'userE3668ff08-c319-48cd-a83c-9dc5865b1d89'}, {'date_str': '20210805', 'clickTime': '2021-08-05 16:12:48.0', 'user_rank': '9', 'time_str': '', 'userId': '65', 'uuid': 'ab418ff2-f116-4b15-b6ad-e2b597f5b2d9', 'url': 'http://127.0.0.1/api/I', 'username': 'userA398ada17-abf6-461e-8943-86ceac6f9b2d'}, {'date_str': '', 'clickTime': '2021-08-05 16:12:58.0', 'user_rank': '31', 'time_str': '161258', 'userId': '69', 'uuid': '71ac91a8-955d-480d-b458-6772821560dc', 'url': '', 'username': 'userE8fa666d4-bd53-43c2-82d8-de3a77b86a6c'}, {'date_str': '20210805', 'clickTime': '2021-08-05 16:13:08.0', 'user_rank': '28', 'time_str': '', 'userId': '67', 'uuid': '71d82c90-650a-4685-a008-69425f468168', 'url': 'http://127.0.0.1/api/K', 'username': 'userC5e78a009-107f-49dd-90d6-3c356dcdcc37'}, {'date_str': '', 'clickTime': '2021-08-05 16:13:18.0', 'user_rank': '46', 'time_str': '161318', 'userId': '66', 'uuid': '3dc26d17-107f-4cc6-a3de-a6f3210db8b4', 'url': '', 'username': 'userB1dea9cf3-88c7-4ee7-b9f9-6dab68d7a843'}, {'date_str': '', 'clickTime': '2021-08-05 16:13:28.0', 'user_rank': '96', 'time_str': '161328', 'userId': '65', 'uuid': '0fade666-7685-43da-9f1c-b8f5137c25c1', 'url': '', 'username': 'userAe8b80234-29aa-45f5-9ba3-ca5aeb376804'}, {'date_str': '20210805', 'clickTime': '2021-08-05 16:13:38.0', 'user_rank': '86', 'time_str': '', 'userId': '65', 'uuid': 'cbab52ea-c67e-4894-83b8-969bfb000105', 'url': 'http://127.0.0.1/api/J', 'username': 'userAe61dd134-7471-4b31-b516-5f97e7036edf'}, {'date_str': '', 'clickTime': '2021-08-05 16:13:48.0', 'user_rank': '34', 'time_str': '161348', 'userId': '72', 'uuid': 'e411f1b4-f72a-42e9-ac41-184dd3b26a9f', 'url': '', 'username': 'userH84ea6978-08f1-4f21-b173-42146cbd428d'}, {'date_str': '', 'clickTime': '2021-08-05 16:13:58.0', 'user_rank': '48', 'time_str': '161358', 'userId': '73', 'uuid': '3243f3c1-3aff-4e3a-b731-8cfb519e7bdf', 'url': '', 'username': 'userI74331aee-a54f-4f1e-8007-7a9f73c704ac'}, {'date_str': '', 'clickTime': '2021-08-05 16:14:08.0', 'user_rank': '21', 'time_str': '161408', 'userId': '73', 'uuid': 'cd68b1d1-ecf9-40ec-9313-401412ac7550', 'url': '', 'username': 'userId6bf926f-c27f-4047-817e-3815fc39e202'}, {'date_str': '20210805', 'clickTime': '2021-08-05 16:14:18.0', 'user_rank': '29', 'time_str': '', 'userId': '72', 'uuid': '89427085-cf93-4bd7-8373-672d9fd0d82a', 'url': 'http://127.0.0.1/api/I', 'username': 'userH14db720c-2b5d-4e71-8705-681b8c5cb6bc'}, {'date_str': '20210805', 'clickTime': '2021-08-05 16:14:28.0', 'user_rank': '96', 'time_str': '', 'userId': '65', 'uuid': 'e71209e2-03a2-42e7-a27a-15f41f87bfaa', 'url': 'http://127.0.0.1/api/J', 'username': 'userAf1a2b012-6a2c-432d-a072-68cfe0e74a45'}, {'date_str': '20210805', 'clickTime': '2021-08-05 16:14:38.0', 'user_rank': '19', 'time_str': '', 'userId': '69', 'uuid': '23ab70d1-9d2d-4de3-8671-24c25fd1cfb3', 'url': 'http://127.0.0.1/api/I', 'username': 'userE0ad78ff8-00f2-40d6-bd3f-d804d1fdc65e'}, {'date_str': '20210805', 'clickTime': '2021-08-05 16:14:48.0', 'user_rank': '6', 'time_str': '', 'userId': '67', 'uuid': 'c399240d-4d09-431e-9fbe-390c9553a6ee', 'url': 'http://127.0.0.1/api/I', 'username': 'userCa8db9f55-5fb9-4619-a13f-882c9f5b9480'}, {'date_str': '20210805', 'clickTime': '2021-08-05 16:14:58.0', 'user_rank': '72', 'time_str': '', 'userId': '70', 'uuid': '57a0d8ce-c098-45ff-9a29-60d766da3a26', 'url': 'http://127.0.0.1/api/J', 'username': 'userF089cefc3-9b98-40e4-832c-d3cdce7bdaae'}, {'date_str': '20210805', 'clickTime': '2021-08-05 16:15:08.0', 'user_rank': '41', 'time_str': '', 'userId': '65', 'uuid': '7c9f8a03-5a6e-4000-a1ba-778a66f67e2b', 'url': 'http://127.0.0.1/api/I', 'username': 'userA81a248d1-5ff8-472b-9ea3-c70e1f49d51d'}, {'date_str': '', 'clickTime': '2021-08-05 16:12:38.0', 'user_rank': '20', 'time_str': '161238', 'userId': '69', 'uuid': 'c90bae40-6035-479f-b7aa-dced602038fa', 'url': '', 'username': 'userE3668ff08-c319-48cd-a83c-9dc5865b1d89'}, {'date_str': '20210805', 'clickTime': '2021-08-05 16:12:48.0', 'user_rank': '9', 'time_str': '', 'userId': '65', 'uuid': 'ab418ff2-f116-4b15-b6ad-e2b597f5b2d9', 'url': 'http://127.0.0.1/api/I', 'username': 'userA398ada17-abf6-461e-8943-86ceac6f9b2d'}, {'date_str': '', 'clickTime': '2021-08-05 16:12:58.0', 'user_rank': '31', 'time_str': '161258', 'userId': '69', 'uuid': '71ac91a8-955d-480d-b458-6772821560dc', 'url': '', 'username': 'userE8fa666d4-bd53-43c2-82d8-de3a77b86a6c'}, {'date_str': '20210805', 'clickTime': '2021-08-05 16:13:08.0', 'user_rank': '28', 'time_str': '', 'userId': '67', 'uuid': '71d82c90-650a-4685-a008-69425f468168', 'url': 'http://127.0.0.1/api/K', 'username': 'userC5e78a009-107f-49dd-90d6-3c356dcdcc37'}, {'date_str': '', 'clickTime': '2021-08-05 16:13:18.0', 'user_rank': '46', 'time_str': '161318', 'userId': '66', 'uuid': '3dc26d17-107f-4cc6-a3de-a6f3210db8b4', 'url': '', 'username': 'userB1dea9cf3-88c7-4ee7-b9f9-6dab68d7a843'}, {'date_str': '', 'clickTime': '2021-08-05 16:13:28.0', 'user_rank': '96', 'time_str': '161328', 'userId': '65', 'uuid': '0fade666-7685-43da-9f1c-b8f5137c25c1', 'url': '', 'username': 'userAe8b80234-29aa-45f5-9ba3-ca5aeb376804'}, {'date_str': '20210805', 'clickTime': '2021-08-05 16:13:38.0', 'user_rank': '86', 'time_str': '', 'userId': '65', 'uuid': 'cbab52ea-c67e-4894-83b8-969bfb000105', 'url': 'http://127.0.0.1/api/J', 'username': 'userAe61dd134-7471-4b31-b516-5f97e7036edf'}, {'date_str': '', 'clickTime': '2021-08-05 16:13:48.0', 'user_rank': '34', 'time_str': '161348', 'userId': '72', 'uuid': 'e411f1b4-f72a-42e9-ac41-184dd3b26a9f', 'url': '', 'username': 'userH84ea6978-08f1-4f21-b173-42146cbd428d'}, {'date_str': '', 'clickTime': '2021-08-05 16:13:58.0', 'user_rank': '48', 'time_str': '161358', 'userId': '73', 'uuid': '3243f3c1-3aff-4e3a-b731-8cfb519e7bdf', 'url': '', 'username': 'userI74331aee-a54f-4f1e-8007-7a9f73c704ac'}, {'date_str': '', 'clickTime': '2021-08-05 16:14:08.0', 'user_rank': '21', 'time_str': '161408', 'userId': '73', 'uuid': 'cd68b1d1-ecf9-40ec-9313-401412ac7550', 'url': '', 'username': 'userId6bf926f-c27f-4047-817e-3815fc39e202'}, {'date_str': '20210805', 'clickTime': '2021-08-05 16:14:18.0', 'user_rank': '29', 'time_str': '', 'userId': '72', 'uuid': '89427085-cf93-4bd7-8373-672d9fd0d82a', 'url': 'http://127.0.0.1/api/I', 'username': 'userH14db720c-2b5d-4e71-8705-681b8c5cb6bc'}, {'date_str': '20210805', 'clickTime': '2021-08-05 16:14:28.0', 'user_rank': '96', 'time_str': '', 'userId': '65', 'uuid': 'e71209e2-03a2-42e7-a27a-15f41f87bfaa', 'url': 'http://127.0.0.1/api/J', 'username': 'userAf1a2b012-6a2c-432d-a072-68cfe0e74a45'}, {'date_str': '20210805', 'clickTime': '2021-08-05 16:14:38.0', 'user_rank': '19', 'time_str': '', 'userId': '69', 'uuid': '23ab70d1-9d2d-4de3-8671-24c25fd1cfb3', 'url': 'http://127.0.0.1/api/I', 'username': 'userE0ad78ff8-00f2-40d6-bd3f-d804d1fdc65e'}, {'date_str': '20210805', 'clickTime': '2021-08-05 16:14:48.0', 'user_rank': '6', 'time_str': '', 'userId': '67', 'uuid': 'c399240d-4d09-431e-9fbe-390c9553a6ee', 'url': 'http://127.0.0.1/api/I', 'username': 'userCa8db9f55-5fb9-4619-a13f-882c9f5b9480'}, {'date_str': '20210805', 'clickTime': '2021-08-05 16:14:58.0', 'user_rank': '72', 'time_str': '', 'userId': '70', 'uuid': '57a0d8ce-c098-45ff-9a29-60d766da3a26', 'url': 'http://127.0.0.1/api/J', 'username': 'userF089cefc3-9b98-40e4-832c-d3cdce7bdaae'}, {'date_str': '20210805', 'clickTime': '2021-08-05 16:15:08.0', 'user_rank': '41', 'time_str': '', 'userId': '65', 'uuid': '7c9f8a03-5a6e-4000-a1ba-778a66f67e2b', 'url': 'http://127.0.0.1/api/I', 'username': 'userA81a248d1-5ff8-472b-9ea3-c70e1f49d51d'}]</t>
   </si>
 </sst>
 </file>
@@ -1476,12 +1755,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="32">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1501,7 +1780,7 @@
       <charset val="0"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10"/>
       <color rgb="FF222222"/>
       <name val="Consolas"/>
       <charset val="0"/>
@@ -1513,9 +1792,32 @@
       <charset val="0"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="9.8"/>
+      <color rgb="FF6A8759"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
       <charset val="0"/>
     </font>
     <font>
@@ -1531,17 +1833,8 @@
       <charset val="0"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1554,17 +1847,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1572,6 +1871,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1591,30 +1898,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1622,7 +1908,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1636,9 +1930,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1654,7 +1963,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1662,7 +1971,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1673,18 +1982,6 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="0"/>
     </font>
   </fonts>
   <fills count="36">
@@ -1714,13 +2011,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1738,6 +2041,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1750,7 +2083,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1762,25 +2155,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1792,109 +2185,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1910,8 +2207,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1935,23 +2234,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1971,6 +2264,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1986,174 +2288,169 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="2">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="6">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="2">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2163,16 +2460,29 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2494,8 +2804,8 @@
   <sheetPr/>
   <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A5" sqref="$A1:$XFD65"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -2570,7 +2880,7 @@
       <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="8" t="s">
         <v>18</v>
       </c>
       <c r="H2" t="s">
@@ -2894,7 +3204,7 @@
       <c r="F11" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="8" t="s">
         <v>18</v>
       </c>
       <c r="H11" t="s">
@@ -2926,7 +3236,7 @@
       <c r="F12" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="8" t="s">
         <v>18</v>
       </c>
       <c r="H12" t="s">
@@ -2952,7 +3262,7 @@
       <c r="B13" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="16" t="s">
         <v>65</v>
       </c>
       <c r="D13" t="s">
@@ -3028,7 +3338,7 @@
       <c r="B15" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="16" t="s">
         <v>77</v>
       </c>
       <c r="D15" t="s">
@@ -3066,7 +3376,7 @@
       <c r="B16" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="16" t="s">
         <v>82</v>
       </c>
       <c r="D16" t="s">
@@ -3349,10 +3659,10 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="17" t="s">
         <v>124</v>
       </c>
       <c r="D24" t="s">
@@ -3457,13 +3767,13 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="17" t="s">
         <v>136</v>
       </c>
       <c r="C27" t="s">
         <v>137</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="11" t="s">
         <v>138</v>
       </c>
       <c r="E27" t="s">
@@ -3495,7 +3805,7 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="11" t="s">
         <v>143</v>
       </c>
       <c r="E28" t="s">
@@ -3568,7 +3878,7 @@
       <c r="B30" t="s">
         <v>153</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="16" t="s">
         <v>154</v>
       </c>
       <c r="D30" t="s">
@@ -3842,10 +4152,10 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="17" t="s">
         <v>183</v>
       </c>
       <c r="D38" t="s">
@@ -4090,7 +4400,7 @@
       <c r="C45" t="s">
         <v>212</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="11" t="s">
         <v>213</v>
       </c>
       <c r="E45" t="s">
@@ -4119,7 +4429,7 @@
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="11" t="s">
         <v>218</v>
       </c>
       <c r="E46" t="s">
@@ -4154,7 +4464,7 @@
       <c r="C47" t="s">
         <v>222</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="11" t="s">
         <v>223</v>
       </c>
       <c r="E47" t="s">
@@ -4183,7 +4493,7 @@
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="11" t="s">
         <v>228</v>
       </c>
       <c r="E48" t="s">
@@ -4218,7 +4528,7 @@
       <c r="C49" t="s">
         <v>230</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="11" t="s">
         <v>231</v>
       </c>
       <c r="E49" t="s">
@@ -4247,7 +4557,7 @@
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="11" t="s">
         <v>234</v>
       </c>
       <c r="E50" t="s">
@@ -4276,7 +4586,7 @@
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="11" t="s">
         <v>236</v>
       </c>
       <c r="E51" t="s">
@@ -4305,7 +4615,7 @@
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="11" t="s">
         <v>238</v>
       </c>
       <c r="E52" t="s">
@@ -4334,7 +4644,7 @@
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="11" t="s">
         <v>240</v>
       </c>
       <c r="E53" t="s">
@@ -4363,7 +4673,7 @@
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="11" t="s">
         <v>242</v>
       </c>
       <c r="E54" t="s">
@@ -4392,7 +4702,7 @@
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="11" t="s">
         <v>244</v>
       </c>
       <c r="E55" t="s">
@@ -4421,7 +4731,7 @@
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="11" t="s">
         <v>244</v>
       </c>
       <c r="E56" t="s">
@@ -4450,7 +4760,7 @@
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="11" t="s">
         <v>246</v>
       </c>
       <c r="E57" t="s">
@@ -4791,7 +5101,7 @@
   <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD2"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -4851,7 +5161,7 @@
       <c r="C2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="11" t="s">
         <v>256</v>
       </c>
       <c r="E2" t="s">
@@ -4860,7 +5170,7 @@
       <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="8" t="s">
         <v>18</v>
       </c>
       <c r="H2" t="s">
@@ -5012,7 +5322,7 @@
       <c r="F6" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="8" t="s">
         <v>18</v>
       </c>
       <c r="H6" t="s">
@@ -5047,7 +5357,7 @@
       <c r="F7" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="8" t="s">
         <v>18</v>
       </c>
       <c r="H7" t="s">
@@ -5149,10 +5459,10 @@
       <c r="B10" t="s">
         <v>282</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="11" t="s">
         <v>283</v>
       </c>
       <c r="E10" t="s">
@@ -5187,10 +5497,10 @@
       <c r="B11" t="s">
         <v>286</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="11" t="s">
         <v>287</v>
       </c>
       <c r="E11" t="s">
@@ -5225,10 +5535,10 @@
       <c r="B12" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="11" t="s">
         <v>291</v>
       </c>
       <c r="E12" t="s">
@@ -5263,10 +5573,10 @@
       <c r="B13" t="s">
         <v>294</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="11" t="s">
         <v>295</v>
       </c>
       <c r="E13" t="s">
@@ -5301,10 +5611,10 @@
       <c r="B14" t="s">
         <v>298</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="11" t="s">
         <v>299</v>
       </c>
       <c r="E14" t="s">
@@ -5339,10 +5649,10 @@
       <c r="B15" t="s">
         <v>302</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="11" t="s">
         <v>303</v>
       </c>
       <c r="E15" t="s">
@@ -5377,10 +5687,10 @@
       <c r="B16" t="s">
         <v>306</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="11" t="s">
         <v>307</v>
       </c>
       <c r="E16" t="s">
@@ -5403,7 +5713,7 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="11" t="s">
         <v>310</v>
       </c>
       <c r="E17" t="s">
@@ -5426,7 +5736,7 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="11" t="s">
         <v>312</v>
       </c>
       <c r="E18" t="s">
@@ -5449,7 +5759,7 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="11" t="s">
         <v>313</v>
       </c>
       <c r="E19" t="s">
@@ -5472,13 +5782,13 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="11" t="s">
         <v>315</v>
       </c>
       <c r="E20" t="s">
@@ -5504,10 +5814,10 @@
       <c r="B21" t="s">
         <v>317</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="11" t="s">
         <v>318</v>
       </c>
       <c r="E21" t="s">
@@ -5530,7 +5840,7 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="11" t="s">
         <v>320</v>
       </c>
       <c r="E22" t="s">
@@ -5553,13 +5863,13 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="17" t="s">
         <v>321</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="11" t="s">
         <v>322</v>
       </c>
       <c r="E23" t="s">
@@ -5582,7 +5892,7 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="11" t="s">
         <v>324</v>
       </c>
       <c r="E24" t="s">
@@ -5608,10 +5918,10 @@
       <c r="B25" t="s">
         <v>325</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="11" t="s">
         <v>326</v>
       </c>
       <c r="E25" t="s">
@@ -5637,10 +5947,10 @@
       <c r="B26" t="s">
         <v>328</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="11" t="s">
         <v>329</v>
       </c>
       <c r="E26" t="s">
@@ -5666,10 +5976,10 @@
       <c r="B27" t="s">
         <v>331</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="11" t="s">
         <v>332</v>
       </c>
       <c r="E27" t="s">
@@ -5695,10 +6005,10 @@
       <c r="B28" t="s">
         <v>334</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="11" t="s">
         <v>335</v>
       </c>
       <c r="E28" t="s">
@@ -5721,7 +6031,7 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="11" t="s">
         <v>337</v>
       </c>
       <c r="E29" t="s">
@@ -5744,7 +6054,7 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="11" t="s">
         <v>338</v>
       </c>
       <c r="E30" t="s">
@@ -5767,7 +6077,7 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="11" t="s">
         <v>339</v>
       </c>
       <c r="E31" t="s">
@@ -5790,7 +6100,7 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="11" t="s">
         <v>340</v>
       </c>
       <c r="E32" t="s">
@@ -5813,7 +6123,7 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="11" t="s">
         <v>341</v>
       </c>
       <c r="E33" t="s">
@@ -5836,13 +6146,13 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="11" t="s">
         <v>343</v>
       </c>
       <c r="E34" t="s">
@@ -5865,7 +6175,7 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="11" t="s">
         <v>346</v>
       </c>
       <c r="E35" t="s">
@@ -5874,7 +6184,7 @@
       <c r="F35" t="s">
         <v>17</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="G35" s="13" t="s">
         <v>191</v>
       </c>
       <c r="K35" t="s">
@@ -5888,7 +6198,7 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="11" t="s">
         <v>347</v>
       </c>
       <c r="E36" t="s">
@@ -5911,13 +6221,13 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="11" t="s">
         <v>350</v>
       </c>
       <c r="E37" t="s">
@@ -5940,7 +6250,7 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="11" t="s">
         <v>352</v>
       </c>
       <c r="E38" t="s">
@@ -5963,7 +6273,7 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="11" t="s">
         <v>354</v>
       </c>
       <c r="E39" t="s">
@@ -5986,7 +6296,7 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="11" t="s">
         <v>356</v>
       </c>
       <c r="E40" t="s">
@@ -6009,13 +6319,13 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="17" t="s">
         <v>358</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="11" t="s">
         <v>359</v>
       </c>
       <c r="E41" t="s">
@@ -6038,7 +6348,7 @@
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="11" t="s">
         <v>362</v>
       </c>
       <c r="E42" t="s">
@@ -6061,13 +6371,13 @@
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="11" t="s">
         <v>365</v>
       </c>
       <c r="E43" t="s">
@@ -6090,7 +6400,7 @@
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="11" t="s">
         <v>368</v>
       </c>
       <c r="E44" t="s">
@@ -6116,10 +6426,10 @@
       <c r="B45" t="s">
         <v>369</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="11" t="s">
         <v>370</v>
       </c>
       <c r="E45" t="s">
@@ -6142,7 +6452,7 @@
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="11" t="s">
         <v>373</v>
       </c>
       <c r="E46" t="s">
@@ -6165,7 +6475,7 @@
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="11" t="s">
         <v>375</v>
       </c>
       <c r="E47" t="s">
@@ -6188,7 +6498,7 @@
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="11" t="s">
         <v>377</v>
       </c>
       <c r="E48" t="s">
@@ -6211,7 +6521,7 @@
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="11" t="s">
         <v>379</v>
       </c>
       <c r="E49" t="s">
@@ -6234,7 +6544,7 @@
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="11" t="s">
         <v>381</v>
       </c>
       <c r="E50" t="s">
@@ -6257,7 +6567,7 @@
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="D51" s="14" t="s">
+      <c r="D51" s="19" t="s">
         <v>383</v>
       </c>
       <c r="E51" t="s">
@@ -6266,7 +6576,7 @@
       <c r="F51" t="s">
         <v>171</v>
       </c>
-      <c r="G51" s="11" t="s">
+      <c r="G51" s="16" t="s">
         <v>384</v>
       </c>
       <c r="K51" t="s">
@@ -6280,7 +6590,7 @@
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="11" t="s">
         <v>385</v>
       </c>
       <c r="E52" t="s">
@@ -6303,7 +6613,7 @@
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="11" t="s">
         <v>386</v>
       </c>
       <c r="E53" t="s">
@@ -6333,8 +6643,8 @@
   <sheetPr/>
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H65" sqref="H65"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -6390,20 +6700,18 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="11" t="s">
         <v>387</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H2"/>
-      <c r="I2"/>
       <c r="K2" t="s">
         <v>21</v>
       </c>
@@ -6415,20 +6723,18 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="11" t="s">
         <v>389</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="12" t="s">
         <v>390</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
       </c>
-      <c r="H3"/>
-      <c r="I3"/>
       <c r="K3" t="s">
         <v>21</v>
       </c>
@@ -6440,20 +6746,18 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="11" t="s">
         <v>391</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="12" t="s">
         <v>392</v>
       </c>
       <c r="G4" t="s">
         <v>34</v>
       </c>
-      <c r="H4"/>
-      <c r="I4"/>
       <c r="K4" t="s">
         <v>21</v>
       </c>
@@ -6465,20 +6769,18 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="11" t="s">
         <v>393</v>
       </c>
       <c r="C5" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="12" t="s">
         <v>394</v>
       </c>
       <c r="G5" t="s">
         <v>18</v>
       </c>
-      <c r="H5"/>
-      <c r="I5"/>
       <c r="K5" t="s">
         <v>21</v>
       </c>
@@ -6490,14 +6792,12 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="12" t="s">
         <v>395</v>
       </c>
       <c r="G6" t="s">
         <v>18</v>
       </c>
-      <c r="H6"/>
-      <c r="I6"/>
       <c r="K6" t="s">
         <v>21</v>
       </c>
@@ -6509,14 +6809,12 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="12" t="s">
         <v>396</v>
       </c>
       <c r="G7" t="s">
         <v>18</v>
       </c>
-      <c r="H7"/>
-      <c r="I7"/>
       <c r="K7" t="s">
         <v>21</v>
       </c>
@@ -6525,7 +6823,7 @@
       </c>
     </row>
     <row r="8" spans="4:7">
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="12" t="s">
         <v>397</v>
       </c>
       <c r="G8" t="s">
@@ -6533,7 +6831,7 @@
       </c>
     </row>
     <row r="9" spans="4:7">
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="12" t="s">
         <v>398</v>
       </c>
       <c r="G9" t="s">
@@ -6544,14 +6842,12 @@
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="12" t="s">
         <v>399</v>
       </c>
       <c r="G10" t="s">
         <v>18</v>
       </c>
-      <c r="H10"/>
-      <c r="I10"/>
       <c r="K10" t="s">
         <v>21</v>
       </c>
@@ -6563,20 +6859,18 @@
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="11" t="s">
         <v>400</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="12" t="s">
         <v>401</v>
       </c>
       <c r="G11" t="s">
         <v>49</v>
       </c>
-      <c r="H11"/>
-      <c r="I11"/>
       <c r="K11" t="s">
         <v>21</v>
       </c>
@@ -6588,20 +6882,18 @@
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="11" t="s">
         <v>402</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="12" t="s">
         <v>403</v>
       </c>
       <c r="G12" t="s">
         <v>56</v>
       </c>
-      <c r="H12"/>
-      <c r="I12"/>
       <c r="K12" t="s">
         <v>21</v>
       </c>
@@ -6613,20 +6905,18 @@
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="11" t="s">
         <v>404</v>
       </c>
       <c r="C13" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="12" t="s">
         <v>405</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="H13"/>
-      <c r="I13"/>
       <c r="K13" t="s">
         <v>21</v>
       </c>
@@ -6638,14 +6928,12 @@
       <c r="A14">
         <v>11</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="H14"/>
-      <c r="I14"/>
       <c r="K14" t="s">
         <v>21</v>
       </c>
@@ -6657,20 +6945,18 @@
       <c r="A15">
         <v>12</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="11" t="s">
         <v>409</v>
       </c>
       <c r="C15" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="12" t="s">
         <v>410</v>
       </c>
       <c r="G15" t="s">
         <v>68</v>
       </c>
-      <c r="H15"/>
-      <c r="I15"/>
       <c r="K15" t="s">
         <v>21</v>
       </c>
@@ -6682,20 +6968,18 @@
       <c r="A16">
         <v>13</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="11" t="s">
         <v>411</v>
       </c>
       <c r="C16" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="12" t="s">
         <v>412</v>
       </c>
       <c r="G16" t="s">
         <v>68</v>
       </c>
-      <c r="H16"/>
-      <c r="I16"/>
       <c r="K16" t="s">
         <v>21</v>
       </c>
@@ -6707,20 +6991,18 @@
       <c r="A17">
         <v>14</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="11" t="s">
         <v>413</v>
       </c>
       <c r="C17" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="12" t="s">
         <v>414</v>
       </c>
       <c r="G17" t="s">
         <v>79</v>
       </c>
-      <c r="H17"/>
-      <c r="I17"/>
       <c r="K17" t="s">
         <v>21</v>
       </c>
@@ -6732,20 +7014,18 @@
       <c r="A18">
         <v>15</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="11" t="s">
         <v>415</v>
       </c>
       <c r="C18" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="12" t="s">
         <v>416</v>
       </c>
       <c r="G18" t="s">
         <v>85</v>
       </c>
-      <c r="H18"/>
-      <c r="I18"/>
       <c r="K18" t="s">
         <v>21</v>
       </c>
@@ -6757,20 +7037,18 @@
       <c r="A19">
         <v>16</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="11" t="s">
         <v>417</v>
       </c>
       <c r="C19" t="s">
         <v>89</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="12" t="s">
         <v>418</v>
       </c>
       <c r="G19" t="s">
         <v>92</v>
       </c>
-      <c r="H19"/>
-      <c r="I19"/>
       <c r="K19" t="s">
         <v>21</v>
       </c>
@@ -6782,20 +7060,18 @@
       <c r="A20">
         <v>17</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="11" t="s">
         <v>419</v>
       </c>
       <c r="C20" t="s">
         <v>96</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="12" t="s">
         <v>420</v>
       </c>
       <c r="G20" t="s">
         <v>99</v>
       </c>
-      <c r="H20"/>
-      <c r="I20"/>
       <c r="K20" t="s">
         <v>21</v>
       </c>
@@ -6807,20 +7083,18 @@
       <c r="A21">
         <v>18</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="11" t="s">
         <v>421</v>
       </c>
       <c r="C21" t="s">
         <v>103</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="12" t="s">
         <v>422</v>
       </c>
       <c r="G21" t="s">
         <v>106</v>
       </c>
-      <c r="H21"/>
-      <c r="I21"/>
       <c r="K21" t="s">
         <v>21</v>
       </c>
@@ -6832,20 +7106,18 @@
       <c r="A22">
         <v>19</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="11" t="s">
         <v>423</v>
       </c>
       <c r="C22" t="s">
         <v>110</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="12" t="s">
         <v>424</v>
       </c>
       <c r="G22" t="s">
         <v>113</v>
       </c>
-      <c r="H22"/>
-      <c r="I22"/>
       <c r="K22" t="s">
         <v>21</v>
       </c>
@@ -6857,14 +7129,12 @@
       <c r="A23">
         <v>20</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="12" t="s">
         <v>425</v>
       </c>
       <c r="G23" t="s">
         <v>113</v>
       </c>
-      <c r="H23"/>
-      <c r="I23"/>
       <c r="K23" t="s">
         <v>21</v>
       </c>
@@ -6876,14 +7146,12 @@
       <c r="A24">
         <v>21</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="12" t="s">
         <v>426</v>
       </c>
       <c r="G24" t="s">
         <v>118</v>
       </c>
-      <c r="H24"/>
-      <c r="I24"/>
       <c r="K24" t="s">
         <v>21</v>
       </c>
@@ -6895,14 +7163,12 @@
       <c r="A25">
         <v>22</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="12" t="s">
         <v>427</v>
       </c>
       <c r="G25" t="s">
         <v>121</v>
       </c>
-      <c r="H25"/>
-      <c r="I25"/>
       <c r="K25" t="s">
         <v>21</v>
       </c>
@@ -6914,20 +7180,18 @@
       <c r="A26">
         <v>23</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="12" t="s">
         <v>428</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="12" t="s">
         <v>429</v>
       </c>
       <c r="G26" t="s">
         <v>127</v>
       </c>
-      <c r="H26"/>
-      <c r="I26"/>
       <c r="K26" t="s">
         <v>21</v>
       </c>
@@ -6939,20 +7203,18 @@
       <c r="A27">
         <v>24</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="11" t="s">
         <v>430</v>
       </c>
       <c r="C27" t="s">
         <v>131</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="12" t="s">
         <v>431</v>
       </c>
       <c r="G27" t="s">
         <v>127</v>
       </c>
-      <c r="H27"/>
-      <c r="I27"/>
       <c r="K27" t="s">
         <v>21</v>
       </c>
@@ -6964,14 +7226,12 @@
       <c r="A28">
         <v>25</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="12" t="s">
         <v>432</v>
       </c>
       <c r="G28" t="s">
         <v>56</v>
       </c>
-      <c r="H28"/>
-      <c r="I28"/>
       <c r="K28" t="s">
         <v>21</v>
       </c>
@@ -6983,20 +7243,18 @@
       <c r="A29">
         <v>26</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="11" t="s">
         <v>433</v>
       </c>
       <c r="C29" t="s">
         <v>137</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="12" t="s">
         <v>434</v>
       </c>
       <c r="G29" t="s">
         <v>140</v>
       </c>
-      <c r="H29"/>
-      <c r="I29"/>
       <c r="K29" t="s">
         <v>21</v>
       </c>
@@ -7008,14 +7266,12 @@
       <c r="A30">
         <v>27</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="12" t="s">
         <v>435</v>
       </c>
       <c r="G30" t="s">
         <v>144</v>
       </c>
-      <c r="H30"/>
-      <c r="I30"/>
       <c r="K30" t="s">
         <v>21</v>
       </c>
@@ -7027,20 +7283,18 @@
       <c r="A31">
         <v>28</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="11" t="s">
         <v>436</v>
       </c>
       <c r="C31" t="s">
         <v>147</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="12" t="s">
         <v>437</v>
       </c>
       <c r="G31" t="s">
         <v>150</v>
       </c>
-      <c r="H31"/>
-      <c r="I31"/>
       <c r="K31" t="s">
         <v>21</v>
       </c>
@@ -7052,21 +7306,18 @@
       <c r="A32">
         <v>29</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="11" t="s">
         <v>438</v>
       </c>
       <c r="C32" t="s">
         <v>154</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="12" t="s">
         <v>439</v>
       </c>
       <c r="G32" t="s">
         <v>157</v>
       </c>
-      <c r="H32"/>
-      <c r="I32"/>
-      <c r="J32"/>
       <c r="K32" t="s">
         <v>21</v>
       </c>
@@ -7078,20 +7329,18 @@
       <c r="A33">
         <v>30</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="11" t="s">
         <v>440</v>
       </c>
       <c r="C33" t="s">
         <v>163</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="12" t="s">
         <v>441</v>
       </c>
       <c r="G33" t="s">
         <v>18</v>
       </c>
-      <c r="H33"/>
-      <c r="I33"/>
       <c r="K33" t="s">
         <v>21</v>
       </c>
@@ -7103,13 +7352,13 @@
       <c r="A34">
         <v>31</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="11" t="s">
         <v>442</v>
       </c>
       <c r="C34" t="s">
         <v>168</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="12" t="s">
         <v>443</v>
       </c>
       <c r="G34" t="s">
@@ -7126,7 +7375,7 @@
       <c r="A35">
         <v>32</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="12" t="s">
         <v>444</v>
       </c>
       <c r="G35" t="s">
@@ -7143,7 +7392,7 @@
       <c r="A36">
         <v>33</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="12" t="s">
         <v>445</v>
       </c>
       <c r="G36" t="s">
@@ -7160,7 +7409,7 @@
       <c r="A37">
         <v>34</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="12" t="s">
         <v>446</v>
       </c>
       <c r="G37" t="s">
@@ -7177,7 +7426,7 @@
       <c r="A38">
         <v>35</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="12" t="s">
         <v>447</v>
       </c>
       <c r="G38" t="s">
@@ -7194,7 +7443,7 @@
       <c r="A39">
         <v>36</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="12" t="s">
         <v>448</v>
       </c>
       <c r="G39" t="s">
@@ -7211,21 +7460,18 @@
       <c r="A40">
         <v>37</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="11" t="s">
         <v>449</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="12" t="s">
         <v>450</v>
       </c>
       <c r="G40" t="s">
         <v>186</v>
       </c>
-      <c r="H40"/>
-      <c r="I40"/>
-      <c r="J40"/>
       <c r="K40" t="s">
         <v>21</v>
       </c>
@@ -7237,15 +7483,12 @@
       <c r="A41">
         <v>38</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="12" t="s">
         <v>451</v>
       </c>
       <c r="G41" t="s">
         <v>191</v>
       </c>
-      <c r="H41"/>
-      <c r="I41"/>
-      <c r="J41"/>
       <c r="K41" t="s">
         <v>21</v>
       </c>
@@ -7257,14 +7500,12 @@
       <c r="A42">
         <v>39</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="12" t="s">
         <v>452</v>
       </c>
       <c r="G42" t="s">
         <v>195</v>
       </c>
-      <c r="H42"/>
-      <c r="I42"/>
       <c r="K42" t="s">
         <v>21</v>
       </c>
@@ -7276,20 +7517,18 @@
       <c r="A43">
         <v>40</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="11" t="s">
         <v>453</v>
       </c>
       <c r="C43" t="s">
         <v>198</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="12" t="s">
         <v>454</v>
       </c>
       <c r="G43" t="s">
         <v>203</v>
       </c>
-      <c r="H43"/>
-      <c r="I43"/>
       <c r="K43" t="s">
         <v>21</v>
       </c>
@@ -7301,14 +7540,12 @@
       <c r="A44">
         <v>41</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="12" t="s">
         <v>455</v>
       </c>
       <c r="G44" t="s">
         <v>113</v>
       </c>
-      <c r="H44"/>
-      <c r="I44"/>
       <c r="K44" t="s">
         <v>21</v>
       </c>
@@ -7320,14 +7557,12 @@
       <c r="A45">
         <v>42</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="12" t="s">
         <v>456</v>
       </c>
       <c r="G45" t="s">
         <v>206</v>
       </c>
-      <c r="H45"/>
-      <c r="I45"/>
       <c r="K45" t="s">
         <v>21</v>
       </c>
@@ -7339,14 +7574,12 @@
       <c r="A46">
         <v>43</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="12" t="s">
         <v>457</v>
       </c>
       <c r="G46" t="s">
         <v>209</v>
       </c>
-      <c r="H46"/>
-      <c r="I46"/>
       <c r="K46" t="s">
         <v>21</v>
       </c>
@@ -7358,20 +7591,18 @@
       <c r="A47">
         <v>44</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="15" t="s">
         <v>458</v>
       </c>
       <c r="C47" t="s">
         <v>212</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="12" t="s">
         <v>459</v>
       </c>
       <c r="G47" t="s">
         <v>215</v>
       </c>
-      <c r="H47"/>
-      <c r="I47"/>
       <c r="K47" t="s">
         <v>21</v>
       </c>
@@ -7383,14 +7614,12 @@
       <c r="A48">
         <v>45</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="12" t="s">
         <v>460</v>
       </c>
       <c r="G48" t="s">
         <v>219</v>
       </c>
-      <c r="H48"/>
-      <c r="I48"/>
       <c r="K48" t="s">
         <v>21</v>
       </c>
@@ -7402,20 +7631,18 @@
       <c r="A49">
         <v>46</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="11" t="s">
         <v>461</v>
       </c>
       <c r="C49" t="s">
         <v>222</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="12" t="s">
         <v>462</v>
       </c>
       <c r="G49" t="s">
         <v>225</v>
       </c>
-      <c r="H49"/>
-      <c r="I49"/>
       <c r="K49" t="s">
         <v>21</v>
       </c>
@@ -7427,14 +7654,12 @@
       <c r="A50">
         <v>47</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="12" t="s">
         <v>463</v>
       </c>
       <c r="G50" t="s">
         <v>225</v>
       </c>
-      <c r="H50"/>
-      <c r="I50"/>
       <c r="K50" t="s">
         <v>21</v>
       </c>
@@ -7446,13 +7671,13 @@
       <c r="A51">
         <v>48</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="11" t="s">
         <v>464</v>
       </c>
       <c r="C51" t="s">
         <v>230</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="12" t="s">
         <v>465</v>
       </c>
       <c r="G51" t="s">
@@ -7469,7 +7694,7 @@
       <c r="A52">
         <v>49</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52" s="12" t="s">
         <v>466</v>
       </c>
       <c r="G52" t="s">
@@ -7486,7 +7711,7 @@
       <c r="A53">
         <v>50</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="12" t="s">
         <v>467</v>
       </c>
       <c r="G53" t="s">
@@ -7503,7 +7728,7 @@
       <c r="A54">
         <v>51</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="12" t="s">
         <v>468</v>
       </c>
       <c r="G54" t="s">
@@ -7520,7 +7745,7 @@
       <c r="A55">
         <v>52</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55" s="12" t="s">
         <v>469</v>
       </c>
       <c r="G55" t="s">
@@ -7537,7 +7762,7 @@
       <c r="A56">
         <v>53</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="12" t="s">
         <v>470</v>
       </c>
       <c r="G56" t="s">
@@ -7554,7 +7779,7 @@
       <c r="A57">
         <v>54</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="12" t="s">
         <v>471</v>
       </c>
       <c r="G57" t="s">
@@ -7571,7 +7796,7 @@
       <c r="A58">
         <v>55</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="12" t="s">
         <v>472</v>
       </c>
       <c r="G58" t="s">
@@ -7588,7 +7813,7 @@
       <c r="A59">
         <v>56</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D59" s="12" t="s">
         <v>473</v>
       </c>
       <c r="G59" t="s">
@@ -7599,7 +7824,7 @@
       <c r="A60">
         <v>57</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="12" t="s">
         <v>475</v>
       </c>
       <c r="G60" t="s">
@@ -7616,25 +7841,723 @@
       <c r="A61">
         <v>58</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="11" t="s">
         <v>476</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C61" t="s">
+        <v>249</v>
+      </c>
+      <c r="D61" s="11" t="s">
         <v>477</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>478</v>
       </c>
       <c r="G61" t="s">
         <v>252</v>
       </c>
-      <c r="H61"/>
-      <c r="I61"/>
       <c r="K61" t="s">
         <v>21</v>
       </c>
       <c r="M61">
         <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="3"/>
+  <cols>
+    <col min="2" max="2" width="43.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="17.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="21.2857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.5" customHeight="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>478</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>480</v>
+      </c>
+      <c r="E2" t="s">
+        <v>481</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="H2" t="s">
+        <v>483</v>
+      </c>
+      <c r="I2" t="s">
+        <v>159</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" spans="2:12">
+      <c r="B3" s="20" t="s">
+        <v>485</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>487</v>
+      </c>
+      <c r="E3" t="s">
+        <v>481</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="I3" t="s">
+        <v>159</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C4" t="s">
+        <v>490</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="2" max="2" width="43.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="17.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="21.2857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.5" customHeight="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" ht="13.5" customHeight="1" spans="1:12">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="E2" t="s">
+        <v>493</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="H2" t="s">
+        <v>494</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="3" ht="11" customHeight="1" spans="1:12">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="E3" t="s">
+        <v>499</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="H3" t="s">
+        <v>500</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>502</v>
+      </c>
+      <c r="C4" t="s">
+        <v>503</v>
+      </c>
+      <c r="D4" t="s">
+        <v>504</v>
+      </c>
+      <c r="E4" t="s">
+        <v>505</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>506</v>
+      </c>
+      <c r="H4" t="s">
+        <v>506</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>508</v>
+      </c>
+      <c r="C5" t="s">
+        <v>509</v>
+      </c>
+      <c r="D5" t="s">
+        <v>510</v>
+      </c>
+      <c r="E5" t="s">
+        <v>511</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>512</v>
+      </c>
+      <c r="H5" t="s">
+        <v>513</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>489</v>
+      </c>
+      <c r="C6" t="s">
+        <v>490</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="E6" t="s">
+        <v>516</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>517</v>
+      </c>
+      <c r="H6" t="s">
+        <v>517</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>519</v>
+      </c>
+      <c r="C7" t="s">
+        <v>520</v>
+      </c>
+      <c r="D7" t="s">
+        <v>521</v>
+      </c>
+      <c r="E7" t="s">
+        <v>522</v>
+      </c>
+      <c r="K7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>523</v>
+      </c>
+      <c r="C8" t="s">
+        <v>524</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="E8" t="s">
+        <v>526</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>527</v>
+      </c>
+      <c r="H8" t="s">
+        <v>528</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>530</v>
+      </c>
+      <c r="C9" t="s">
+        <v>531</v>
+      </c>
+      <c r="D9" t="s">
+        <v>532</v>
+      </c>
+      <c r="E9" t="s">
+        <v>533</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>534</v>
+      </c>
+      <c r="H9" t="s">
+        <v>535</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="10" ht="18" customHeight="1" spans="1:12">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>537</v>
+      </c>
+      <c r="C10" t="s">
+        <v>538</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="E10" t="s">
+        <v>540</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="H10" t="s">
+        <v>542</v>
+      </c>
+      <c r="I10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>544</v>
+      </c>
+      <c r="C11" t="s">
+        <v>545</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="E11" t="s">
+        <v>547</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>548</v>
+      </c>
+      <c r="H11" t="s">
+        <v>548</v>
+      </c>
+      <c r="I11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="12" ht="16" customHeight="1" spans="2:11">
+      <c r="B12" t="s">
+        <v>550</v>
+      </c>
+      <c r="C12" t="s">
+        <v>551</v>
+      </c>
+      <c r="D12" t="s">
+        <v>552</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="K12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="C13" t="s">
+        <v>555</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="E13" t="s">
+        <v>557</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>558</v>
+      </c>
+      <c r="H13" t="s">
+        <v>559</v>
+      </c>
+      <c r="I13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="L13" t="s">
+        <v>561</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="15.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="23.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="22.2857142857143" customWidth="1"/>
+    <col min="7" max="7" width="21.7142857142857" customWidth="1"/>
+    <col min="9" max="9" width="25.4285714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.5" customHeight="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10">
+      <c r="B2" t="s">
+        <v>562</v>
+      </c>
+      <c r="C2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D2" t="s">
+        <v>564</v>
+      </c>
+      <c r="F2" t="s">
+        <v>565</v>
+      </c>
+      <c r="G2" t="s">
+        <v>566</v>
+      </c>
+      <c r="H2" t="s">
+        <v>567</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" t="s">
+        <v>569</v>
+      </c>
+      <c r="C3" t="s">
+        <v>570</v>
+      </c>
+      <c r="D3" t="s">
+        <v>571</v>
+      </c>
+      <c r="F3" t="s">
+        <v>565</v>
+      </c>
+      <c r="G3" t="s">
+        <v>572</v>
+      </c>
+      <c r="H3" t="s">
+        <v>573</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>568</v>
       </c>
     </row>
   </sheetData>
